--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/ENTRADAS OBRADOR  ABRIL    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/ENTRADAS OBRADOR  ABRIL    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CANALES  ENERO  2022   " sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="364">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -663,9 +663,6 @@
     <t xml:space="preserve">PORCICOLA SAN BERNARDO  </t>
   </si>
   <si>
-    <t>T-13</t>
-  </si>
-  <si>
     <t>XXXXX</t>
   </si>
   <si>
@@ -691,12 +688,6 @@
   </si>
   <si>
     <t>20069--8688</t>
-  </si>
-  <si>
-    <t>T-12</t>
-  </si>
-  <si>
-    <t>T-11</t>
   </si>
   <si>
     <t>XXXX</t>
@@ -747,12 +738,6 @@
     <t>20091--10711</t>
   </si>
   <si>
-    <t>20104--4684</t>
-  </si>
-  <si>
-    <t>20104--3232</t>
-  </si>
-  <si>
     <t>20091--8696</t>
   </si>
   <si>
@@ -769,18 +754,6 @@
   </si>
   <si>
     <t>FOLIO 10710</t>
-  </si>
-  <si>
-    <t>20116--3242</t>
-  </si>
-  <si>
-    <t>20116--10726</t>
-  </si>
-  <si>
-    <t>20122--3239</t>
-  </si>
-  <si>
-    <t>20122--6729</t>
   </si>
   <si>
     <t>PORCICOLA SAN BERNARDO  250</t>
@@ -1072,6 +1045,81 @@
   </si>
   <si>
     <t>20224--4725</t>
+  </si>
+  <si>
+    <t>AGROPECUARIA LA CHEMITA</t>
+  </si>
+  <si>
+    <t>CANALES  48</t>
+  </si>
+  <si>
+    <t>AGROPECUARIA LA CHEMITA   248</t>
+  </si>
+  <si>
+    <t>AGROPECUARIA  LA CHEMITA</t>
+  </si>
+  <si>
+    <t>T-34</t>
+  </si>
+  <si>
+    <t>FOLIO CENTRAL  6985</t>
+  </si>
+  <si>
+    <t>A-894</t>
+  </si>
+  <si>
+    <t>T-35</t>
+  </si>
+  <si>
+    <t>10812--</t>
+  </si>
+  <si>
+    <t>7821--</t>
+  </si>
+  <si>
+    <t>5-Abr-22         19-Abr-22</t>
+  </si>
+  <si>
+    <t>10814--</t>
+  </si>
+  <si>
+    <t>6751--</t>
+  </si>
+  <si>
+    <t>7827--</t>
+  </si>
+  <si>
+    <t>7830--</t>
+  </si>
+  <si>
+    <t>10831--</t>
+  </si>
+  <si>
+    <t>10829--</t>
+  </si>
+  <si>
+    <t>D-3922</t>
+  </si>
+  <si>
+    <t>20104--4684--10780</t>
+  </si>
+  <si>
+    <t>Brimalog SA de CV</t>
+  </si>
+  <si>
+    <t>20104--3232--10780</t>
+  </si>
+  <si>
+    <t>20116--10726--10790</t>
+  </si>
+  <si>
+    <t>20116--3242--10790</t>
+  </si>
+  <si>
+    <t>20122--6729--10791</t>
+  </si>
+  <si>
+    <t>20122--3239--10791</t>
   </si>
 </sst>
 </file>
@@ -3671,14 +3719,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="49" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="32" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3694,6 +3736,9 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3872,6 +3917,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4202,18 +4250,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="480" t="s">
+      <c r="A1" s="479" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="480"/>
-      <c r="C1" s="480"/>
-      <c r="D1" s="480"/>
-      <c r="E1" s="480"/>
-      <c r="F1" s="480"/>
-      <c r="G1" s="480"/>
-      <c r="H1" s="480"/>
-      <c r="I1" s="480"/>
-      <c r="J1" s="480"/>
+      <c r="B1" s="479"/>
+      <c r="C1" s="479"/>
+      <c r="D1" s="479"/>
+      <c r="E1" s="479"/>
+      <c r="F1" s="479"/>
+      <c r="G1" s="479"/>
+      <c r="H1" s="479"/>
+      <c r="I1" s="479"/>
+      <c r="J1" s="479"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -4227,22 +4275,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="481" t="s">
+      <c r="W1" s="480" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="482"/>
+      <c r="X1" s="481"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="480"/>
-      <c r="B2" s="480"/>
-      <c r="C2" s="480"/>
-      <c r="D2" s="480"/>
-      <c r="E2" s="480"/>
-      <c r="F2" s="480"/>
-      <c r="G2" s="480"/>
-      <c r="H2" s="480"/>
-      <c r="I2" s="480"/>
-      <c r="J2" s="480"/>
+      <c r="A2" s="479"/>
+      <c r="B2" s="479"/>
+      <c r="C2" s="479"/>
+      <c r="D2" s="479"/>
+      <c r="E2" s="479"/>
+      <c r="F2" s="479"/>
+      <c r="G2" s="479"/>
+      <c r="H2" s="479"/>
+      <c r="I2" s="479"/>
+      <c r="J2" s="479"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -4296,10 +4344,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="483" t="s">
+      <c r="O3" s="482" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="484"/>
+      <c r="P3" s="483"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -4843,7 +4891,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="485" t="s">
+      <c r="C12" s="484" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -4907,7 +4955,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="486"/>
+      <c r="C13" s="485"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -6909,13 +6957,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="497" t="s">
+      <c r="A56" s="496" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="499" t="s">
+      <c r="C56" s="498" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -6926,7 +6974,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="491">
+      <c r="H56" s="490">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -6955,11 +7003,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="498"/>
+      <c r="A57" s="497"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="500"/>
+      <c r="C57" s="499"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -6968,7 +7016,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="492"/>
+      <c r="H57" s="491"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -6995,13 +7043,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="497" t="s">
+      <c r="A58" s="496" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="499" t="s">
+      <c r="C58" s="498" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -7012,7 +7060,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="491">
+      <c r="H58" s="490">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -7031,10 +7079,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="493" t="s">
+      <c r="O58" s="492" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="495">
+      <c r="P58" s="494">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -7045,11 +7093,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="498"/>
+      <c r="A59" s="497"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="500"/>
+      <c r="C59" s="499"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -7058,7 +7106,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="492"/>
+      <c r="H59" s="491"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -7075,8 +7123,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="494"/>
-      <c r="P59" s="496"/>
+      <c r="O59" s="493"/>
+      <c r="P59" s="495"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -7085,13 +7133,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="489" t="s">
+      <c r="A60" s="488" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="487" t="s">
+      <c r="C60" s="486" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -7105,7 +7153,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="491">
+      <c r="H60" s="490">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -7124,10 +7172,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="493" t="s">
+      <c r="O60" s="492" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="495">
+      <c r="P60" s="494">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -7140,11 +7188,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="490"/>
+      <c r="A61" s="489"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="488"/>
+      <c r="C61" s="487"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -7156,7 +7204,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="492"/>
+      <c r="H61" s="491"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -7173,8 +7221,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="494"/>
-      <c r="P61" s="496"/>
+      <c r="O61" s="493"/>
+      <c r="P61" s="495"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -7240,7 +7288,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="513"/>
+      <c r="C63" s="512"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -7248,7 +7296,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="515"/>
+      <c r="H63" s="514"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -7277,7 +7325,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="514"/>
+      <c r="C64" s="513"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -7285,7 +7333,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="516"/>
+      <c r="H64" s="515"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -7463,8 +7511,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="505"/>
-      <c r="P68" s="511"/>
+      <c r="O68" s="504"/>
+      <c r="P68" s="510"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -7498,8 +7546,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="506"/>
-      <c r="P69" s="512"/>
+      <c r="O69" s="505"/>
+      <c r="P69" s="511"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -7989,8 +8037,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="505"/>
-      <c r="P82" s="507"/>
+      <c r="O82" s="504"/>
+      <c r="P82" s="506"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -8022,8 +8070,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="506"/>
-      <c r="P83" s="508"/>
+      <c r="O83" s="505"/>
+      <c r="P83" s="507"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -8055,8 +8103,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="505"/>
-      <c r="P84" s="507"/>
+      <c r="O84" s="504"/>
+      <c r="P84" s="506"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -8088,8 +8136,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="506"/>
-      <c r="P85" s="508"/>
+      <c r="O85" s="505"/>
+      <c r="P85" s="507"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -8247,8 +8295,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="509"/>
-      <c r="M90" s="510"/>
+      <c r="L90" s="508"/>
+      <c r="M90" s="509"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8280,8 +8328,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="509"/>
-      <c r="M91" s="510"/>
+      <c r="L91" s="508"/>
+      <c r="M91" s="509"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8484,8 +8532,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="505"/>
-      <c r="P97" s="501"/>
+      <c r="O97" s="504"/>
+      <c r="P97" s="500"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -8517,8 +8565,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="506"/>
-      <c r="P98" s="502"/>
+      <c r="O98" s="505"/>
+      <c r="P98" s="501"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -13910,11 +13958,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="503" t="s">
+      <c r="F262" s="502" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="503"/>
-      <c r="H262" s="504"/>
+      <c r="G262" s="502"/>
+      <c r="H262" s="503"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -14530,7 +14578,7 @@
   </sheetPr>
   <dimension ref="A1:X292"/>
   <sheetViews>
-    <sheetView topLeftCell="R10" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
@@ -14560,49 +14608,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="480" t="s">
+      <c r="A1" s="479" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="480"/>
-      <c r="C1" s="480"/>
-      <c r="D1" s="480"/>
-      <c r="E1" s="480"/>
-      <c r="F1" s="480"/>
-      <c r="G1" s="480"/>
-      <c r="H1" s="480"/>
-      <c r="I1" s="480"/>
-      <c r="J1" s="480"/>
+      <c r="B1" s="479"/>
+      <c r="C1" s="479"/>
+      <c r="D1" s="479"/>
+      <c r="E1" s="479"/>
+      <c r="F1" s="479"/>
+      <c r="G1" s="479"/>
+      <c r="H1" s="479"/>
+      <c r="I1" s="479"/>
+      <c r="J1" s="479"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="523" t="s">
+      <c r="S1" s="522" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="523"/>
+      <c r="T1" s="522"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="481" t="s">
+      <c r="W1" s="480" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="482"/>
+      <c r="X1" s="481"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="480"/>
-      <c r="B2" s="480"/>
-      <c r="C2" s="480"/>
-      <c r="D2" s="480"/>
-      <c r="E2" s="480"/>
-      <c r="F2" s="480"/>
-      <c r="G2" s="480"/>
-      <c r="H2" s="480"/>
-      <c r="I2" s="480"/>
-      <c r="J2" s="480"/>
+      <c r="A2" s="479"/>
+      <c r="B2" s="479"/>
+      <c r="C2" s="479"/>
+      <c r="D2" s="479"/>
+      <c r="E2" s="479"/>
+      <c r="F2" s="479"/>
+      <c r="G2" s="479"/>
+      <c r="H2" s="479"/>
+      <c r="I2" s="479"/>
+      <c r="J2" s="479"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -14610,8 +14658,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="524"/>
-      <c r="T2" s="524"/>
+      <c r="S2" s="523"/>
+      <c r="T2" s="523"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -14656,10 +14704,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="483" t="s">
+      <c r="O3" s="482" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="484"/>
+      <c r="P3" s="483"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -14733,7 +14781,7 @@
       <c r="S4" s="51"/>
       <c r="T4" s="52"/>
       <c r="U4" s="53" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="V4" s="54">
         <v>5104</v>
@@ -14797,7 +14845,7 @@
       <c r="S5" s="51"/>
       <c r="T5" s="52"/>
       <c r="U5" s="53" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="V5" s="54">
         <v>0</v>
@@ -14861,7 +14909,7 @@
       <c r="S6" s="51"/>
       <c r="T6" s="52"/>
       <c r="U6" s="53" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="V6" s="54">
         <v>0</v>
@@ -14925,7 +14973,7 @@
       <c r="S7" s="51"/>
       <c r="T7" s="52"/>
       <c r="U7" s="53" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="V7" s="54">
         <v>5104</v>
@@ -14989,7 +15037,7 @@
       <c r="S8" s="51"/>
       <c r="T8" s="52"/>
       <c r="U8" s="53" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="V8" s="54">
         <v>0</v>
@@ -15053,7 +15101,7 @@
       <c r="S9" s="51"/>
       <c r="T9" s="52"/>
       <c r="U9" s="53" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="V9" s="54">
         <v>5104</v>
@@ -15117,7 +15165,7 @@
       <c r="S10" s="51"/>
       <c r="T10" s="52"/>
       <c r="U10" s="53" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="V10" s="54">
         <v>0</v>
@@ -15181,7 +15229,7 @@
       <c r="S11" s="51"/>
       <c r="T11" s="52"/>
       <c r="U11" s="53" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="V11" s="54">
         <v>5104</v>
@@ -15245,7 +15293,7 @@
       <c r="S12" s="51"/>
       <c r="T12" s="52"/>
       <c r="U12" s="53" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="V12" s="54">
         <v>0</v>
@@ -15309,7 +15357,7 @@
       <c r="S13" s="51"/>
       <c r="T13" s="52"/>
       <c r="U13" s="53" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="V13" s="54">
         <v>5104</v>
@@ -15373,7 +15421,7 @@
       <c r="S14" s="51"/>
       <c r="T14" s="52"/>
       <c r="U14" s="53" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="V14" s="54">
         <v>0</v>
@@ -15437,7 +15485,7 @@
       <c r="S15" s="51"/>
       <c r="T15" s="92"/>
       <c r="U15" s="53" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="V15" s="54">
         <v>4640</v>
@@ -15501,7 +15549,7 @@
       <c r="S16" s="51"/>
       <c r="T16" s="92"/>
       <c r="U16" s="53" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="V16" s="54">
         <v>0</v>
@@ -15569,7 +15617,7 @@
         <v>143</v>
       </c>
       <c r="U17" s="457" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="V17" s="458">
         <v>0</v>
@@ -15637,7 +15685,7 @@
         <v>144</v>
       </c>
       <c r="U18" s="53" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="V18" s="54">
         <v>4640</v>
@@ -15705,7 +15753,7 @@
         <v>144</v>
       </c>
       <c r="U19" s="53" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="V19" s="54"/>
       <c r="W19" s="53" t="s">
@@ -15769,7 +15817,7 @@
         <v>145</v>
       </c>
       <c r="U20" s="459" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="V20" s="460">
         <v>4640</v>
@@ -15835,7 +15883,7 @@
         <v>145</v>
       </c>
       <c r="U21" s="459" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="V21" s="460">
         <v>0</v>
@@ -15904,7 +15952,7 @@
         <v>146</v>
       </c>
       <c r="U22" s="459" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="V22" s="460">
         <v>4640</v>
@@ -15972,7 +16020,7 @@
         <v>146</v>
       </c>
       <c r="U23" s="459" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="V23" s="460">
         <v>0</v>
@@ -16040,7 +16088,7 @@
         <v>171</v>
       </c>
       <c r="U24" s="459" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="V24" s="460">
         <v>4640</v>
@@ -16108,7 +16156,7 @@
         <v>171</v>
       </c>
       <c r="U25" s="459" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="V25" s="460">
         <v>0</v>
@@ -16177,7 +16225,7 @@
         <v>172</v>
       </c>
       <c r="U26" s="459" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="V26" s="460">
         <v>4640</v>
@@ -16245,7 +16293,7 @@
         <v>172</v>
       </c>
       <c r="U27" s="459" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="V27" s="460">
         <v>0</v>
@@ -16276,7 +16324,7 @@
         <v>44617</v>
       </c>
       <c r="H28" s="410" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I28" s="411">
         <v>21600</v>
@@ -16295,7 +16343,7 @@
         <v>702000</v>
       </c>
       <c r="O28" s="417" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P28" s="418">
         <v>44631</v>
@@ -16313,7 +16361,7 @@
         <v>149</v>
       </c>
       <c r="U28" s="459" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="V28" s="460">
         <v>4640</v>
@@ -16344,7 +16392,7 @@
         <v>44617</v>
       </c>
       <c r="H29" s="410" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I29" s="411">
         <v>5455</v>
@@ -16381,7 +16429,7 @@
         <v>149</v>
       </c>
       <c r="U29" s="459" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="V29" s="460">
         <v>0</v>
@@ -16401,7 +16449,7 @@
         <v>72</v>
       </c>
       <c r="C30" s="461" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D30" s="60"/>
       <c r="E30" s="40"/>
@@ -16412,7 +16460,7 @@
         <v>44619</v>
       </c>
       <c r="H30" s="410" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I30" s="411">
         <v>21935</v>
@@ -16449,7 +16497,7 @@
         <v>195</v>
       </c>
       <c r="U30" s="459" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="V30" s="460">
         <v>4640</v>
@@ -16469,7 +16517,7 @@
         <v>32</v>
       </c>
       <c r="C31" s="461" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D31" s="60"/>
       <c r="E31" s="40"/>
@@ -16480,7 +16528,7 @@
         <v>44619</v>
       </c>
       <c r="H31" s="63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I31" s="64">
         <v>5470</v>
@@ -16517,7 +16565,7 @@
         <v>195</v>
       </c>
       <c r="U31" s="459" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="V31" s="460">
         <v>0</v>
@@ -17295,13 +17343,13 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="525" t="s">
+      <c r="A55" s="524" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="499" t="s">
+      <c r="C55" s="498" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -17312,7 +17360,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="515" t="s">
+      <c r="H55" s="514" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -17341,11 +17389,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="526"/>
+      <c r="A56" s="525"/>
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="500"/>
+      <c r="C56" s="499"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -17354,7 +17402,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="516"/>
+      <c r="H56" s="515"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -17383,13 +17431,13 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="517" t="s">
+      <c r="A57" s="516" t="s">
         <v>41</v>
       </c>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="519" t="s">
+      <c r="C57" s="518" t="s">
         <v>162</v>
       </c>
       <c r="D57" s="165"/>
@@ -17400,7 +17448,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="515" t="s">
+      <c r="H57" s="514" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -17419,10 +17467,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="505" t="s">
+      <c r="O57" s="504" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="511">
+      <c r="P57" s="510">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -17433,11 +17481,11 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="518"/>
+      <c r="A58" s="517"/>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="520"/>
+      <c r="C58" s="519"/>
       <c r="D58" s="165"/>
       <c r="E58" s="40"/>
       <c r="F58" s="151">
@@ -17446,7 +17494,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="516"/>
+      <c r="H58" s="515"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -17463,8 +17511,8 @@
         <f t="shared" si="1"/>
         <v>58366.995299999995</v>
       </c>
-      <c r="O58" s="521"/>
-      <c r="P58" s="522"/>
+      <c r="O58" s="520"/>
+      <c r="P58" s="521"/>
       <c r="Q58" s="164"/>
       <c r="R58" s="129"/>
       <c r="S58" s="92"/>
@@ -17480,7 +17528,7 @@
         <v>23</v>
       </c>
       <c r="C59" s="451" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D59" s="163"/>
       <c r="E59" s="40"/>
@@ -17490,8 +17538,8 @@
       <c r="G59" s="152">
         <v>44613</v>
       </c>
-      <c r="H59" s="515" t="s">
-        <v>228</v>
+      <c r="H59" s="514" t="s">
+        <v>225</v>
       </c>
       <c r="I59" s="151">
         <v>1544.2</v>
@@ -17534,7 +17582,7 @@
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="516"/>
+      <c r="H60" s="515"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -17741,10 +17789,10 @@
         <v>106</v>
       </c>
       <c r="B65" s="178" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C65" s="183" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D65" s="171"/>
       <c r="E65" s="60"/>
@@ -18197,8 +18245,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="505"/>
-      <c r="P79" s="507"/>
+      <c r="O79" s="504"/>
+      <c r="P79" s="506"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -18227,8 +18275,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="506"/>
-      <c r="P80" s="508"/>
+      <c r="O80" s="505"/>
+      <c r="P80" s="507"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -18257,8 +18305,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="505"/>
-      <c r="P81" s="507"/>
+      <c r="O81" s="504"/>
+      <c r="P81" s="506"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -18290,8 +18338,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="506"/>
-      <c r="P82" s="508"/>
+      <c r="O82" s="505"/>
+      <c r="P82" s="507"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -18449,8 +18497,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="509"/>
-      <c r="M87" s="510"/>
+      <c r="L87" s="508"/>
+      <c r="M87" s="509"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18482,8 +18530,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="509"/>
-      <c r="M88" s="510"/>
+      <c r="L88" s="508"/>
+      <c r="M88" s="509"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18686,8 +18734,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="505"/>
-      <c r="P94" s="501"/>
+      <c r="O94" s="504"/>
+      <c r="P94" s="500"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -18719,8 +18767,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="506"/>
-      <c r="P95" s="502"/>
+      <c r="O95" s="505"/>
+      <c r="P95" s="501"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -24112,11 +24160,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="503" t="s">
+      <c r="F259" s="502" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="503"/>
-      <c r="H259" s="504"/>
+      <c r="G259" s="502"/>
+      <c r="H259" s="503"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>387207.97210000001</v>
@@ -24725,10 +24773,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="O29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O37" sqref="O37"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24757,49 +24805,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="480" t="s">
+      <c r="A1" s="479" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="480"/>
-      <c r="C1" s="480"/>
-      <c r="D1" s="480"/>
-      <c r="E1" s="480"/>
-      <c r="F1" s="480"/>
-      <c r="G1" s="480"/>
-      <c r="H1" s="480"/>
-      <c r="I1" s="480"/>
-      <c r="J1" s="480"/>
+      <c r="B1" s="479"/>
+      <c r="C1" s="479"/>
+      <c r="D1" s="479"/>
+      <c r="E1" s="479"/>
+      <c r="F1" s="479"/>
+      <c r="G1" s="479"/>
+      <c r="H1" s="479"/>
+      <c r="I1" s="479"/>
+      <c r="J1" s="479"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="523" t="s">
+      <c r="S1" s="522" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="523"/>
+      <c r="T1" s="522"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="481" t="s">
+      <c r="W1" s="480" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="482"/>
+      <c r="X1" s="481"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="480"/>
-      <c r="B2" s="480"/>
-      <c r="C2" s="480"/>
-      <c r="D2" s="480"/>
-      <c r="E2" s="480"/>
-      <c r="F2" s="480"/>
-      <c r="G2" s="480"/>
-      <c r="H2" s="480"/>
-      <c r="I2" s="480"/>
-      <c r="J2" s="480"/>
+      <c r="A2" s="479"/>
+      <c r="B2" s="479"/>
+      <c r="C2" s="479"/>
+      <c r="D2" s="479"/>
+      <c r="E2" s="479"/>
+      <c r="F2" s="479"/>
+      <c r="G2" s="479"/>
+      <c r="H2" s="479"/>
+      <c r="I2" s="479"/>
+      <c r="J2" s="479"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -24807,8 +24855,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="524"/>
-      <c r="T2" s="524"/>
+      <c r="S2" s="523"/>
+      <c r="T2" s="523"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -24853,10 +24901,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="483" t="s">
+      <c r="O3" s="482" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="484"/>
+      <c r="P3" s="483"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -24886,7 +24934,7 @@
         <v>191</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D4" s="39">
         <v>46</v>
@@ -24902,7 +24950,7 @@
         <v>44621</v>
       </c>
       <c r="H4" s="433" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I4" s="409">
         <v>24020</v>
@@ -24938,10 +24986,14 @@
       <c r="T4" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="U4" s="53"/>
-      <c r="V4" s="54"/>
+      <c r="U4" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="V4" s="54">
+        <v>4640</v>
+      </c>
       <c r="W4" s="55" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X4" s="56">
         <v>4176</v>
@@ -24955,7 +25007,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D5" s="60">
         <v>0</v>
@@ -24971,7 +25023,7 @@
         <v>44621</v>
       </c>
       <c r="H5" s="410" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I5" s="411">
         <v>5340</v>
@@ -25007,10 +25059,14 @@
       <c r="T5" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="U5" s="53"/>
-      <c r="V5" s="54"/>
+      <c r="U5" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="V5" s="54">
+        <v>0</v>
+      </c>
       <c r="W5" s="68" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X5" s="69">
         <v>0</v>
@@ -25024,7 +25080,7 @@
         <v>72</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D6" s="60">
         <v>46</v>
@@ -25040,7 +25096,7 @@
         <v>44623</v>
       </c>
       <c r="H6" s="410" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I6" s="411">
         <v>22575</v>
@@ -25076,10 +25132,14 @@
       <c r="T6" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="U6" s="53"/>
-      <c r="V6" s="54"/>
+      <c r="U6" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="V6" s="54">
+        <v>4640</v>
+      </c>
       <c r="W6" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X6" s="70">
         <v>4176</v>
@@ -25093,7 +25153,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D7" s="60">
         <v>0</v>
@@ -25109,7 +25169,7 @@
         <v>44623</v>
       </c>
       <c r="H7" s="410" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I7" s="411">
         <v>5615</v>
@@ -25145,10 +25205,14 @@
       <c r="T7" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="U7" s="53"/>
-      <c r="V7" s="54"/>
+      <c r="U7" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="V7" s="54">
+        <v>0</v>
+      </c>
       <c r="W7" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X7" s="70">
         <v>0</v>
@@ -25162,7 +25226,7 @@
         <v>191</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D8" s="60">
         <v>46</v>
@@ -25178,7 +25242,7 @@
         <v>44624</v>
       </c>
       <c r="H8" s="410" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I8" s="411">
         <v>21960</v>
@@ -25214,10 +25278,14 @@
       <c r="T8" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="U8" s="53"/>
-      <c r="V8" s="54"/>
+      <c r="U8" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="V8" s="54">
+        <v>4640</v>
+      </c>
       <c r="W8" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X8" s="70">
         <v>4176</v>
@@ -25231,7 +25299,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D9" s="60">
         <v>0</v>
@@ -25247,7 +25315,7 @@
         <v>44624</v>
       </c>
       <c r="H9" s="410" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I9" s="411">
         <v>5270</v>
@@ -25283,10 +25351,14 @@
       <c r="T9" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="U9" s="53"/>
-      <c r="V9" s="54"/>
+      <c r="U9" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="V9" s="54">
+        <v>0</v>
+      </c>
       <c r="W9" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X9" s="70">
         <v>4176</v>
@@ -25300,7 +25372,7 @@
         <v>72</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D10" s="72">
         <v>39</v>
@@ -25316,7 +25388,7 @@
         <v>44626</v>
       </c>
       <c r="H10" s="410" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I10" s="411">
         <v>22475</v>
@@ -25352,10 +25424,14 @@
       <c r="T10" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="U10" s="53"/>
-      <c r="V10" s="54"/>
+      <c r="U10" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="V10" s="54">
+        <v>4640</v>
+      </c>
       <c r="W10" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X10" s="70">
         <v>4176</v>
@@ -25369,7 +25445,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D11" s="60">
         <v>0</v>
@@ -25385,7 +25461,7 @@
         <v>44626</v>
       </c>
       <c r="H11" s="410" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I11" s="411">
         <v>5515</v>
@@ -25421,10 +25497,14 @@
       <c r="T11" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="U11" s="53"/>
-      <c r="V11" s="54"/>
+      <c r="U11" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="V11" s="54">
+        <v>0</v>
+      </c>
       <c r="W11" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X11" s="70">
         <v>4176</v>
@@ -25480,16 +25560,20 @@
         <v>0</v>
       </c>
       <c r="R12" s="67" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S12" s="51">
         <v>0</v>
       </c>
       <c r="T12" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="U12" s="53"/>
-      <c r="V12" s="54"/>
+        <v>220</v>
+      </c>
+      <c r="U12" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="V12" s="54">
+        <v>0</v>
+      </c>
       <c r="W12" s="53" t="s">
         <v>56</v>
       </c>
@@ -25497,7 +25581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="71" t="s">
         <v>206</v>
       </c>
@@ -25505,7 +25589,7 @@
         <v>52</v>
       </c>
       <c r="C13" s="432" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D13" s="60">
         <v>46</v>
@@ -25521,7 +25605,7 @@
         <v>44628</v>
       </c>
       <c r="H13" s="410" t="s">
-        <v>239</v>
+        <v>357</v>
       </c>
       <c r="I13" s="411">
         <v>22675</v>
@@ -25552,21 +25636,25 @@
         <v>44634</v>
       </c>
       <c r="S13" s="51">
-        <v>11200</v>
+        <v>32032</v>
       </c>
       <c r="T13" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="U13" s="53"/>
-      <c r="V13" s="54"/>
+        <v>358</v>
+      </c>
+      <c r="U13" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="V13" s="54">
+        <v>4640</v>
+      </c>
       <c r="W13" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X13" s="70">
         <v>4176</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="71" t="s">
         <v>105</v>
       </c>
@@ -25574,7 +25662,7 @@
         <v>32</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D14" s="60">
         <v>0</v>
@@ -25590,7 +25678,7 @@
         <v>44628</v>
       </c>
       <c r="H14" s="410" t="s">
-        <v>240</v>
+        <v>359</v>
       </c>
       <c r="I14" s="411">
         <v>5600</v>
@@ -25624,18 +25712,22 @@
         <v>0</v>
       </c>
       <c r="T14" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="U14" s="53"/>
-      <c r="V14" s="54"/>
+        <v>358</v>
+      </c>
+      <c r="U14" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="V14" s="54">
+        <v>0</v>
+      </c>
       <c r="W14" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X14" s="70">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="73" t="s">
         <v>207</v>
       </c>
@@ -25643,7 +25735,7 @@
         <v>72</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D15" s="60">
         <v>46</v>
@@ -25659,7 +25751,7 @@
         <v>44630</v>
       </c>
       <c r="H15" s="410" t="s">
-        <v>248</v>
+        <v>360</v>
       </c>
       <c r="I15" s="411">
         <v>22670</v>
@@ -25690,21 +25782,25 @@
         <v>44634</v>
       </c>
       <c r="S15" s="51">
-        <v>11200</v>
+        <v>32032</v>
       </c>
       <c r="T15" s="92" t="s">
-        <v>221</v>
-      </c>
-      <c r="U15" s="53"/>
-      <c r="V15" s="54"/>
+        <v>358</v>
+      </c>
+      <c r="U15" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="V15" s="54">
+        <v>4640</v>
+      </c>
       <c r="W15" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X15" s="70">
         <v>4176</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="71" t="s">
         <v>105</v>
       </c>
@@ -25712,7 +25808,7 @@
         <v>208</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D16" s="60">
         <v>0</v>
@@ -25728,7 +25824,7 @@
         <v>44630</v>
       </c>
       <c r="H16" s="410" t="s">
-        <v>247</v>
+        <v>361</v>
       </c>
       <c r="I16" s="411">
         <v>3295</v>
@@ -25762,18 +25858,22 @@
         <v>0</v>
       </c>
       <c r="T16" s="92" t="s">
-        <v>221</v>
-      </c>
-      <c r="U16" s="53"/>
-      <c r="V16" s="54"/>
+        <v>358</v>
+      </c>
+      <c r="U16" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="V16" s="54">
+        <v>0</v>
+      </c>
       <c r="W16" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X16" s="70">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="75" t="s">
         <v>209</v>
       </c>
@@ -25781,7 +25881,7 @@
         <v>72</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D17" s="60">
         <v>46</v>
@@ -25797,7 +25897,7 @@
         <v>44631</v>
       </c>
       <c r="H17" s="410" t="s">
-        <v>250</v>
+        <v>362</v>
       </c>
       <c r="I17" s="411">
         <v>23900</v>
@@ -25828,21 +25928,25 @@
         <v>44634</v>
       </c>
       <c r="S17" s="51">
-        <v>11200</v>
+        <v>32032</v>
       </c>
       <c r="T17" s="92" t="s">
-        <v>211</v>
-      </c>
-      <c r="U17" s="53"/>
-      <c r="V17" s="54"/>
+        <v>358</v>
+      </c>
+      <c r="U17" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="V17" s="54">
+        <v>4640</v>
+      </c>
       <c r="W17" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X17" s="70">
         <v>4176</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="78" t="s">
         <v>105</v>
       </c>
@@ -25850,7 +25954,7 @@
         <v>32</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D18" s="60">
         <v>0</v>
@@ -25866,7 +25970,7 @@
         <v>44631</v>
       </c>
       <c r="H18" s="410" t="s">
-        <v>249</v>
+        <v>363</v>
       </c>
       <c r="I18" s="411">
         <v>5360</v>
@@ -25900,12 +26004,16 @@
         <v>0</v>
       </c>
       <c r="T18" s="92" t="s">
-        <v>211</v>
-      </c>
-      <c r="U18" s="53"/>
-      <c r="V18" s="54"/>
+        <v>358</v>
+      </c>
+      <c r="U18" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="V18" s="54">
+        <v>0</v>
+      </c>
       <c r="W18" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X18" s="70">
         <v>0</v>
@@ -25919,7 +26027,7 @@
         <v>72</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D19" s="60">
         <v>46</v>
@@ -25935,7 +26043,7 @@
         <v>44633</v>
       </c>
       <c r="H19" s="410" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="I19" s="411">
         <v>21835</v>
@@ -25969,12 +26077,16 @@
         <v>11200</v>
       </c>
       <c r="T19" s="92" t="s">
-        <v>213</v>
-      </c>
-      <c r="U19" s="53"/>
-      <c r="V19" s="54"/>
+        <v>212</v>
+      </c>
+      <c r="U19" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="V19" s="54">
+        <v>4640</v>
+      </c>
       <c r="W19" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X19" s="70">
         <v>4176</v>
@@ -25988,7 +26100,7 @@
         <v>32</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D20" s="60">
         <v>0</v>
@@ -26004,7 +26116,7 @@
         <v>44633</v>
       </c>
       <c r="H20" s="410" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="I20" s="411">
         <v>5600</v>
@@ -26038,12 +26150,16 @@
         <v>0</v>
       </c>
       <c r="T20" s="92" t="s">
-        <v>213</v>
-      </c>
-      <c r="U20" s="53"/>
-      <c r="V20" s="54"/>
+        <v>212</v>
+      </c>
+      <c r="U20" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="V20" s="54">
+        <v>0</v>
+      </c>
       <c r="W20" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X20" s="70">
         <v>0</v>
@@ -26051,13 +26167,13 @@
     </row>
     <row r="21" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="78" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B21" s="58" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D21" s="60">
         <v>46</v>
@@ -26073,7 +26189,7 @@
         <v>44635</v>
       </c>
       <c r="H21" s="410" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="I21" s="411">
         <v>22920</v>
@@ -26107,12 +26223,16 @@
         <v>11200</v>
       </c>
       <c r="T21" s="92" t="s">
-        <v>230</v>
-      </c>
-      <c r="U21" s="53"/>
-      <c r="V21" s="54"/>
+        <v>227</v>
+      </c>
+      <c r="U21" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="V21" s="54">
+        <v>4640</v>
+      </c>
       <c r="W21" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X21" s="70">
         <v>4176</v>
@@ -26123,10 +26243,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D22" s="60">
         <v>0</v>
@@ -26142,7 +26262,7 @@
         <v>44635</v>
       </c>
       <c r="H22" s="410" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="I22" s="411">
         <f>5365-214.6</f>
@@ -26177,12 +26297,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="92" t="s">
-        <v>230</v>
-      </c>
-      <c r="U22" s="53"/>
-      <c r="V22" s="54"/>
+        <v>227</v>
+      </c>
+      <c r="U22" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="V22" s="54">
+        <v>0</v>
+      </c>
       <c r="W22" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X22" s="70">
         <v>0</v>
@@ -26190,13 +26314,13 @@
     </row>
     <row r="23" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="82" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B23" s="58" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D23" s="60">
         <v>47</v>
@@ -26212,7 +26336,7 @@
         <v>44637</v>
       </c>
       <c r="H23" s="410" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="I23" s="411">
         <v>23330</v>
@@ -26246,12 +26370,12 @@
         <v>11200</v>
       </c>
       <c r="T23" s="92" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="U23" s="53"/>
       <c r="V23" s="54"/>
       <c r="W23" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X23" s="70">
         <v>4176</v>
@@ -26265,7 +26389,7 @@
         <v>37</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D24" s="60">
         <v>0</v>
@@ -26281,7 +26405,7 @@
         <v>44637</v>
       </c>
       <c r="H24" s="410" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="I24" s="411">
         <v>5425</v>
@@ -26315,12 +26439,12 @@
         <v>0</v>
       </c>
       <c r="T24" s="92" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="U24" s="53"/>
       <c r="V24" s="54"/>
       <c r="W24" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X24" s="70">
         <v>0</v>
@@ -26334,7 +26458,7 @@
         <v>31</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D25" s="60">
         <v>47</v>
@@ -26350,7 +26474,7 @@
         <v>44638</v>
       </c>
       <c r="H25" s="410" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="I25" s="411">
         <v>21330</v>
@@ -26384,12 +26508,12 @@
         <v>11200</v>
       </c>
       <c r="T25" s="92" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="U25" s="53"/>
       <c r="V25" s="54"/>
       <c r="W25" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X25" s="70">
         <v>4176</v>
@@ -26397,13 +26521,13 @@
     </row>
     <row r="26" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="82" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B26" s="58" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D26" s="60">
         <v>0</v>
@@ -26419,7 +26543,7 @@
         <v>44638</v>
       </c>
       <c r="H26" s="410" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="I26" s="411">
         <v>5675</v>
@@ -26453,12 +26577,12 @@
         <v>0</v>
       </c>
       <c r="T26" s="92" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="U26" s="53"/>
       <c r="V26" s="54"/>
       <c r="W26" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X26" s="70">
         <v>0</v>
@@ -26466,13 +26590,13 @@
     </row>
     <row r="27" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="82" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B27" s="58" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D27" s="60">
         <v>47</v>
@@ -26488,7 +26612,7 @@
         <v>44640</v>
       </c>
       <c r="H27" s="410" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="I27" s="411">
         <v>22460</v>
@@ -26522,12 +26646,12 @@
         <v>11200</v>
       </c>
       <c r="T27" s="92" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="U27" s="53"/>
       <c r="V27" s="54"/>
       <c r="W27" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X27" s="70">
         <v>4176</v>
@@ -26535,13 +26659,13 @@
     </row>
     <row r="28" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="82" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D28" s="60">
         <v>0</v>
@@ -26557,7 +26681,7 @@
         <v>44640</v>
       </c>
       <c r="H28" s="410" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="I28" s="411">
         <v>5885</v>
@@ -26591,12 +26715,12 @@
         <v>0</v>
       </c>
       <c r="T28" s="92" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="U28" s="53"/>
       <c r="V28" s="54"/>
       <c r="W28" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X28" s="70">
         <v>0</v>
@@ -26607,10 +26731,10 @@
         <v>147</v>
       </c>
       <c r="B29" s="93" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D29" s="60">
         <v>47</v>
@@ -26625,8 +26749,8 @@
       <c r="G29" s="62">
         <v>44642</v>
       </c>
-      <c r="H29" s="475" t="s">
-        <v>332</v>
+      <c r="H29" s="473" t="s">
+        <v>323</v>
       </c>
       <c r="I29" s="411">
         <f>23180-115.32</f>
@@ -26645,8 +26769,12 @@
         <f t="shared" si="1"/>
         <v>772666.78</v>
       </c>
-      <c r="O29" s="417"/>
-      <c r="P29" s="418"/>
+      <c r="O29" s="417" t="s">
+        <v>125</v>
+      </c>
+      <c r="P29" s="539" t="s">
+        <v>349</v>
+      </c>
       <c r="Q29" s="456">
         <v>25280</v>
       </c>
@@ -26657,12 +26785,12 @@
         <v>11200</v>
       </c>
       <c r="T29" s="92" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="U29" s="53"/>
       <c r="V29" s="54"/>
       <c r="W29" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X29" s="70">
         <v>4176</v>
@@ -26676,7 +26804,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D30" s="60">
         <v>0</v>
@@ -26692,7 +26820,7 @@
         <v>44642</v>
       </c>
       <c r="H30" s="410" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="I30" s="411">
         <v>5785</v>
@@ -26726,12 +26854,12 @@
         <v>0</v>
       </c>
       <c r="T30" s="92" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="U30" s="53"/>
       <c r="V30" s="54"/>
       <c r="W30" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X30" s="70">
         <v>0</v>
@@ -26739,13 +26867,13 @@
     </row>
     <row r="31" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="71" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B31" s="93" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D31" s="60">
         <v>47</v>
@@ -26761,7 +26889,7 @@
         <v>44644</v>
       </c>
       <c r="H31" s="63" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I31" s="64">
         <v>21470</v>
@@ -26795,12 +26923,12 @@
         <v>11200</v>
       </c>
       <c r="T31" s="92" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="U31" s="53"/>
       <c r="V31" s="54"/>
       <c r="W31" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X31" s="70">
         <v>4176</v>
@@ -26808,13 +26936,13 @@
     </row>
     <row r="32" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="71" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B32" s="93" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="59" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D32" s="60">
         <v>0</v>
@@ -26830,7 +26958,7 @@
         <v>44644</v>
       </c>
       <c r="H32" s="63" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="I32" s="64">
         <v>5210</v>
@@ -26864,12 +26992,12 @@
         <v>0</v>
       </c>
       <c r="T32" s="92" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="U32" s="53"/>
       <c r="V32" s="54"/>
       <c r="W32" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X32" s="70">
         <v>0</v>
@@ -26877,13 +27005,13 @@
     </row>
     <row r="33" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="83" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B33" s="93" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D33" s="60">
         <v>48</v>
@@ -26899,7 +27027,7 @@
         <v>44645</v>
       </c>
       <c r="H33" s="63" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="I33" s="64">
         <f>20790-103.95</f>
@@ -26934,12 +27062,12 @@
         <v>11200</v>
       </c>
       <c r="T33" s="92" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="U33" s="53"/>
       <c r="V33" s="54"/>
       <c r="W33" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X33" s="70">
         <v>4176</v>
@@ -26947,13 +27075,13 @@
     </row>
     <row r="34" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="82" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B34" s="93" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D34" s="60">
         <v>0</v>
@@ -26969,7 +27097,7 @@
         <v>44645</v>
       </c>
       <c r="H34" s="63" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="I34" s="64">
         <v>5360</v>
@@ -27003,12 +27131,12 @@
         <v>0</v>
       </c>
       <c r="T34" s="92" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="U34" s="53"/>
       <c r="V34" s="54"/>
       <c r="W34" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X34" s="70">
         <v>0</v>
@@ -27016,7 +27144,7 @@
     </row>
     <row r="35" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="82" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B35" s="93" t="s">
         <v>72</v>
@@ -27034,7 +27162,7 @@
         <v>44647</v>
       </c>
       <c r="H35" s="421" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="I35" s="64">
         <v>21600</v>
@@ -27068,12 +27196,12 @@
         <v>11200</v>
       </c>
       <c r="T35" s="92" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="U35" s="53"/>
       <c r="V35" s="54"/>
       <c r="W35" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X35" s="70">
         <v>4176</v>
@@ -27099,7 +27227,7 @@
         <v>44647</v>
       </c>
       <c r="H36" s="421" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I36" s="64">
         <v>5805</v>
@@ -27133,12 +27261,12 @@
         <v>0</v>
       </c>
       <c r="T36" s="92" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="U36" s="53"/>
       <c r="V36" s="54"/>
       <c r="W36" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X36" s="70">
         <v>0</v>
@@ -27146,7 +27274,7 @@
     </row>
     <row r="37" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="71" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B37" s="93" t="s">
         <v>72</v>
@@ -27164,7 +27292,7 @@
         <v>44649</v>
       </c>
       <c r="H37" s="421" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="I37" s="64">
         <v>21235</v>
@@ -27198,12 +27326,12 @@
         <v>11200</v>
       </c>
       <c r="T37" s="92" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="U37" s="53"/>
       <c r="V37" s="54"/>
       <c r="W37" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X37" s="106">
         <v>4176</v>
@@ -27214,7 +27342,7 @@
         <v>105</v>
       </c>
       <c r="B38" s="93" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C38" s="461"/>
       <c r="D38" s="60"/>
@@ -27229,7 +27357,7 @@
         <v>44649</v>
       </c>
       <c r="H38" s="421" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="I38" s="64">
         <v>4005</v>
@@ -27263,12 +27391,12 @@
         <v>0</v>
       </c>
       <c r="T38" s="92" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="U38" s="53"/>
       <c r="V38" s="54"/>
       <c r="W38" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X38" s="106">
         <v>0</v>
@@ -27276,7 +27404,7 @@
     </row>
     <row r="39" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="71" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B39" s="93" t="s">
         <v>72</v>
@@ -27294,7 +27422,7 @@
         <v>44651</v>
       </c>
       <c r="H39" s="421" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="I39" s="64">
         <v>24360</v>
@@ -27328,12 +27456,12 @@
         <v>11200</v>
       </c>
       <c r="T39" s="92" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="U39" s="53"/>
       <c r="V39" s="54"/>
       <c r="W39" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X39" s="106">
         <v>4176</v>
@@ -27341,10 +27469,10 @@
     </row>
     <row r="40" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="82" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B40" s="93" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C40" s="461"/>
       <c r="D40" s="60"/>
@@ -27359,7 +27487,7 @@
         <v>44651</v>
       </c>
       <c r="H40" s="421" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="I40" s="64">
         <v>6165</v>
@@ -27378,7 +27506,7 @@
         <v>215775</v>
       </c>
       <c r="O40" s="417" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="P40" s="418">
         <v>44664</v>
@@ -27393,12 +27521,12 @@
         <v>0</v>
       </c>
       <c r="T40" s="92" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="U40" s="53"/>
       <c r="V40" s="54"/>
       <c r="W40" s="53" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="X40" s="106">
         <v>0</v>
@@ -27888,14 +28016,14 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="525" t="s">
+      <c r="A55" s="524" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="499" t="s">
-        <v>232</v>
+      <c r="C55" s="498" t="s">
+        <v>229</v>
       </c>
       <c r="D55" s="439"/>
       <c r="E55" s="60"/>
@@ -27905,8 +28033,8 @@
       <c r="G55" s="152">
         <v>44627</v>
       </c>
-      <c r="H55" s="528" t="s">
-        <v>233</v>
+      <c r="H55" s="527" t="s">
+        <v>230</v>
       </c>
       <c r="I55" s="151">
         <v>181.6</v>
@@ -27924,10 +28052,10 @@
         <f t="shared" si="1"/>
         <v>18886.399999999998</v>
       </c>
-      <c r="O55" s="505" t="s">
+      <c r="O55" s="504" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="511">
+      <c r="P55" s="510">
         <v>44645</v>
       </c>
       <c r="Q55" s="128"/>
@@ -27938,11 +28066,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="527"/>
+      <c r="A56" s="526"/>
       <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="500"/>
+      <c r="C56" s="499"/>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151">
@@ -27951,7 +28079,7 @@
       <c r="G56" s="152">
         <v>44627</v>
       </c>
-      <c r="H56" s="529"/>
+      <c r="H56" s="528"/>
       <c r="I56" s="151">
         <v>967</v>
       </c>
@@ -27968,8 +28096,8 @@
         <f t="shared" si="1"/>
         <v>92832</v>
       </c>
-      <c r="O56" s="506"/>
-      <c r="P56" s="512"/>
+      <c r="O56" s="505"/>
+      <c r="P56" s="511"/>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -27986,8 +28114,8 @@
       <c r="B57" s="438" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="474" t="s">
-        <v>327</v>
+      <c r="C57" s="472" t="s">
+        <v>318</v>
       </c>
       <c r="D57" s="168"/>
       <c r="E57" s="60"/>
@@ -27998,7 +28126,7 @@
         <v>44641</v>
       </c>
       <c r="H57" s="469" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="I57" s="151">
         <v>1367.8</v>
@@ -28030,14 +28158,14 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="489" t="s">
+      <c r="A58" s="488" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="538" t="s">
-        <v>328</v>
+      <c r="C58" s="537" t="s">
+        <v>319</v>
       </c>
       <c r="D58" s="165"/>
       <c r="E58" s="60"/>
@@ -28047,8 +28175,8 @@
       <c r="G58" s="152">
         <v>44648</v>
       </c>
-      <c r="H58" s="536" t="s">
-        <v>324</v>
+      <c r="H58" s="535" t="s">
+        <v>315</v>
       </c>
       <c r="I58" s="151">
         <v>332.6</v>
@@ -28066,10 +28194,10 @@
         <f t="shared" si="1"/>
         <v>35255.600000000006</v>
       </c>
-      <c r="O58" s="493" t="s">
+      <c r="O58" s="492" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="495">
+      <c r="P58" s="494">
         <v>44662</v>
       </c>
       <c r="Q58" s="164"/>
@@ -28080,11 +28208,11 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="490"/>
+      <c r="A59" s="489"/>
       <c r="B59" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="539"/>
+      <c r="C59" s="538"/>
       <c r="D59" s="163"/>
       <c r="E59" s="60"/>
       <c r="F59" s="151">
@@ -28093,7 +28221,7 @@
       <c r="G59" s="152">
         <v>44648</v>
       </c>
-      <c r="H59" s="537"/>
+      <c r="H59" s="536"/>
       <c r="I59" s="151">
         <v>719</v>
       </c>
@@ -28110,8 +28238,8 @@
         <f t="shared" si="1"/>
         <v>69024</v>
       </c>
-      <c r="O59" s="494"/>
-      <c r="P59" s="496"/>
+      <c r="O59" s="493"/>
+      <c r="P59" s="495"/>
       <c r="Q59" s="164"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -28184,14 +28312,14 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="530" t="s">
+      <c r="A62" s="529" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="178" t="s">
-        <v>242</v>
-      </c>
-      <c r="C62" s="532" t="s">
-        <v>243</v>
+        <v>237</v>
+      </c>
+      <c r="C62" s="531" t="s">
+        <v>238</v>
       </c>
       <c r="D62" s="168"/>
       <c r="E62" s="60"/>
@@ -28201,7 +28329,7 @@
       <c r="G62" s="152">
         <v>44622</v>
       </c>
-      <c r="H62" s="534">
+      <c r="H62" s="533">
         <v>37162</v>
       </c>
       <c r="I62" s="151">
@@ -28220,10 +28348,10 @@
         <f t="shared" si="1"/>
         <v>7782.5999999999995</v>
       </c>
-      <c r="O62" s="505" t="s">
+      <c r="O62" s="504" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="511">
+      <c r="P62" s="510">
         <v>44643</v>
       </c>
       <c r="Q62" s="164"/>
@@ -28234,11 +28362,11 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="531"/>
+      <c r="A63" s="530"/>
       <c r="B63" s="178" t="s">
-        <v>244</v>
-      </c>
-      <c r="C63" s="533"/>
+        <v>239</v>
+      </c>
+      <c r="C63" s="532"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
       <c r="F63" s="151">
@@ -28247,7 +28375,7 @@
       <c r="G63" s="152">
         <v>44622</v>
       </c>
-      <c r="H63" s="535"/>
+      <c r="H63" s="534"/>
       <c r="I63" s="151">
         <v>204.8</v>
       </c>
@@ -28264,8 +28392,8 @@
         <f t="shared" si="1"/>
         <v>16998.400000000001</v>
       </c>
-      <c r="O63" s="506"/>
-      <c r="P63" s="512"/>
+      <c r="O63" s="505"/>
+      <c r="P63" s="511"/>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -28744,8 +28872,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="505"/>
-      <c r="P79" s="507"/>
+      <c r="O79" s="504"/>
+      <c r="P79" s="506"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -28774,8 +28902,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="506"/>
-      <c r="P80" s="508"/>
+      <c r="O80" s="505"/>
+      <c r="P80" s="507"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -28804,8 +28932,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="505"/>
-      <c r="P81" s="507"/>
+      <c r="O81" s="504"/>
+      <c r="P81" s="506"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -28837,8 +28965,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="506"/>
-      <c r="P82" s="508"/>
+      <c r="O82" s="505"/>
+      <c r="P82" s="507"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -28996,8 +29124,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="509"/>
-      <c r="M87" s="510"/>
+      <c r="L87" s="508"/>
+      <c r="M87" s="509"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29029,8 +29157,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="509"/>
-      <c r="M88" s="510"/>
+      <c r="L88" s="508"/>
+      <c r="M88" s="509"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29233,8 +29361,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="505"/>
-      <c r="P94" s="501"/>
+      <c r="O94" s="504"/>
+      <c r="P94" s="500"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -29266,8 +29394,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="506"/>
-      <c r="P95" s="502"/>
+      <c r="O95" s="505"/>
+      <c r="P95" s="501"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -34659,11 +34787,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="503" t="s">
+      <c r="F259" s="502" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="503"/>
-      <c r="H259" s="504"/>
+      <c r="G259" s="502"/>
+      <c r="H259" s="503"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>517031.52999999991</v>
@@ -34775,7 +34903,7 @@
       <c r="R263" s="8"/>
       <c r="S263" s="340">
         <f>SUM(S17:S262)</f>
-        <v>134400</v>
+        <v>155232</v>
       </c>
       <c r="T263" s="341"/>
       <c r="U263" s="342"/>
@@ -34825,7 +34953,7 @@
       <c r="M266" s="352"/>
       <c r="N266" s="353">
         <f>V263+S263+Q263+N263+L263</f>
-        <v>18014625.779999997</v>
+        <v>18035457.779999997</v>
       </c>
       <c r="O266" s="354"/>
       <c r="R266" s="324"/>
@@ -35278,10 +35406,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -35310,49 +35438,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="480" t="s">
-        <v>297</v>
-      </c>
-      <c r="B1" s="480"/>
-      <c r="C1" s="480"/>
-      <c r="D1" s="480"/>
-      <c r="E1" s="480"/>
-      <c r="F1" s="480"/>
-      <c r="G1" s="480"/>
-      <c r="H1" s="480"/>
-      <c r="I1" s="480"/>
-      <c r="J1" s="480"/>
+      <c r="A1" s="479" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="479"/>
+      <c r="C1" s="479"/>
+      <c r="D1" s="479"/>
+      <c r="E1" s="479"/>
+      <c r="F1" s="479"/>
+      <c r="G1" s="479"/>
+      <c r="H1" s="479"/>
+      <c r="I1" s="479"/>
+      <c r="J1" s="479"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="523" t="s">
+      <c r="S1" s="522" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="523"/>
+      <c r="T1" s="522"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="481" t="s">
+      <c r="W1" s="480" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="482"/>
+      <c r="X1" s="481"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="480"/>
-      <c r="B2" s="480"/>
-      <c r="C2" s="480"/>
-      <c r="D2" s="480"/>
-      <c r="E2" s="480"/>
-      <c r="F2" s="480"/>
-      <c r="G2" s="480"/>
-      <c r="H2" s="480"/>
-      <c r="I2" s="480"/>
-      <c r="J2" s="480"/>
+      <c r="A2" s="479"/>
+      <c r="B2" s="479"/>
+      <c r="C2" s="479"/>
+      <c r="D2" s="479"/>
+      <c r="E2" s="479"/>
+      <c r="F2" s="479"/>
+      <c r="G2" s="479"/>
+      <c r="H2" s="479"/>
+      <c r="I2" s="479"/>
+      <c r="J2" s="479"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -35360,8 +35488,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="524"/>
-      <c r="T2" s="524"/>
+      <c r="S2" s="523"/>
+      <c r="T2" s="523"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -35406,10 +35534,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="483" t="s">
+      <c r="O3" s="482" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="484"/>
+      <c r="P3" s="483"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -35433,7 +35561,7 @@
     </row>
     <row r="4" spans="1:24" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="465" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>37</v>
@@ -35448,7 +35576,7 @@
         <v>44652</v>
       </c>
       <c r="H4" s="466" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="I4" s="409">
         <v>5795</v>
@@ -35482,7 +35610,7 @@
         <v>11200</v>
       </c>
       <c r="T4" s="52" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="U4" s="53"/>
       <c r="V4" s="54"/>
@@ -35494,7 +35622,7 @@
         <v>73</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="60"/>
@@ -35506,7 +35634,7 @@
         <v>44652</v>
       </c>
       <c r="H5" s="410" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="I5" s="411">
         <v>22715</v>
@@ -35525,7 +35653,7 @@
         <v>795025</v>
       </c>
       <c r="O5" s="395" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="P5" s="396">
         <v>44664</v>
@@ -35540,7 +35668,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="52" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="U5" s="53"/>
       <c r="V5" s="54"/>
@@ -35549,7 +35677,7 @@
     </row>
     <row r="6" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="57" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B6" s="58" t="s">
         <v>72</v>
@@ -35563,7 +35691,9 @@
       <c r="G6" s="62">
         <v>44654</v>
       </c>
-      <c r="H6" s="410"/>
+      <c r="H6" s="410" t="s">
+        <v>347</v>
+      </c>
       <c r="I6" s="411">
         <v>22190</v>
       </c>
@@ -35580,8 +35710,12 @@
         <f t="shared" si="1"/>
         <v>787745</v>
       </c>
-      <c r="O6" s="395"/>
-      <c r="P6" s="396"/>
+      <c r="O6" s="395" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="396">
+        <v>44669</v>
+      </c>
       <c r="Q6" s="66">
         <v>26900</v>
       </c>
@@ -35592,7 +35726,7 @@
         <v>11200</v>
       </c>
       <c r="T6" s="52" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="U6" s="53"/>
       <c r="V6" s="54"/>
@@ -35601,7 +35735,7 @@
     </row>
     <row r="7" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="57" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B7" s="58" t="s">
         <v>32</v>
@@ -35615,7 +35749,9 @@
       <c r="G7" s="62">
         <v>44654</v>
       </c>
-      <c r="H7" s="410"/>
+      <c r="H7" s="410" t="s">
+        <v>348</v>
+      </c>
       <c r="I7" s="411">
         <v>5610</v>
       </c>
@@ -35632,8 +35768,12 @@
         <f t="shared" si="1"/>
         <v>199155</v>
       </c>
-      <c r="O7" s="395"/>
-      <c r="P7" s="396"/>
+      <c r="O7" s="395" t="s">
+        <v>215</v>
+      </c>
+      <c r="P7" s="396">
+        <v>44669</v>
+      </c>
       <c r="Q7" s="66">
         <v>0</v>
       </c>
@@ -35644,7 +35784,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="52" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="U7" s="53"/>
       <c r="V7" s="54"/>
@@ -35653,7 +35793,7 @@
     </row>
     <row r="8" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="57" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B8" s="58" t="s">
         <v>72</v>
@@ -35667,7 +35807,9 @@
       <c r="G8" s="62">
         <v>44656</v>
       </c>
-      <c r="H8" s="410"/>
+      <c r="H8" s="410" t="s">
+        <v>350</v>
+      </c>
       <c r="I8" s="411">
         <v>22260</v>
       </c>
@@ -35684,8 +35826,12 @@
         <f t="shared" si="1"/>
         <v>790230</v>
       </c>
-      <c r="O8" s="89"/>
-      <c r="P8" s="90"/>
+      <c r="O8" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="90">
+        <v>44670</v>
+      </c>
       <c r="Q8" s="66">
         <v>27007</v>
       </c>
@@ -35696,7 +35842,7 @@
         <v>11200</v>
       </c>
       <c r="T8" s="52" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="U8" s="53"/>
       <c r="V8" s="54"/>
@@ -35719,7 +35865,9 @@
       <c r="G9" s="62">
         <v>44656</v>
       </c>
-      <c r="H9" s="410"/>
+      <c r="H9" s="410" t="s">
+        <v>351</v>
+      </c>
       <c r="I9" s="411">
         <v>6480</v>
       </c>
@@ -35736,8 +35884,12 @@
         <f t="shared" si="1"/>
         <v>230040</v>
       </c>
-      <c r="O9" s="89"/>
-      <c r="P9" s="90"/>
+      <c r="O9" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="90">
+        <v>44670</v>
+      </c>
       <c r="Q9" s="66">
         <v>0</v>
       </c>
@@ -35748,7 +35900,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="52" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="U9" s="53"/>
       <c r="V9" s="54"/>
@@ -35771,7 +35923,9 @@
       <c r="G10" s="62">
         <v>44658</v>
       </c>
-      <c r="H10" s="410"/>
+      <c r="H10" s="410" t="s">
+        <v>355</v>
+      </c>
       <c r="I10" s="411">
         <v>22245</v>
       </c>
@@ -35788,8 +35942,12 @@
         <f t="shared" si="1"/>
         <v>789697.5</v>
       </c>
-      <c r="O10" s="397"/>
-      <c r="P10" s="398"/>
+      <c r="O10" s="397" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="398">
+        <v>44671</v>
+      </c>
       <c r="Q10" s="66">
         <v>26900</v>
       </c>
@@ -35800,7 +35958,7 @@
         <v>11200</v>
       </c>
       <c r="T10" s="52" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="U10" s="53"/>
       <c r="V10" s="54"/>
@@ -35809,7 +35967,7 @@
     </row>
     <row r="11" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="71" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B11" s="58" t="s">
         <v>32</v>
@@ -35823,7 +35981,9 @@
       <c r="G11" s="62">
         <v>44658</v>
       </c>
-      <c r="H11" s="410"/>
+      <c r="H11" s="410" t="s">
+        <v>352</v>
+      </c>
       <c r="I11" s="411">
         <v>5740</v>
       </c>
@@ -35840,8 +36000,12 @@
         <f t="shared" si="1"/>
         <v>203770</v>
       </c>
-      <c r="O11" s="397"/>
-      <c r="P11" s="398"/>
+      <c r="O11" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="398">
+        <v>44671</v>
+      </c>
       <c r="Q11" s="66">
         <v>0</v>
       </c>
@@ -35852,7 +36016,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="52" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="U11" s="53"/>
       <c r="V11" s="54"/>
@@ -35875,7 +36039,9 @@
       <c r="G12" s="62">
         <v>44659</v>
       </c>
-      <c r="H12" s="410"/>
+      <c r="H12" s="410" t="s">
+        <v>354</v>
+      </c>
       <c r="I12" s="411">
         <v>20990</v>
       </c>
@@ -35892,8 +36058,12 @@
         <f t="shared" si="1"/>
         <v>745145</v>
       </c>
-      <c r="O12" s="397"/>
-      <c r="P12" s="398"/>
+      <c r="O12" s="397" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" s="398">
+        <v>44671</v>
+      </c>
       <c r="Q12" s="66">
         <v>26900</v>
       </c>
@@ -35909,7 +36079,7 @@
     </row>
     <row r="13" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="71" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B13" s="58" t="s">
         <v>32</v>
@@ -35923,7 +36093,9 @@
       <c r="G13" s="62">
         <v>44659</v>
       </c>
-      <c r="H13" s="410"/>
+      <c r="H13" s="410" t="s">
+        <v>353</v>
+      </c>
       <c r="I13" s="411">
         <v>6195</v>
       </c>
@@ -35940,8 +36112,12 @@
         <f t="shared" si="1"/>
         <v>219922.5</v>
       </c>
-      <c r="O13" s="397"/>
-      <c r="P13" s="398"/>
+      <c r="O13" s="397" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="398">
+        <v>44671</v>
+      </c>
       <c r="Q13" s="66">
         <v>0</v>
       </c>
@@ -35957,10 +36133,10 @@
     </row>
     <row r="14" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="71" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="60"/>
@@ -36008,7 +36184,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C15" s="59"/>
       <c r="D15" s="60"/>
@@ -36053,10 +36229,10 @@
     </row>
     <row r="16" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="71" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C16" s="74"/>
       <c r="D16" s="60"/>
@@ -36101,7 +36277,7 @@
     </row>
     <row r="17" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="75" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B17" s="58" t="s">
         <v>32</v>
@@ -36186,7 +36362,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="67" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S18" s="51"/>
       <c r="T18" s="92"/>
@@ -36197,10 +36373,10 @@
     </row>
     <row r="19" spans="1:24" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="78" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="60"/>
@@ -36240,7 +36416,7 @@
         <v>11200</v>
       </c>
       <c r="T19" s="92" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="U19" s="53"/>
       <c r="V19" s="54"/>
@@ -36249,7 +36425,7 @@
     </row>
     <row r="20" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="80" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B20" s="58" t="s">
         <v>32</v>
@@ -36292,7 +36468,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="92" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="U20" s="53"/>
       <c r="V20" s="54"/>
@@ -36301,7 +36477,7 @@
     </row>
     <row r="21" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="78" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B21" s="58" t="s">
         <v>72</v>
@@ -36344,7 +36520,7 @@
         <v>11200</v>
       </c>
       <c r="T21" s="92" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="U21" s="53"/>
       <c r="V21" s="54"/>
@@ -36353,7 +36529,7 @@
     </row>
     <row r="22" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="81" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B22" s="58" t="s">
         <v>32</v>
@@ -36396,7 +36572,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="92" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="U22" s="53"/>
       <c r="V22" s="54"/>
@@ -36404,128 +36580,192 @@
       <c r="X22" s="70"/>
     </row>
     <row r="23" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="82"/>
-      <c r="B23" s="58"/>
+      <c r="A23" s="82" t="s">
+        <v>297</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="C23" s="59"/>
       <c r="D23" s="60"/>
       <c r="E23" s="40"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="62"/>
+      <c r="F23" s="61">
+        <v>42890</v>
+      </c>
+      <c r="G23" s="62">
+        <v>44668</v>
+      </c>
       <c r="H23" s="410"/>
-      <c r="I23" s="411"/>
+      <c r="I23" s="411">
+        <v>23990</v>
+      </c>
       <c r="J23" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="76"/>
+        <v>-18900</v>
+      </c>
+      <c r="K23" s="76">
+        <v>35.5</v>
+      </c>
       <c r="L23" s="65"/>
       <c r="M23" s="65"/>
       <c r="N23" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>851645</v>
       </c>
       <c r="O23" s="89"/>
       <c r="P23" s="90"/>
       <c r="Q23" s="79"/>
       <c r="R23" s="67"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="92"/>
+      <c r="S23" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T23" s="92" t="s">
+        <v>343</v>
+      </c>
       <c r="U23" s="53"/>
       <c r="V23" s="54"/>
       <c r="W23" s="53"/>
       <c r="X23" s="70"/>
     </row>
     <row r="24" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="83"/>
-      <c r="B24" s="58"/>
+      <c r="A24" s="83" t="s">
+        <v>339</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>340</v>
+      </c>
       <c r="C24" s="59"/>
       <c r="D24" s="60"/>
       <c r="E24" s="40"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="62"/>
+      <c r="F24" s="61">
+        <v>0</v>
+      </c>
+      <c r="G24" s="62">
+        <v>44668</v>
+      </c>
       <c r="H24" s="410"/>
-      <c r="I24" s="411"/>
+      <c r="I24" s="411">
+        <v>6665</v>
+      </c>
       <c r="J24" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="76"/>
+        <v>6665</v>
+      </c>
+      <c r="K24" s="76">
+        <v>35.5</v>
+      </c>
       <c r="L24" s="65"/>
       <c r="M24" s="65"/>
       <c r="N24" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>236607.5</v>
       </c>
       <c r="O24" s="397"/>
       <c r="P24" s="90"/>
       <c r="Q24" s="79"/>
       <c r="R24" s="67"/>
-      <c r="S24" s="91"/>
-      <c r="T24" s="92"/>
+      <c r="S24" s="91">
+        <v>0</v>
+      </c>
+      <c r="T24" s="92" t="s">
+        <v>343</v>
+      </c>
       <c r="U24" s="53"/>
       <c r="V24" s="54"/>
       <c r="W24" s="53"/>
       <c r="X24" s="70"/>
     </row>
     <row r="25" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="71"/>
-      <c r="B25" s="58"/>
+      <c r="A25" s="71" t="s">
+        <v>341</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="C25" s="59"/>
       <c r="D25" s="60"/>
       <c r="E25" s="40"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="62"/>
+      <c r="F25" s="61">
+        <v>25070</v>
+      </c>
+      <c r="G25" s="62">
+        <v>44670</v>
+      </c>
       <c r="H25" s="410"/>
-      <c r="I25" s="411"/>
+      <c r="I25" s="411">
+        <v>24940</v>
+      </c>
       <c r="J25" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="76"/>
+        <v>-130</v>
+      </c>
+      <c r="K25" s="76">
+        <v>35.5</v>
+      </c>
       <c r="L25" s="65"/>
       <c r="M25" s="65"/>
       <c r="N25" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>885370</v>
       </c>
       <c r="O25" s="89"/>
       <c r="P25" s="90"/>
       <c r="Q25" s="79"/>
       <c r="R25" s="67"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="92"/>
+      <c r="S25" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T25" s="92" t="s">
+        <v>346</v>
+      </c>
       <c r="U25" s="53"/>
       <c r="V25" s="54"/>
       <c r="W25" s="53"/>
       <c r="X25" s="70"/>
     </row>
     <row r="26" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="82"/>
-      <c r="B26" s="58"/>
+      <c r="A26" s="82" t="s">
+        <v>342</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>296</v>
+      </c>
       <c r="C26" s="59"/>
       <c r="D26" s="60"/>
       <c r="E26" s="40"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="62"/>
+      <c r="F26" s="61">
+        <v>0</v>
+      </c>
+      <c r="G26" s="62">
+        <v>44670</v>
+      </c>
       <c r="H26" s="410"/>
-      <c r="I26" s="411"/>
+      <c r="I26" s="411">
+        <v>6390</v>
+      </c>
       <c r="J26" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="76"/>
+        <v>6390</v>
+      </c>
+      <c r="K26" s="76">
+        <v>35.5</v>
+      </c>
       <c r="L26" s="65"/>
       <c r="M26" s="65"/>
       <c r="N26" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>226845</v>
       </c>
       <c r="O26" s="89"/>
       <c r="P26" s="90"/>
       <c r="Q26" s="79"/>
       <c r="R26" s="67"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="92"/>
+      <c r="S26" s="51">
+        <v>0</v>
+      </c>
+      <c r="T26" s="92" t="s">
+        <v>346</v>
+      </c>
       <c r="U26" s="53"/>
       <c r="V26" s="54"/>
       <c r="W26" s="53"/>
@@ -37461,8 +37701,8 @@
       <c r="B55" s="438" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="472" t="s">
-        <v>325</v>
+      <c r="C55" s="471" t="s">
+        <v>316</v>
       </c>
       <c r="D55" s="439"/>
       <c r="E55" s="60"/>
@@ -37473,7 +37713,7 @@
         <v>44655</v>
       </c>
       <c r="H55" s="469" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="I55" s="151">
         <v>1028.5999999999999</v>
@@ -37504,31 +37744,49 @@
       <c r="U55" s="159"/>
       <c r="V55" s="160"/>
     </row>
-    <row r="56" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="470"/>
+    <row r="56" spans="1:24" s="161" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A56" s="470" t="s">
+        <v>41</v>
+      </c>
       <c r="B56" s="438" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="471"/>
+        <v>23</v>
+      </c>
+      <c r="C56" s="478" t="s">
+        <v>344</v>
+      </c>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
-      <c r="F56" s="151"/>
-      <c r="G56" s="152"/>
-      <c r="H56" s="473"/>
-      <c r="I56" s="151"/>
+      <c r="F56" s="151">
+        <v>1033.4000000000001</v>
+      </c>
+      <c r="G56" s="152">
+        <v>44662</v>
+      </c>
+      <c r="H56" s="469" t="s">
+        <v>345</v>
+      </c>
+      <c r="I56" s="151">
+        <v>1033.4000000000001</v>
+      </c>
       <c r="J56" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K56" s="46"/>
+      <c r="K56" s="46">
+        <v>96</v>
+      </c>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
       <c r="N56" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O56" s="164"/>
-      <c r="P56" s="62"/>
+        <v>99206.400000000009</v>
+      </c>
+      <c r="O56" s="164" t="s">
+        <v>59</v>
+      </c>
+      <c r="P56" s="62">
+        <v>44671</v>
+      </c>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -37699,14 +37957,14 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="476" t="s">
-        <v>337</v>
+      <c r="A62" s="474" t="s">
+        <v>328</v>
       </c>
       <c r="B62" s="178" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C62" s="183" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D62" s="168"/>
       <c r="E62" s="60"/>
@@ -37716,7 +37974,7 @@
       <c r="G62" s="152">
         <v>44659</v>
       </c>
-      <c r="H62" s="479">
+      <c r="H62" s="477">
         <v>3311</v>
       </c>
       <c r="I62" s="151">
@@ -37736,7 +37994,7 @@
         <v>673891.71299999987</v>
       </c>
       <c r="O62" s="164" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="P62" s="62">
         <v>44663</v>
@@ -37749,14 +38007,14 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="477"/>
+      <c r="A63" s="475"/>
       <c r="B63" s="178"/>
-      <c r="C63" s="478"/>
+      <c r="C63" s="476"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="479"/>
+      <c r="H63" s="477"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -38249,8 +38507,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="505"/>
-      <c r="P79" s="507"/>
+      <c r="O79" s="504"/>
+      <c r="P79" s="506"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -38279,8 +38537,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="506"/>
-      <c r="P80" s="508"/>
+      <c r="O80" s="505"/>
+      <c r="P80" s="507"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -38309,8 +38567,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="505"/>
-      <c r="P81" s="507"/>
+      <c r="O81" s="504"/>
+      <c r="P81" s="506"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -38342,8 +38600,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="506"/>
-      <c r="P82" s="508"/>
+      <c r="O82" s="505"/>
+      <c r="P82" s="507"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -38501,8 +38759,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="509"/>
-      <c r="M87" s="510"/>
+      <c r="L87" s="508"/>
+      <c r="M87" s="509"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -38534,8 +38792,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="509"/>
-      <c r="M88" s="510"/>
+      <c r="L88" s="508"/>
+      <c r="M88" s="509"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -38738,8 +38996,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="505"/>
-      <c r="P94" s="501"/>
+      <c r="O94" s="504"/>
+      <c r="P94" s="500"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -38771,8 +39029,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="506"/>
-      <c r="P95" s="502"/>
+      <c r="O95" s="505"/>
+      <c r="P95" s="501"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -44164,14 +44422,14 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="503" t="s">
+      <c r="F259" s="502" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="503"/>
-      <c r="H259" s="504"/>
+      <c r="G259" s="502"/>
+      <c r="H259" s="503"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
-        <v>282573.11</v>
+        <v>345591.51</v>
       </c>
       <c r="J259" s="318"/>
       <c r="K259" s="314"/>
@@ -44270,7 +44528,7 @@
       <c r="M263" s="336"/>
       <c r="N263" s="337">
         <f>SUM(N4:N262)</f>
-        <v>10214422.312999999</v>
+        <v>12514096.213</v>
       </c>
       <c r="O263" s="338"/>
       <c r="Q263" s="339">
@@ -44280,7 +44538,7 @@
       <c r="R263" s="8"/>
       <c r="S263" s="340">
         <f>SUM(S17:S262)</f>
-        <v>22400</v>
+        <v>44800</v>
       </c>
       <c r="T263" s="341"/>
       <c r="U263" s="342"/>
@@ -44330,7 +44588,7 @@
       <c r="M266" s="352"/>
       <c r="N266" s="353">
         <f>V263+S263+Q263+N263+L263</f>
-        <v>10477852.312999999</v>
+        <v>12799926.213</v>
       </c>
       <c r="O266" s="354"/>
       <c r="R266" s="324"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/ENTRADAS OBRADOR  ABRIL    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/ENTRADAS OBRADOR  ABRIL    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CANALES  ENERO  2022   " sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="372">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -1120,6 +1120,30 @@
   </si>
   <si>
     <t>20122--3239--10791</t>
+  </si>
+  <si>
+    <t>0506 Z</t>
+  </si>
+  <si>
+    <t>0525 Z</t>
+  </si>
+  <si>
+    <t>0535 Z</t>
+  </si>
+  <si>
+    <t>0544 Z</t>
+  </si>
+  <si>
+    <t>0552 Z</t>
+  </si>
+  <si>
+    <t>0566 Z</t>
+  </si>
+  <si>
+    <t>0587 Z</t>
+  </si>
+  <si>
+    <t>0594 Z</t>
   </si>
 </sst>
 </file>
@@ -3739,6 +3763,9 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3917,9 +3944,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4250,18 +4274,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="479" t="s">
+      <c r="A1" s="480" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="479"/>
-      <c r="C1" s="479"/>
-      <c r="D1" s="479"/>
-      <c r="E1" s="479"/>
-      <c r="F1" s="479"/>
-      <c r="G1" s="479"/>
-      <c r="H1" s="479"/>
-      <c r="I1" s="479"/>
-      <c r="J1" s="479"/>
+      <c r="B1" s="480"/>
+      <c r="C1" s="480"/>
+      <c r="D1" s="480"/>
+      <c r="E1" s="480"/>
+      <c r="F1" s="480"/>
+      <c r="G1" s="480"/>
+      <c r="H1" s="480"/>
+      <c r="I1" s="480"/>
+      <c r="J1" s="480"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -4275,22 +4299,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="480" t="s">
+      <c r="W1" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="481"/>
+      <c r="X1" s="482"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="479"/>
-      <c r="B2" s="479"/>
-      <c r="C2" s="479"/>
-      <c r="D2" s="479"/>
-      <c r="E2" s="479"/>
-      <c r="F2" s="479"/>
-      <c r="G2" s="479"/>
-      <c r="H2" s="479"/>
-      <c r="I2" s="479"/>
-      <c r="J2" s="479"/>
+      <c r="A2" s="480"/>
+      <c r="B2" s="480"/>
+      <c r="C2" s="480"/>
+      <c r="D2" s="480"/>
+      <c r="E2" s="480"/>
+      <c r="F2" s="480"/>
+      <c r="G2" s="480"/>
+      <c r="H2" s="480"/>
+      <c r="I2" s="480"/>
+      <c r="J2" s="480"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -4344,10 +4368,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="482" t="s">
+      <c r="O3" s="483" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="483"/>
+      <c r="P3" s="484"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -4891,7 +4915,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="484" t="s">
+      <c r="C12" s="485" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -4955,7 +4979,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="485"/>
+      <c r="C13" s="486"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -6957,13 +6981,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="496" t="s">
+      <c r="A56" s="497" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="498" t="s">
+      <c r="C56" s="499" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -6974,7 +6998,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="490">
+      <c r="H56" s="491">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -7003,11 +7027,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="497"/>
+      <c r="A57" s="498"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="499"/>
+      <c r="C57" s="500"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -7016,7 +7040,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="491"/>
+      <c r="H57" s="492"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -7043,13 +7067,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="496" t="s">
+      <c r="A58" s="497" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="498" t="s">
+      <c r="C58" s="499" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -7060,7 +7084,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="490">
+      <c r="H58" s="491">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -7079,10 +7103,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="492" t="s">
+      <c r="O58" s="493" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="494">
+      <c r="P58" s="495">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -7093,11 +7117,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="497"/>
+      <c r="A59" s="498"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="499"/>
+      <c r="C59" s="500"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -7106,7 +7130,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="491"/>
+      <c r="H59" s="492"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -7123,8 +7147,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="493"/>
-      <c r="P59" s="495"/>
+      <c r="O59" s="494"/>
+      <c r="P59" s="496"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -7133,13 +7157,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="488" t="s">
+      <c r="A60" s="489" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="486" t="s">
+      <c r="C60" s="487" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -7153,7 +7177,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="490">
+      <c r="H60" s="491">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -7172,10 +7196,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="492" t="s">
+      <c r="O60" s="493" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="494">
+      <c r="P60" s="495">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -7188,11 +7212,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="489"/>
+      <c r="A61" s="490"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="487"/>
+      <c r="C61" s="488"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -7204,7 +7228,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="491"/>
+      <c r="H61" s="492"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -7221,8 +7245,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="493"/>
-      <c r="P61" s="495"/>
+      <c r="O61" s="494"/>
+      <c r="P61" s="496"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -7288,7 +7312,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="512"/>
+      <c r="C63" s="513"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -7296,7 +7320,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="514"/>
+      <c r="H63" s="515"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -7325,7 +7349,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="513"/>
+      <c r="C64" s="514"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -7333,7 +7357,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="515"/>
+      <c r="H64" s="516"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -7511,8 +7535,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="504"/>
-      <c r="P68" s="510"/>
+      <c r="O68" s="505"/>
+      <c r="P68" s="511"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -7546,8 +7570,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="505"/>
-      <c r="P69" s="511"/>
+      <c r="O69" s="506"/>
+      <c r="P69" s="512"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -8037,8 +8061,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="504"/>
-      <c r="P82" s="506"/>
+      <c r="O82" s="505"/>
+      <c r="P82" s="507"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -8070,8 +8094,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="505"/>
-      <c r="P83" s="507"/>
+      <c r="O83" s="506"/>
+      <c r="P83" s="508"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -8103,8 +8127,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="504"/>
-      <c r="P84" s="506"/>
+      <c r="O84" s="505"/>
+      <c r="P84" s="507"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -8136,8 +8160,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="505"/>
-      <c r="P85" s="507"/>
+      <c r="O85" s="506"/>
+      <c r="P85" s="508"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -8295,8 +8319,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="508"/>
-      <c r="M90" s="509"/>
+      <c r="L90" s="509"/>
+      <c r="M90" s="510"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8328,8 +8352,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="508"/>
-      <c r="M91" s="509"/>
+      <c r="L91" s="509"/>
+      <c r="M91" s="510"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8532,8 +8556,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="504"/>
-      <c r="P97" s="500"/>
+      <c r="O97" s="505"/>
+      <c r="P97" s="501"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -8565,8 +8589,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="505"/>
-      <c r="P98" s="501"/>
+      <c r="O98" s="506"/>
+      <c r="P98" s="502"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -13958,11 +13982,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="502" t="s">
+      <c r="F262" s="503" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="502"/>
-      <c r="H262" s="503"/>
+      <c r="G262" s="503"/>
+      <c r="H262" s="504"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -14608,49 +14632,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="479" t="s">
+      <c r="A1" s="480" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="479"/>
-      <c r="C1" s="479"/>
-      <c r="D1" s="479"/>
-      <c r="E1" s="479"/>
-      <c r="F1" s="479"/>
-      <c r="G1" s="479"/>
-      <c r="H1" s="479"/>
-      <c r="I1" s="479"/>
-      <c r="J1" s="479"/>
+      <c r="B1" s="480"/>
+      <c r="C1" s="480"/>
+      <c r="D1" s="480"/>
+      <c r="E1" s="480"/>
+      <c r="F1" s="480"/>
+      <c r="G1" s="480"/>
+      <c r="H1" s="480"/>
+      <c r="I1" s="480"/>
+      <c r="J1" s="480"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="522" t="s">
+      <c r="S1" s="523" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="522"/>
+      <c r="T1" s="523"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="480" t="s">
+      <c r="W1" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="481"/>
+      <c r="X1" s="482"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="479"/>
-      <c r="B2" s="479"/>
-      <c r="C2" s="479"/>
-      <c r="D2" s="479"/>
-      <c r="E2" s="479"/>
-      <c r="F2" s="479"/>
-      <c r="G2" s="479"/>
-      <c r="H2" s="479"/>
-      <c r="I2" s="479"/>
-      <c r="J2" s="479"/>
+      <c r="A2" s="480"/>
+      <c r="B2" s="480"/>
+      <c r="C2" s="480"/>
+      <c r="D2" s="480"/>
+      <c r="E2" s="480"/>
+      <c r="F2" s="480"/>
+      <c r="G2" s="480"/>
+      <c r="H2" s="480"/>
+      <c r="I2" s="480"/>
+      <c r="J2" s="480"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -14658,8 +14682,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="523"/>
-      <c r="T2" s="523"/>
+      <c r="S2" s="524"/>
+      <c r="T2" s="524"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -14704,10 +14728,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="482" t="s">
+      <c r="O3" s="483" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="483"/>
+      <c r="P3" s="484"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -17343,13 +17367,13 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="524" t="s">
+      <c r="A55" s="525" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="498" t="s">
+      <c r="C55" s="499" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -17360,7 +17384,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="514" t="s">
+      <c r="H55" s="515" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -17389,11 +17413,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="525"/>
+      <c r="A56" s="526"/>
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="499"/>
+      <c r="C56" s="500"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -17402,7 +17426,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="515"/>
+      <c r="H56" s="516"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -17431,13 +17455,13 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="516" t="s">
+      <c r="A57" s="517" t="s">
         <v>41</v>
       </c>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="518" t="s">
+      <c r="C57" s="519" t="s">
         <v>162</v>
       </c>
       <c r="D57" s="165"/>
@@ -17448,7 +17472,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="514" t="s">
+      <c r="H57" s="515" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -17467,10 +17491,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="504" t="s">
+      <c r="O57" s="505" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="510">
+      <c r="P57" s="511">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -17481,11 +17505,11 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="517"/>
+      <c r="A58" s="518"/>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="519"/>
+      <c r="C58" s="520"/>
       <c r="D58" s="165"/>
       <c r="E58" s="40"/>
       <c r="F58" s="151">
@@ -17494,7 +17518,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="515"/>
+      <c r="H58" s="516"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -17511,8 +17535,8 @@
         <f t="shared" si="1"/>
         <v>58366.995299999995</v>
       </c>
-      <c r="O58" s="520"/>
-      <c r="P58" s="521"/>
+      <c r="O58" s="521"/>
+      <c r="P58" s="522"/>
       <c r="Q58" s="164"/>
       <c r="R58" s="129"/>
       <c r="S58" s="92"/>
@@ -17538,7 +17562,7 @@
       <c r="G59" s="152">
         <v>44613</v>
       </c>
-      <c r="H59" s="514" t="s">
+      <c r="H59" s="515" t="s">
         <v>225</v>
       </c>
       <c r="I59" s="151">
@@ -17582,7 +17606,7 @@
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="515"/>
+      <c r="H60" s="516"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -18245,8 +18269,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="504"/>
-      <c r="P79" s="506"/>
+      <c r="O79" s="505"/>
+      <c r="P79" s="507"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -18275,8 +18299,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="505"/>
-      <c r="P80" s="507"/>
+      <c r="O80" s="506"/>
+      <c r="P80" s="508"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -18305,8 +18329,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="504"/>
-      <c r="P81" s="506"/>
+      <c r="O81" s="505"/>
+      <c r="P81" s="507"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -18338,8 +18362,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="505"/>
-      <c r="P82" s="507"/>
+      <c r="O82" s="506"/>
+      <c r="P82" s="508"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -18497,8 +18521,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="508"/>
-      <c r="M87" s="509"/>
+      <c r="L87" s="509"/>
+      <c r="M87" s="510"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18530,8 +18554,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="508"/>
-      <c r="M88" s="509"/>
+      <c r="L88" s="509"/>
+      <c r="M88" s="510"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18734,8 +18758,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="504"/>
-      <c r="P94" s="500"/>
+      <c r="O94" s="505"/>
+      <c r="P94" s="501"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -18767,8 +18791,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="505"/>
-      <c r="P95" s="501"/>
+      <c r="O95" s="506"/>
+      <c r="P95" s="502"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -24160,11 +24184,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="502" t="s">
+      <c r="F259" s="503" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="502"/>
-      <c r="H259" s="503"/>
+      <c r="G259" s="503"/>
+      <c r="H259" s="504"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>387207.97210000001</v>
@@ -24772,20 +24796,20 @@
   </sheetPr>
   <dimension ref="A1:X292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="3" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="310" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="310" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="310" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="331" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="310" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="310" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="331" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="311" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="312" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="315" customWidth="1"/>
@@ -24805,49 +24829,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="479" t="s">
+      <c r="A1" s="480" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="479"/>
-      <c r="C1" s="479"/>
-      <c r="D1" s="479"/>
-      <c r="E1" s="479"/>
-      <c r="F1" s="479"/>
-      <c r="G1" s="479"/>
-      <c r="H1" s="479"/>
-      <c r="I1" s="479"/>
-      <c r="J1" s="479"/>
+      <c r="B1" s="480"/>
+      <c r="C1" s="480"/>
+      <c r="D1" s="480"/>
+      <c r="E1" s="480"/>
+      <c r="F1" s="480"/>
+      <c r="G1" s="480"/>
+      <c r="H1" s="480"/>
+      <c r="I1" s="480"/>
+      <c r="J1" s="480"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="522" t="s">
+      <c r="S1" s="523" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="522"/>
+      <c r="T1" s="523"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="480" t="s">
+      <c r="W1" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="481"/>
+      <c r="X1" s="482"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="479"/>
-      <c r="B2" s="479"/>
-      <c r="C2" s="479"/>
-      <c r="D2" s="479"/>
-      <c r="E2" s="479"/>
-      <c r="F2" s="479"/>
-      <c r="G2" s="479"/>
-      <c r="H2" s="479"/>
-      <c r="I2" s="479"/>
-      <c r="J2" s="479"/>
+      <c r="A2" s="480"/>
+      <c r="B2" s="480"/>
+      <c r="C2" s="480"/>
+      <c r="D2" s="480"/>
+      <c r="E2" s="480"/>
+      <c r="F2" s="480"/>
+      <c r="G2" s="480"/>
+      <c r="H2" s="480"/>
+      <c r="I2" s="480"/>
+      <c r="J2" s="480"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -24855,8 +24879,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="523"/>
-      <c r="T2" s="523"/>
+      <c r="S2" s="524"/>
+      <c r="T2" s="524"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -24901,10 +24925,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="482" t="s">
+      <c r="O3" s="483" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="483"/>
+      <c r="P3" s="484"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -26772,7 +26796,7 @@
       <c r="O29" s="417" t="s">
         <v>125</v>
       </c>
-      <c r="P29" s="539" t="s">
+      <c r="P29" s="479" t="s">
         <v>349</v>
       </c>
       <c r="Q29" s="456">
@@ -27149,11 +27173,15 @@
       <c r="B35" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="461"/>
-      <c r="D35" s="60"/>
+      <c r="C35" s="461" t="s">
+        <v>364</v>
+      </c>
+      <c r="D35" s="60">
+        <v>48</v>
+      </c>
       <c r="E35" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1056000</v>
       </c>
       <c r="F35" s="61">
         <v>22000</v>
@@ -27214,8 +27242,12 @@
       <c r="B36" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="461"/>
-      <c r="D36" s="60"/>
+      <c r="C36" s="461" t="s">
+        <v>364</v>
+      </c>
+      <c r="D36" s="60">
+        <v>0</v>
+      </c>
       <c r="E36" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -27279,11 +27311,15 @@
       <c r="B37" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="461"/>
-      <c r="D37" s="60"/>
+      <c r="C37" s="461" t="s">
+        <v>365</v>
+      </c>
+      <c r="D37" s="60">
+        <v>49</v>
+      </c>
       <c r="E37" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>969220</v>
       </c>
       <c r="F37" s="61">
         <v>19780</v>
@@ -27344,8 +27380,12 @@
       <c r="B38" s="93" t="s">
         <v>264</v>
       </c>
-      <c r="C38" s="461"/>
-      <c r="D38" s="60"/>
+      <c r="C38" s="461" t="s">
+        <v>365</v>
+      </c>
+      <c r="D38" s="60">
+        <v>0</v>
+      </c>
       <c r="E38" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -27409,11 +27449,15 @@
       <c r="B39" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="461"/>
-      <c r="D39" s="60"/>
+      <c r="C39" s="461" t="s">
+        <v>366</v>
+      </c>
+      <c r="D39" s="60">
+        <v>49</v>
+      </c>
       <c r="E39" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1212750</v>
       </c>
       <c r="F39" s="61">
         <v>24750</v>
@@ -27474,8 +27518,12 @@
       <c r="B40" s="93" t="s">
         <v>267</v>
       </c>
-      <c r="C40" s="461"/>
-      <c r="D40" s="60"/>
+      <c r="C40" s="461" t="s">
+        <v>366</v>
+      </c>
+      <c r="D40" s="60">
+        <v>0</v>
+      </c>
       <c r="E40" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -28016,13 +28064,13 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="524" t="s">
+      <c r="A55" s="525" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="498" t="s">
+      <c r="C55" s="499" t="s">
         <v>229</v>
       </c>
       <c r="D55" s="439"/>
@@ -28033,7 +28081,7 @@
       <c r="G55" s="152">
         <v>44627</v>
       </c>
-      <c r="H55" s="527" t="s">
+      <c r="H55" s="528" t="s">
         <v>230</v>
       </c>
       <c r="I55" s="151">
@@ -28052,10 +28100,10 @@
         <f t="shared" si="1"/>
         <v>18886.399999999998</v>
       </c>
-      <c r="O55" s="504" t="s">
+      <c r="O55" s="505" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="510">
+      <c r="P55" s="511">
         <v>44645</v>
       </c>
       <c r="Q55" s="128"/>
@@ -28066,11 +28114,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="526"/>
+      <c r="A56" s="527"/>
       <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="499"/>
+      <c r="C56" s="500"/>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151">
@@ -28079,7 +28127,7 @@
       <c r="G56" s="152">
         <v>44627</v>
       </c>
-      <c r="H56" s="528"/>
+      <c r="H56" s="529"/>
       <c r="I56" s="151">
         <v>967</v>
       </c>
@@ -28096,8 +28144,8 @@
         <f t="shared" si="1"/>
         <v>92832</v>
       </c>
-      <c r="O56" s="505"/>
-      <c r="P56" s="511"/>
+      <c r="O56" s="506"/>
+      <c r="P56" s="512"/>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -28158,13 +28206,13 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="488" t="s">
+      <c r="A58" s="489" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="537" t="s">
+      <c r="C58" s="538" t="s">
         <v>319</v>
       </c>
       <c r="D58" s="165"/>
@@ -28175,7 +28223,7 @@
       <c r="G58" s="152">
         <v>44648</v>
       </c>
-      <c r="H58" s="535" t="s">
+      <c r="H58" s="536" t="s">
         <v>315</v>
       </c>
       <c r="I58" s="151">
@@ -28194,10 +28242,10 @@
         <f t="shared" si="1"/>
         <v>35255.600000000006</v>
       </c>
-      <c r="O58" s="492" t="s">
+      <c r="O58" s="493" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="494">
+      <c r="P58" s="495">
         <v>44662</v>
       </c>
       <c r="Q58" s="164"/>
@@ -28208,11 +28256,11 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="489"/>
+      <c r="A59" s="490"/>
       <c r="B59" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="538"/>
+      <c r="C59" s="539"/>
       <c r="D59" s="163"/>
       <c r="E59" s="60"/>
       <c r="F59" s="151">
@@ -28221,7 +28269,7 @@
       <c r="G59" s="152">
         <v>44648</v>
       </c>
-      <c r="H59" s="536"/>
+      <c r="H59" s="537"/>
       <c r="I59" s="151">
         <v>719</v>
       </c>
@@ -28238,8 +28286,8 @@
         <f t="shared" si="1"/>
         <v>69024</v>
       </c>
-      <c r="O59" s="493"/>
-      <c r="P59" s="495"/>
+      <c r="O59" s="494"/>
+      <c r="P59" s="496"/>
       <c r="Q59" s="164"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -28312,13 +28360,13 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="529" t="s">
+      <c r="A62" s="530" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="178" t="s">
         <v>237</v>
       </c>
-      <c r="C62" s="531" t="s">
+      <c r="C62" s="532" t="s">
         <v>238</v>
       </c>
       <c r="D62" s="168"/>
@@ -28329,7 +28377,7 @@
       <c r="G62" s="152">
         <v>44622</v>
       </c>
-      <c r="H62" s="533">
+      <c r="H62" s="534">
         <v>37162</v>
       </c>
       <c r="I62" s="151">
@@ -28348,10 +28396,10 @@
         <f t="shared" si="1"/>
         <v>7782.5999999999995</v>
       </c>
-      <c r="O62" s="504" t="s">
+      <c r="O62" s="505" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="510">
+      <c r="P62" s="511">
         <v>44643</v>
       </c>
       <c r="Q62" s="164"/>
@@ -28362,11 +28410,11 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="530"/>
+      <c r="A63" s="531"/>
       <c r="B63" s="178" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="532"/>
+      <c r="C63" s="533"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
       <c r="F63" s="151">
@@ -28375,7 +28423,7 @@
       <c r="G63" s="152">
         <v>44622</v>
       </c>
-      <c r="H63" s="534"/>
+      <c r="H63" s="535"/>
       <c r="I63" s="151">
         <v>204.8</v>
       </c>
@@ -28392,8 +28440,8 @@
         <f t="shared" si="1"/>
         <v>16998.400000000001</v>
       </c>
-      <c r="O63" s="505"/>
-      <c r="P63" s="511"/>
+      <c r="O63" s="506"/>
+      <c r="P63" s="512"/>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -28872,8 +28920,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="504"/>
-      <c r="P79" s="506"/>
+      <c r="O79" s="505"/>
+      <c r="P79" s="507"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -28902,8 +28950,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="505"/>
-      <c r="P80" s="507"/>
+      <c r="O80" s="506"/>
+      <c r="P80" s="508"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -28932,8 +28980,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="504"/>
-      <c r="P81" s="506"/>
+      <c r="O81" s="505"/>
+      <c r="P81" s="507"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -28965,8 +29013,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="505"/>
-      <c r="P82" s="507"/>
+      <c r="O82" s="506"/>
+      <c r="P82" s="508"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -29124,8 +29172,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="508"/>
-      <c r="M87" s="509"/>
+      <c r="L87" s="509"/>
+      <c r="M87" s="510"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29157,8 +29205,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="508"/>
-      <c r="M88" s="509"/>
+      <c r="L88" s="509"/>
+      <c r="M88" s="510"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29361,8 +29409,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="504"/>
-      <c r="P94" s="500"/>
+      <c r="O94" s="505"/>
+      <c r="P94" s="501"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -29394,8 +29442,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="505"/>
-      <c r="P95" s="501"/>
+      <c r="O95" s="506"/>
+      <c r="P95" s="502"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -34787,11 +34835,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="502" t="s">
+      <c r="F259" s="503" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="502"/>
-      <c r="H259" s="503"/>
+      <c r="G259" s="503"/>
+      <c r="H259" s="504"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>517031.52999999991</v>
@@ -35405,11 +35453,11 @@
   </sheetPr>
   <dimension ref="A1:X292"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -35417,8 +35465,8 @@
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="310" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="310" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="310" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="331" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="310" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="331" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="311" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="312" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="315" customWidth="1"/>
@@ -35438,49 +35486,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="479" t="s">
+      <c r="A1" s="480" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="479"/>
-      <c r="C1" s="479"/>
-      <c r="D1" s="479"/>
-      <c r="E1" s="479"/>
-      <c r="F1" s="479"/>
-      <c r="G1" s="479"/>
-      <c r="H1" s="479"/>
-      <c r="I1" s="479"/>
-      <c r="J1" s="479"/>
+      <c r="B1" s="480"/>
+      <c r="C1" s="480"/>
+      <c r="D1" s="480"/>
+      <c r="E1" s="480"/>
+      <c r="F1" s="480"/>
+      <c r="G1" s="480"/>
+      <c r="H1" s="480"/>
+      <c r="I1" s="480"/>
+      <c r="J1" s="480"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="522" t="s">
+      <c r="S1" s="523" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="522"/>
+      <c r="T1" s="523"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="480" t="s">
+      <c r="W1" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="481"/>
+      <c r="X1" s="482"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="479"/>
-      <c r="B2" s="479"/>
-      <c r="C2" s="479"/>
-      <c r="D2" s="479"/>
-      <c r="E2" s="479"/>
-      <c r="F2" s="479"/>
-      <c r="G2" s="479"/>
-      <c r="H2" s="479"/>
-      <c r="I2" s="479"/>
-      <c r="J2" s="479"/>
+      <c r="A2" s="480"/>
+      <c r="B2" s="480"/>
+      <c r="C2" s="480"/>
+      <c r="D2" s="480"/>
+      <c r="E2" s="480"/>
+      <c r="F2" s="480"/>
+      <c r="G2" s="480"/>
+      <c r="H2" s="480"/>
+      <c r="I2" s="480"/>
+      <c r="J2" s="480"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -35488,8 +35536,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="523"/>
-      <c r="T2" s="523"/>
+      <c r="S2" s="524"/>
+      <c r="T2" s="524"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -35534,10 +35582,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="482" t="s">
+      <c r="O3" s="483" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="483"/>
+      <c r="P3" s="484"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -35566,9 +35614,16 @@
       <c r="B4" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
+      <c r="C4" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="D4" s="39">
+        <v>50</v>
+      </c>
+      <c r="E4" s="40">
+        <f>D4*F4</f>
+        <v>1118000</v>
+      </c>
       <c r="F4" s="41">
         <v>22360</v>
       </c>
@@ -35624,9 +35679,16 @@
       <c r="B5" s="58" t="s">
         <v>290</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="40"/>
+      <c r="C5" s="59" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" s="60">
+        <v>0</v>
+      </c>
+      <c r="E5" s="40">
+        <f t="shared" ref="E5:E40" si="2">D5*F5</f>
+        <v>0</v>
+      </c>
       <c r="F5" s="61">
         <v>0</v>
       </c>
@@ -35682,9 +35744,16 @@
       <c r="B6" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="40"/>
+      <c r="C6" s="59" t="s">
+        <v>368</v>
+      </c>
+      <c r="D6" s="60">
+        <v>50</v>
+      </c>
+      <c r="E6" s="40">
+        <f t="shared" si="2"/>
+        <v>1093500</v>
+      </c>
       <c r="F6" s="61">
         <v>21870</v>
       </c>
@@ -35740,9 +35809,16 @@
       <c r="B7" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="40"/>
+      <c r="C7" s="59" t="s">
+        <v>368</v>
+      </c>
+      <c r="D7" s="60">
+        <v>0</v>
+      </c>
+      <c r="E7" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F7" s="61">
         <v>0</v>
       </c>
@@ -35798,9 +35874,16 @@
       <c r="B8" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="40"/>
+      <c r="C8" s="59" t="s">
+        <v>369</v>
+      </c>
+      <c r="D8" s="60">
+        <v>50</v>
+      </c>
+      <c r="E8" s="40">
+        <f t="shared" si="2"/>
+        <v>1129500</v>
+      </c>
       <c r="F8" s="61">
         <v>22590</v>
       </c>
@@ -35856,9 +35939,16 @@
       <c r="B9" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="40"/>
+      <c r="C9" s="59" t="s">
+        <v>369</v>
+      </c>
+      <c r="D9" s="60">
+        <v>0</v>
+      </c>
+      <c r="E9" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F9" s="61">
         <v>0</v>
       </c>
@@ -35914,9 +36004,16 @@
       <c r="B10" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="40"/>
+      <c r="C10" s="59" t="s">
+        <v>370</v>
+      </c>
+      <c r="D10" s="72">
+        <v>50</v>
+      </c>
+      <c r="E10" s="40">
+        <f t="shared" si="2"/>
+        <v>1092000</v>
+      </c>
       <c r="F10" s="61">
         <v>21840</v>
       </c>
@@ -35972,9 +36069,16 @@
       <c r="B11" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="40"/>
+      <c r="C11" s="59" t="s">
+        <v>370</v>
+      </c>
+      <c r="D11" s="60">
+        <v>0</v>
+      </c>
+      <c r="E11" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F11" s="61">
         <v>0</v>
       </c>
@@ -36030,9 +36134,16 @@
       <c r="B12" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="431"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="40"/>
+      <c r="C12" s="431" t="s">
+        <v>371</v>
+      </c>
+      <c r="D12" s="60">
+        <v>50</v>
+      </c>
+      <c r="E12" s="40">
+        <f t="shared" si="2"/>
+        <v>1066500</v>
+      </c>
       <c r="F12" s="61">
         <v>21330</v>
       </c>
@@ -36084,9 +36195,16 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="432"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="40"/>
+      <c r="C13" s="432" t="s">
+        <v>371</v>
+      </c>
+      <c r="D13" s="60">
+        <v>0</v>
+      </c>
+      <c r="E13" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F13" s="61">
         <v>0</v>
       </c>
@@ -36140,7 +36258,10 @@
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="60"/>
-      <c r="E14" s="40"/>
+      <c r="E14" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F14" s="61">
         <v>22660</v>
       </c>
@@ -36188,7 +36309,10 @@
       </c>
       <c r="C15" s="59"/>
       <c r="D15" s="60"/>
-      <c r="E15" s="40"/>
+      <c r="E15" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F15" s="61">
         <v>0</v>
       </c>
@@ -36236,7 +36360,10 @@
       </c>
       <c r="C16" s="74"/>
       <c r="D16" s="60"/>
-      <c r="E16" s="40"/>
+      <c r="E16" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F16" s="61">
         <v>21420</v>
       </c>
@@ -36284,7 +36411,10 @@
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="60"/>
-      <c r="E17" s="40"/>
+      <c r="E17" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F17" s="61">
         <v>0</v>
       </c>
@@ -36332,7 +36462,10 @@
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="60"/>
-      <c r="E18" s="40"/>
+      <c r="E18" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F18" s="61">
         <v>9250</v>
       </c>
@@ -36380,7 +36513,10 @@
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="60"/>
-      <c r="E19" s="40"/>
+      <c r="E19" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F19" s="61">
         <v>23840</v>
       </c>
@@ -36432,7 +36568,10 @@
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="60"/>
-      <c r="E20" s="40"/>
+      <c r="E20" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F20" s="61">
         <v>0</v>
       </c>
@@ -36484,7 +36623,10 @@
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="60"/>
-      <c r="E21" s="40"/>
+      <c r="E21" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F21" s="61">
         <v>22910</v>
       </c>
@@ -36536,7 +36678,10 @@
       </c>
       <c r="C22" s="59"/>
       <c r="D22" s="60"/>
-      <c r="E22" s="40"/>
+      <c r="E22" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F22" s="61">
         <v>0</v>
       </c>
@@ -36588,7 +36733,10 @@
       </c>
       <c r="C23" s="59"/>
       <c r="D23" s="60"/>
-      <c r="E23" s="40"/>
+      <c r="E23" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F23" s="61">
         <v>42890</v>
       </c>
@@ -36636,7 +36784,10 @@
       </c>
       <c r="C24" s="59"/>
       <c r="D24" s="60"/>
-      <c r="E24" s="40"/>
+      <c r="E24" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F24" s="61">
         <v>0</v>
       </c>
@@ -36684,7 +36835,10 @@
       </c>
       <c r="C25" s="59"/>
       <c r="D25" s="60"/>
-      <c r="E25" s="40"/>
+      <c r="E25" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F25" s="61">
         <v>25070</v>
       </c>
@@ -36732,7 +36886,10 @@
       </c>
       <c r="C26" s="59"/>
       <c r="D26" s="60"/>
-      <c r="E26" s="40"/>
+      <c r="E26" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F26" s="61">
         <v>0</v>
       </c>
@@ -36776,7 +36933,10 @@
       <c r="B27" s="58"/>
       <c r="C27" s="59"/>
       <c r="D27" s="60"/>
-      <c r="E27" s="40"/>
+      <c r="E27" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F27" s="61"/>
       <c r="G27" s="62"/>
       <c r="H27" s="410"/>
@@ -36808,7 +36968,10 @@
       <c r="B28" s="58"/>
       <c r="C28" s="59"/>
       <c r="D28" s="60"/>
-      <c r="E28" s="40"/>
+      <c r="E28" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F28" s="61"/>
       <c r="G28" s="62"/>
       <c r="H28" s="410"/>
@@ -36840,7 +37003,10 @@
       <c r="B29" s="93"/>
       <c r="C29" s="59"/>
       <c r="D29" s="60"/>
-      <c r="E29" s="40"/>
+      <c r="E29" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F29" s="61"/>
       <c r="G29" s="62"/>
       <c r="H29" s="410"/>
@@ -36872,7 +37038,10 @@
       <c r="B30" s="93"/>
       <c r="C30" s="59"/>
       <c r="D30" s="60"/>
-      <c r="E30" s="40"/>
+      <c r="E30" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F30" s="61"/>
       <c r="G30" s="62"/>
       <c r="H30" s="410"/>
@@ -36904,7 +37073,10 @@
       <c r="B31" s="93"/>
       <c r="C31" s="59"/>
       <c r="D31" s="60"/>
-      <c r="E31" s="40"/>
+      <c r="E31" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F31" s="61"/>
       <c r="G31" s="62"/>
       <c r="H31" s="410"/>
@@ -36936,7 +37108,10 @@
       <c r="B32" s="93"/>
       <c r="C32" s="59"/>
       <c r="D32" s="60"/>
-      <c r="E32" s="40"/>
+      <c r="E32" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F32" s="61"/>
       <c r="G32" s="62"/>
       <c r="H32" s="410"/>
@@ -36968,7 +37143,10 @@
       <c r="B33" s="93"/>
       <c r="C33" s="59"/>
       <c r="D33" s="60"/>
-      <c r="E33" s="40"/>
+      <c r="E33" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F33" s="61"/>
       <c r="G33" s="62"/>
       <c r="H33" s="410"/>
@@ -37000,7 +37178,10 @@
       <c r="B34" s="93"/>
       <c r="C34" s="59"/>
       <c r="D34" s="60"/>
-      <c r="E34" s="40"/>
+      <c r="E34" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F34" s="61"/>
       <c r="G34" s="62"/>
       <c r="H34" s="410"/>
@@ -37032,7 +37213,10 @@
       <c r="B35" s="93"/>
       <c r="C35" s="59"/>
       <c r="D35" s="60"/>
-      <c r="E35" s="40"/>
+      <c r="E35" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F35" s="61"/>
       <c r="G35" s="62"/>
       <c r="H35" s="410"/>
@@ -37064,7 +37248,10 @@
       <c r="B36" s="93"/>
       <c r="C36" s="59"/>
       <c r="D36" s="60"/>
-      <c r="E36" s="40"/>
+      <c r="E36" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F36" s="61"/>
       <c r="G36" s="62"/>
       <c r="H36" s="410"/>
@@ -37096,7 +37283,10 @@
       <c r="B37" s="93"/>
       <c r="C37" s="59"/>
       <c r="D37" s="60"/>
-      <c r="E37" s="40"/>
+      <c r="E37" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F37" s="61"/>
       <c r="G37" s="62"/>
       <c r="H37" s="410"/>
@@ -37128,7 +37318,10 @@
       <c r="B38" s="93"/>
       <c r="C38" s="59"/>
       <c r="D38" s="60"/>
-      <c r="E38" s="40"/>
+      <c r="E38" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F38" s="61"/>
       <c r="G38" s="62"/>
       <c r="H38" s="410"/>
@@ -37160,7 +37353,10 @@
       <c r="B39" s="93"/>
       <c r="C39" s="59"/>
       <c r="D39" s="60"/>
-      <c r="E39" s="40"/>
+      <c r="E39" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F39" s="61"/>
       <c r="G39" s="62"/>
       <c r="H39" s="410"/>
@@ -37192,7 +37388,10 @@
       <c r="B40" s="93"/>
       <c r="C40" s="59"/>
       <c r="D40" s="60"/>
-      <c r="E40" s="40"/>
+      <c r="E40" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F40" s="61"/>
       <c r="G40" s="62"/>
       <c r="H40" s="410"/>
@@ -37225,7 +37424,7 @@
       <c r="C41" s="59"/>
       <c r="D41" s="60"/>
       <c r="E41" s="40">
-        <f t="shared" ref="E41" si="2">F41*D41</f>
+        <f t="shared" ref="E41" si="3">F41*D41</f>
         <v>0</v>
       </c>
       <c r="F41" s="61"/>
@@ -37260,7 +37459,7 @@
       <c r="C42" s="108"/>
       <c r="D42" s="109"/>
       <c r="E42" s="40">
-        <f t="shared" ref="E42:E106" si="3">D42*F42</f>
+        <f t="shared" ref="E42:E106" si="4">D42*F42</f>
         <v>0</v>
       </c>
       <c r="F42" s="61"/>
@@ -37295,7 +37494,7 @@
       <c r="C43" s="59"/>
       <c r="D43" s="109"/>
       <c r="E43" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F43" s="61"/>
@@ -37330,7 +37529,7 @@
       <c r="C44" s="59"/>
       <c r="D44" s="109"/>
       <c r="E44" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F44" s="61"/>
@@ -37365,7 +37564,7 @@
       <c r="C45" s="59"/>
       <c r="D45" s="109"/>
       <c r="E45" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F45" s="61"/>
@@ -37400,7 +37599,7 @@
       <c r="C46" s="115"/>
       <c r="D46" s="109"/>
       <c r="E46" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F46" s="116"/>
@@ -37435,7 +37634,7 @@
       <c r="C47" s="119"/>
       <c r="D47" s="109"/>
       <c r="E47" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F47" s="116"/>
@@ -37470,7 +37669,7 @@
       <c r="C48" s="119"/>
       <c r="D48" s="109"/>
       <c r="E48" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F48" s="116"/>
@@ -37504,7 +37703,7 @@
       <c r="C49" s="119"/>
       <c r="D49" s="109"/>
       <c r="E49" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F49" s="116"/>
@@ -37538,7 +37737,7 @@
       <c r="C50" s="119"/>
       <c r="D50" s="109"/>
       <c r="E50" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F50" s="116"/>
@@ -37571,7 +37770,7 @@
       <c r="C51" s="119"/>
       <c r="D51" s="119"/>
       <c r="E51" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F51" s="116"/>
@@ -37604,7 +37803,7 @@
       <c r="C52" s="119"/>
       <c r="D52" s="119"/>
       <c r="E52" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F52" s="64"/>
@@ -37637,7 +37836,7 @@
       <c r="C53" s="132"/>
       <c r="D53" s="132"/>
       <c r="E53" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F53" s="133"/>
@@ -38507,8 +38706,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="504"/>
-      <c r="P79" s="506"/>
+      <c r="O79" s="505"/>
+      <c r="P79" s="507"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -38537,8 +38736,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="505"/>
-      <c r="P80" s="507"/>
+      <c r="O80" s="506"/>
+      <c r="P80" s="508"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -38567,8 +38766,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="504"/>
-      <c r="P81" s="506"/>
+      <c r="O81" s="505"/>
+      <c r="P81" s="507"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -38582,7 +38781,7 @@
       <c r="C82" s="183"/>
       <c r="D82" s="190"/>
       <c r="E82" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F82" s="151"/>
@@ -38600,8 +38799,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="505"/>
-      <c r="P82" s="507"/>
+      <c r="O82" s="506"/>
+      <c r="P82" s="508"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -38615,7 +38814,7 @@
       <c r="C83" s="191"/>
       <c r="D83" s="192"/>
       <c r="E83" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F83" s="151"/>
@@ -38648,7 +38847,7 @@
       <c r="C84" s="193"/>
       <c r="D84" s="192"/>
       <c r="E84" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F84" s="151"/>
@@ -38681,7 +38880,7 @@
       <c r="C85" s="192"/>
       <c r="D85" s="195"/>
       <c r="E85" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F85" s="151"/>
@@ -38714,7 +38913,7 @@
       <c r="C86" s="189"/>
       <c r="D86" s="197"/>
       <c r="E86" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F86" s="64"/>
@@ -38747,7 +38946,7 @@
       <c r="C87" s="199"/>
       <c r="D87" s="197"/>
       <c r="E87" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F87" s="64"/>
@@ -38759,8 +38958,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="508"/>
-      <c r="M87" s="509"/>
+      <c r="L87" s="509"/>
+      <c r="M87" s="510"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -38780,7 +38979,7 @@
       <c r="C88" s="200"/>
       <c r="D88" s="197"/>
       <c r="E88" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F88" s="64"/>
@@ -38792,8 +38991,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="508"/>
-      <c r="M88" s="509"/>
+      <c r="L88" s="509"/>
+      <c r="M88" s="510"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -38813,7 +39012,7 @@
       <c r="C89" s="202"/>
       <c r="D89" s="197"/>
       <c r="E89" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F89" s="64"/>
@@ -38846,7 +39045,7 @@
       <c r="C90" s="205"/>
       <c r="D90" s="197"/>
       <c r="E90" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F90" s="64"/>
@@ -38879,7 +39078,7 @@
       <c r="C91" s="197"/>
       <c r="D91" s="197"/>
       <c r="E91" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F91" s="64"/>
@@ -38912,7 +39111,7 @@
       <c r="C92" s="197"/>
       <c r="D92" s="197"/>
       <c r="E92" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F92" s="64"/>
@@ -38945,7 +39144,7 @@
       <c r="C93" s="197"/>
       <c r="D93" s="197"/>
       <c r="E93" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F93" s="64"/>
@@ -38978,7 +39177,7 @@
       <c r="C94" s="189"/>
       <c r="D94" s="197"/>
       <c r="E94" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F94" s="64"/>
@@ -38996,8 +39195,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="504"/>
-      <c r="P94" s="500"/>
+      <c r="O94" s="505"/>
+      <c r="P94" s="501"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -39011,7 +39210,7 @@
       <c r="C95" s="189"/>
       <c r="D95" s="197"/>
       <c r="E95" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F95" s="64"/>
@@ -39029,8 +39228,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="505"/>
-      <c r="P95" s="501"/>
+      <c r="O95" s="506"/>
+      <c r="P95" s="502"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -39044,7 +39243,7 @@
       <c r="C96" s="197"/>
       <c r="D96" s="197"/>
       <c r="E96" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F96" s="64"/>
@@ -39077,7 +39276,7 @@
       <c r="C97" s="197"/>
       <c r="D97" s="197"/>
       <c r="E97" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F97" s="64"/>
@@ -39110,7 +39309,7 @@
       <c r="C98" s="207"/>
       <c r="D98" s="207"/>
       <c r="E98" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F98" s="64"/>
@@ -39143,7 +39342,7 @@
       <c r="C99" s="202"/>
       <c r="D99" s="202"/>
       <c r="E99" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F99" s="64"/>
@@ -39176,7 +39375,7 @@
       <c r="C100" s="207"/>
       <c r="D100" s="207"/>
       <c r="E100" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F100" s="64"/>
@@ -39209,7 +39408,7 @@
       <c r="C101" s="207"/>
       <c r="D101" s="207"/>
       <c r="E101" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F101" s="64"/>
@@ -39242,7 +39441,7 @@
       <c r="C102" s="207"/>
       <c r="D102" s="207"/>
       <c r="E102" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F102" s="64"/>
@@ -39275,7 +39474,7 @@
       <c r="C103" s="207"/>
       <c r="D103" s="207"/>
       <c r="E103" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F103" s="64"/>
@@ -39308,7 +39507,7 @@
       <c r="C104" s="207"/>
       <c r="D104" s="207"/>
       <c r="E104" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F104" s="64"/>
@@ -39341,7 +39540,7 @@
       <c r="C105" s="207"/>
       <c r="D105" s="207"/>
       <c r="E105" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F105" s="64"/>
@@ -39374,7 +39573,7 @@
       <c r="C106" s="207"/>
       <c r="D106" s="207"/>
       <c r="E106" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F106" s="64"/>
@@ -39407,7 +39606,7 @@
       <c r="C107" s="207"/>
       <c r="D107" s="207"/>
       <c r="E107" s="60">
-        <f t="shared" ref="E107:E176" si="4">D107*F107</f>
+        <f t="shared" ref="E107:E176" si="5">D107*F107</f>
         <v>0</v>
       </c>
       <c r="F107" s="64"/>
@@ -39440,7 +39639,7 @@
       <c r="C108" s="207"/>
       <c r="D108" s="207"/>
       <c r="E108" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F108" s="64"/>
@@ -39473,7 +39672,7 @@
       <c r="C109" s="384"/>
       <c r="D109" s="384"/>
       <c r="E109" s="385">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F109" s="44"/>
@@ -39506,7 +39705,7 @@
       <c r="C110" s="207"/>
       <c r="D110" s="207"/>
       <c r="E110" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F110" s="64"/>
@@ -39539,7 +39738,7 @@
       <c r="C111" s="207"/>
       <c r="D111" s="207"/>
       <c r="E111" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F111" s="64"/>
@@ -39572,7 +39771,7 @@
       <c r="C112" s="207"/>
       <c r="D112" s="207"/>
       <c r="E112" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F112" s="64"/>
@@ -39605,7 +39804,7 @@
       <c r="C113" s="207"/>
       <c r="D113" s="207"/>
       <c r="E113" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F113" s="64"/>
@@ -39638,7 +39837,7 @@
       <c r="C114" s="207"/>
       <c r="D114" s="207"/>
       <c r="E114" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F114" s="64"/>
@@ -39671,7 +39870,7 @@
       <c r="C115" s="207"/>
       <c r="D115" s="207"/>
       <c r="E115" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F115" s="64"/>
@@ -39686,7 +39885,7 @@
       <c r="L115" s="99"/>
       <c r="M115" s="99"/>
       <c r="N115" s="48">
-        <f t="shared" ref="N115:N178" si="5">K115*I115</f>
+        <f t="shared" ref="N115:N178" si="6">K115*I115</f>
         <v>0</v>
       </c>
       <c r="O115" s="164"/>
@@ -39704,7 +39903,7 @@
       <c r="C116" s="207"/>
       <c r="D116" s="207"/>
       <c r="E116" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F116" s="64"/>
@@ -39719,7 +39918,7 @@
       <c r="L116" s="99"/>
       <c r="M116" s="99"/>
       <c r="N116" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O116" s="164"/>
@@ -39737,7 +39936,7 @@
       <c r="C117" s="207"/>
       <c r="D117" s="207"/>
       <c r="E117" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F117" s="64"/>
@@ -39752,7 +39951,7 @@
       <c r="L117" s="99"/>
       <c r="M117" s="99"/>
       <c r="N117" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O117" s="164"/>
@@ -39770,7 +39969,7 @@
       <c r="C118" s="207"/>
       <c r="D118" s="207"/>
       <c r="E118" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F118" s="64"/>
@@ -39785,7 +39984,7 @@
       <c r="L118" s="99"/>
       <c r="M118" s="99"/>
       <c r="N118" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O118" s="164"/>
@@ -39803,7 +40002,7 @@
       <c r="C119" s="207"/>
       <c r="D119" s="207"/>
       <c r="E119" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F119" s="64"/>
@@ -39818,7 +40017,7 @@
       <c r="L119" s="99"/>
       <c r="M119" s="99"/>
       <c r="N119" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O119" s="164"/>
@@ -39836,7 +40035,7 @@
       <c r="C120" s="207"/>
       <c r="D120" s="207"/>
       <c r="E120" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F120" s="64"/>
@@ -39851,7 +40050,7 @@
       <c r="L120" s="99"/>
       <c r="M120" s="99"/>
       <c r="N120" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O120" s="164"/>
@@ -39869,7 +40068,7 @@
       <c r="C121" s="205"/>
       <c r="D121" s="205"/>
       <c r="E121" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F121" s="64"/>
@@ -39884,7 +40083,7 @@
       <c r="L121" s="99"/>
       <c r="M121" s="99"/>
       <c r="N121" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O121" s="164"/>
@@ -39902,7 +40101,7 @@
       <c r="C122" s="207"/>
       <c r="D122" s="207"/>
       <c r="E122" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F122" s="64"/>
@@ -39917,7 +40116,7 @@
       <c r="L122" s="99"/>
       <c r="M122" s="99"/>
       <c r="N122" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O122" s="164"/>
@@ -39935,7 +40134,7 @@
       <c r="C123" s="205"/>
       <c r="D123" s="205"/>
       <c r="E123" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F123" s="64"/>
@@ -39950,7 +40149,7 @@
       <c r="L123" s="99"/>
       <c r="M123" s="99"/>
       <c r="N123" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O123" s="164"/>
@@ -39968,7 +40167,7 @@
       <c r="C124" s="207"/>
       <c r="D124" s="207"/>
       <c r="E124" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F124" s="64"/>
@@ -39983,7 +40182,7 @@
       <c r="L124" s="99"/>
       <c r="M124" s="99"/>
       <c r="N124" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O124" s="164"/>
@@ -40001,7 +40200,7 @@
       <c r="C125" s="202"/>
       <c r="D125" s="202"/>
       <c r="E125" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F125" s="64"/>
@@ -40016,7 +40215,7 @@
       <c r="L125" s="99"/>
       <c r="M125" s="99"/>
       <c r="N125" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O125" s="164"/>
@@ -40034,7 +40233,7 @@
       <c r="C126" s="207"/>
       <c r="D126" s="207"/>
       <c r="E126" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F126" s="64"/>
@@ -40049,7 +40248,7 @@
       <c r="L126" s="99"/>
       <c r="M126" s="99"/>
       <c r="N126" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O126" s="164"/>
@@ -40067,7 +40266,7 @@
       <c r="C127" s="207"/>
       <c r="D127" s="207"/>
       <c r="E127" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F127" s="64"/>
@@ -40082,7 +40281,7 @@
       <c r="L127" s="99"/>
       <c r="M127" s="99"/>
       <c r="N127" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O127" s="164"/>
@@ -40100,7 +40299,7 @@
       <c r="C128" s="207"/>
       <c r="D128" s="207"/>
       <c r="E128" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F128" s="64"/>
@@ -40115,7 +40314,7 @@
       <c r="L128" s="99"/>
       <c r="M128" s="99"/>
       <c r="N128" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O128" s="164"/>
@@ -40133,7 +40332,7 @@
       <c r="C129" s="207"/>
       <c r="D129" s="207"/>
       <c r="E129" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F129" s="64"/>
@@ -40148,7 +40347,7 @@
       <c r="L129" s="99"/>
       <c r="M129" s="99"/>
       <c r="N129" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O129" s="164"/>
@@ -40166,7 +40365,7 @@
       <c r="C130" s="207"/>
       <c r="D130" s="207"/>
       <c r="E130" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F130" s="64"/>
@@ -40181,7 +40380,7 @@
       <c r="L130" s="99"/>
       <c r="M130" s="99"/>
       <c r="N130" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O130" s="98"/>
@@ -40199,7 +40398,7 @@
       <c r="C131" s="207"/>
       <c r="D131" s="207"/>
       <c r="E131" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F131" s="64"/>
@@ -40214,7 +40413,7 @@
       <c r="L131" s="99"/>
       <c r="M131" s="99"/>
       <c r="N131" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O131" s="98"/>
@@ -40232,7 +40431,7 @@
       <c r="C132" s="219"/>
       <c r="D132" s="219"/>
       <c r="E132" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F132" s="64"/>
@@ -40247,7 +40446,7 @@
       <c r="L132" s="99"/>
       <c r="M132" s="99"/>
       <c r="N132" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O132" s="98"/>
@@ -40265,7 +40464,7 @@
       <c r="C133" s="219"/>
       <c r="D133" s="219"/>
       <c r="E133" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F133" s="64"/>
@@ -40280,7 +40479,7 @@
       <c r="L133" s="99"/>
       <c r="M133" s="99"/>
       <c r="N133" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O133" s="98"/>
@@ -40298,7 +40497,7 @@
       <c r="C134" s="219"/>
       <c r="D134" s="219"/>
       <c r="E134" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F134" s="64"/>
@@ -40313,7 +40512,7 @@
       <c r="L134" s="99"/>
       <c r="M134" s="99"/>
       <c r="N134" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O134" s="98"/>
@@ -40331,7 +40530,7 @@
       <c r="C135" s="219"/>
       <c r="D135" s="219"/>
       <c r="E135" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F135" s="64"/>
@@ -40346,7 +40545,7 @@
       <c r="L135" s="99"/>
       <c r="M135" s="99"/>
       <c r="N135" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O135" s="98"/>
@@ -40364,7 +40563,7 @@
       <c r="C136" s="219"/>
       <c r="D136" s="219"/>
       <c r="E136" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F136" s="64"/>
@@ -40379,7 +40578,7 @@
       <c r="L136" s="99"/>
       <c r="M136" s="99"/>
       <c r="N136" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O136" s="98"/>
@@ -40397,7 +40596,7 @@
       <c r="C137" s="207"/>
       <c r="D137" s="207"/>
       <c r="E137" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F137" s="64"/>
@@ -40412,7 +40611,7 @@
       <c r="L137" s="99"/>
       <c r="M137" s="99"/>
       <c r="N137" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O137" s="98"/>
@@ -40430,7 +40629,7 @@
       <c r="C138" s="200"/>
       <c r="D138" s="200"/>
       <c r="E138" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F138" s="64"/>
@@ -40445,7 +40644,7 @@
       <c r="L138" s="99"/>
       <c r="M138" s="99"/>
       <c r="N138" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O138" s="98"/>
@@ -40463,7 +40662,7 @@
       <c r="C139" s="200"/>
       <c r="D139" s="200"/>
       <c r="E139" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F139" s="64"/>
@@ -40478,7 +40677,7 @@
       <c r="L139" s="99"/>
       <c r="M139" s="99"/>
       <c r="N139" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O139" s="98"/>
@@ -40496,7 +40695,7 @@
       <c r="C140" s="200"/>
       <c r="D140" s="200"/>
       <c r="E140" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F140" s="64"/>
@@ -40511,7 +40710,7 @@
       <c r="L140" s="99"/>
       <c r="M140" s="99"/>
       <c r="N140" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O140" s="98"/>
@@ -40529,7 +40728,7 @@
       <c r="C141" s="207"/>
       <c r="D141" s="207"/>
       <c r="E141" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F141" s="64"/>
@@ -40544,7 +40743,7 @@
       <c r="L141" s="99"/>
       <c r="M141" s="99"/>
       <c r="N141" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O141" s="98"/>
@@ -40562,7 +40761,7 @@
       <c r="C142" s="207"/>
       <c r="D142" s="207"/>
       <c r="E142" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F142" s="64"/>
@@ -40577,7 +40776,7 @@
       <c r="L142" s="99"/>
       <c r="M142" s="99"/>
       <c r="N142" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O142" s="98"/>
@@ -40595,7 +40794,7 @@
       <c r="C143" s="207"/>
       <c r="D143" s="207"/>
       <c r="E143" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F143" s="64"/>
@@ -40610,7 +40809,7 @@
       <c r="L143" s="99"/>
       <c r="M143" s="99"/>
       <c r="N143" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O143" s="98"/>
@@ -40628,7 +40827,7 @@
       <c r="C144" s="207"/>
       <c r="D144" s="207"/>
       <c r="E144" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F144" s="64"/>
@@ -40643,7 +40842,7 @@
       <c r="L144" s="99"/>
       <c r="M144" s="99"/>
       <c r="N144" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O144" s="98"/>
@@ -40661,7 +40860,7 @@
       <c r="C145" s="207"/>
       <c r="D145" s="207"/>
       <c r="E145" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F145" s="64"/>
@@ -40676,7 +40875,7 @@
       <c r="L145" s="99"/>
       <c r="M145" s="99"/>
       <c r="N145" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O145" s="227"/>
@@ -40694,7 +40893,7 @@
       <c r="C146" s="207"/>
       <c r="D146" s="207"/>
       <c r="E146" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F146" s="64"/>
@@ -40709,7 +40908,7 @@
       <c r="L146" s="99"/>
       <c r="M146" s="99"/>
       <c r="N146" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O146" s="234"/>
@@ -40727,7 +40926,7 @@
       <c r="C147" s="207"/>
       <c r="D147" s="207"/>
       <c r="E147" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F147" s="64"/>
@@ -40742,7 +40941,7 @@
       <c r="L147" s="99"/>
       <c r="M147" s="99"/>
       <c r="N147" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O147" s="234"/>
@@ -40760,7 +40959,7 @@
       <c r="C148" s="207"/>
       <c r="D148" s="207"/>
       <c r="E148" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F148" s="64"/>
@@ -40777,7 +40976,7 @@
         <v>25</v>
       </c>
       <c r="N148" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O148" s="227"/>
@@ -40795,7 +40994,7 @@
       <c r="C149" s="207"/>
       <c r="D149" s="207"/>
       <c r="E149" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F149" s="64"/>
@@ -40810,7 +41009,7 @@
       <c r="L149" s="99"/>
       <c r="M149" s="99"/>
       <c r="N149" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O149" s="234"/>
@@ -40828,7 +41027,7 @@
       <c r="C150" s="237"/>
       <c r="D150" s="237"/>
       <c r="E150" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F150" s="64"/>
@@ -40843,7 +41042,7 @@
       <c r="L150" s="99"/>
       <c r="M150" s="99"/>
       <c r="N150" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O150" s="239"/>
@@ -40861,7 +41060,7 @@
       <c r="C151" s="207"/>
       <c r="D151" s="207"/>
       <c r="E151" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F151" s="64"/>
@@ -40869,14 +41068,14 @@
       <c r="H151" s="212"/>
       <c r="I151" s="64"/>
       <c r="J151" s="45">
-        <f t="shared" ref="J151:J214" si="6">I151-F151</f>
+        <f t="shared" ref="J151:J214" si="7">I151-F151</f>
         <v>0</v>
       </c>
       <c r="K151" s="236"/>
       <c r="L151" s="242"/>
       <c r="M151" s="242"/>
       <c r="N151" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O151" s="239"/>
@@ -40894,7 +41093,7 @@
       <c r="C152" s="207"/>
       <c r="D152" s="207"/>
       <c r="E152" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F152" s="64"/>
@@ -40902,14 +41101,14 @@
       <c r="H152" s="212"/>
       <c r="I152" s="64"/>
       <c r="J152" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K152" s="236"/>
       <c r="L152" s="242"/>
       <c r="M152" s="242"/>
       <c r="N152" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O152" s="98"/>
@@ -40927,7 +41126,7 @@
       <c r="C153" s="207"/>
       <c r="D153" s="207"/>
       <c r="E153" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F153" s="64"/>
@@ -40935,14 +41134,14 @@
       <c r="H153" s="243"/>
       <c r="I153" s="64"/>
       <c r="J153" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K153" s="244"/>
       <c r="L153" s="242"/>
       <c r="M153" s="242"/>
       <c r="N153" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O153" s="234"/>
@@ -40960,7 +41159,7 @@
       <c r="C154" s="207"/>
       <c r="D154" s="207"/>
       <c r="E154" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F154" s="64"/>
@@ -40968,14 +41167,14 @@
       <c r="H154" s="212"/>
       <c r="I154" s="64"/>
       <c r="J154" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K154" s="246"/>
       <c r="L154" s="247"/>
       <c r="M154" s="247"/>
       <c r="N154" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O154" s="227"/>
@@ -40993,7 +41192,7 @@
       <c r="C155" s="207"/>
       <c r="D155" s="207"/>
       <c r="E155" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F155" s="249"/>
@@ -41001,14 +41200,14 @@
       <c r="H155" s="224"/>
       <c r="I155" s="64"/>
       <c r="J155" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K155" s="246"/>
       <c r="L155" s="250"/>
       <c r="M155" s="250"/>
       <c r="N155" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O155" s="234"/>
@@ -41026,7 +41225,7 @@
       <c r="C156" s="207"/>
       <c r="D156" s="207"/>
       <c r="E156" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F156" s="64"/>
@@ -41034,14 +41233,14 @@
       <c r="H156" s="212"/>
       <c r="I156" s="64"/>
       <c r="J156" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K156" s="246"/>
       <c r="L156" s="242"/>
       <c r="M156" s="242"/>
       <c r="N156" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O156" s="227"/>
@@ -41059,7 +41258,7 @@
       <c r="C157" s="207"/>
       <c r="D157" s="207"/>
       <c r="E157" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F157" s="64"/>
@@ -41067,14 +41266,14 @@
       <c r="H157" s="251"/>
       <c r="I157" s="64"/>
       <c r="J157" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K157" s="100"/>
       <c r="L157" s="242"/>
       <c r="M157" s="242"/>
       <c r="N157" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O157" s="227"/>
@@ -41092,7 +41291,7 @@
       <c r="C158" s="207"/>
       <c r="D158" s="207"/>
       <c r="E158" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F158" s="64"/>
@@ -41100,14 +41299,14 @@
       <c r="H158" s="226"/>
       <c r="I158" s="64"/>
       <c r="J158" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K158" s="246"/>
       <c r="L158" s="242"/>
       <c r="M158" s="242"/>
       <c r="N158" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O158" s="227"/>
@@ -41125,7 +41324,7 @@
       <c r="C159" s="207"/>
       <c r="D159" s="207"/>
       <c r="E159" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F159" s="64"/>
@@ -41133,14 +41332,14 @@
       <c r="H159" s="252"/>
       <c r="I159" s="64"/>
       <c r="J159" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K159" s="246"/>
       <c r="L159" s="242"/>
       <c r="M159" s="242"/>
       <c r="N159" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O159" s="227"/>
@@ -41158,7 +41357,7 @@
       <c r="C160" s="207"/>
       <c r="D160" s="207"/>
       <c r="E160" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F160" s="64"/>
@@ -41166,14 +41365,14 @@
       <c r="H160" s="253"/>
       <c r="I160" s="64"/>
       <c r="J160" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K160" s="246"/>
       <c r="L160" s="254"/>
       <c r="M160" s="254"/>
       <c r="N160" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O160" s="227"/>
@@ -41191,7 +41390,7 @@
       <c r="C161" s="207"/>
       <c r="D161" s="207"/>
       <c r="E161" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F161" s="64"/>
@@ -41199,14 +41398,14 @@
       <c r="H161" s="252"/>
       <c r="I161" s="64"/>
       <c r="J161" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K161" s="246"/>
       <c r="L161" s="254"/>
       <c r="M161" s="254"/>
       <c r="N161" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O161" s="227"/>
@@ -41224,7 +41423,7 @@
       <c r="C162" s="207"/>
       <c r="D162" s="207"/>
       <c r="E162" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F162" s="64"/>
@@ -41232,14 +41431,14 @@
       <c r="H162" s="252"/>
       <c r="I162" s="64"/>
       <c r="J162" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K162" s="246"/>
       <c r="L162" s="254"/>
       <c r="M162" s="254"/>
       <c r="N162" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O162" s="227"/>
@@ -41257,7 +41456,7 @@
       <c r="C163" s="207"/>
       <c r="D163" s="207"/>
       <c r="E163" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F163" s="64"/>
@@ -41265,14 +41464,14 @@
       <c r="H163" s="252"/>
       <c r="I163" s="64"/>
       <c r="J163" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K163" s="100"/>
       <c r="L163" s="99"/>
       <c r="M163" s="99"/>
       <c r="N163" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O163" s="227"/>
@@ -41290,7 +41489,7 @@
       <c r="C164" s="255"/>
       <c r="D164" s="255"/>
       <c r="E164" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F164" s="64"/>
@@ -41298,14 +41497,14 @@
       <c r="H164" s="252"/>
       <c r="I164" s="64"/>
       <c r="J164" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K164" s="100"/>
       <c r="L164" s="99"/>
       <c r="M164" s="99"/>
       <c r="N164" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O164" s="234"/>
@@ -41323,7 +41522,7 @@
       <c r="C165" s="255"/>
       <c r="D165" s="255"/>
       <c r="E165" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F165" s="64"/>
@@ -41331,14 +41530,14 @@
       <c r="H165" s="252"/>
       <c r="I165" s="64"/>
       <c r="J165" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K165" s="100"/>
       <c r="L165" s="99"/>
       <c r="M165" s="99"/>
       <c r="N165" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O165" s="234"/>
@@ -41356,7 +41555,7 @@
       <c r="C166" s="237"/>
       <c r="D166" s="237"/>
       <c r="E166" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F166" s="64"/>
@@ -41364,14 +41563,14 @@
       <c r="H166" s="238"/>
       <c r="I166" s="64"/>
       <c r="J166" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K166" s="100"/>
       <c r="L166" s="99"/>
       <c r="M166" s="99"/>
       <c r="N166" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O166" s="98"/>
@@ -41389,7 +41588,7 @@
       <c r="C167" s="257"/>
       <c r="D167" s="257"/>
       <c r="E167" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F167" s="64"/>
@@ -41397,14 +41596,14 @@
       <c r="H167" s="63"/>
       <c r="I167" s="64"/>
       <c r="J167" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K167" s="100"/>
       <c r="L167" s="99"/>
       <c r="M167" s="99"/>
       <c r="N167" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O167" s="98"/>
@@ -41422,7 +41621,7 @@
       <c r="C168" s="237"/>
       <c r="D168" s="237"/>
       <c r="E168" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F168" s="64"/>
@@ -41430,14 +41629,14 @@
       <c r="H168" s="238"/>
       <c r="I168" s="64"/>
       <c r="J168" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K168" s="100"/>
       <c r="L168" s="99"/>
       <c r="M168" s="99"/>
       <c r="N168" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O168" s="98"/>
@@ -41455,7 +41654,7 @@
       <c r="C169" s="219"/>
       <c r="D169" s="219"/>
       <c r="E169" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F169" s="64"/>
@@ -41463,14 +41662,14 @@
       <c r="H169" s="238"/>
       <c r="I169" s="64"/>
       <c r="J169" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K169" s="100"/>
       <c r="L169" s="99"/>
       <c r="M169" s="99"/>
       <c r="N169" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O169" s="239"/>
@@ -41488,7 +41687,7 @@
       <c r="C170" s="260"/>
       <c r="D170" s="260"/>
       <c r="E170" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F170" s="64"/>
@@ -41496,14 +41695,14 @@
       <c r="H170" s="238"/>
       <c r="I170" s="64"/>
       <c r="J170" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K170" s="100"/>
       <c r="L170" s="99"/>
       <c r="M170" s="99"/>
       <c r="N170" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O170" s="98"/>
@@ -41521,7 +41720,7 @@
       <c r="C171" s="260"/>
       <c r="D171" s="260"/>
       <c r="E171" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F171" s="64"/>
@@ -41529,14 +41728,14 @@
       <c r="H171" s="238"/>
       <c r="I171" s="64"/>
       <c r="J171" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K171" s="100"/>
       <c r="L171" s="99"/>
       <c r="M171" s="99"/>
       <c r="N171" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O171" s="98"/>
@@ -41554,7 +41753,7 @@
       <c r="C172" s="262"/>
       <c r="D172" s="262"/>
       <c r="E172" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F172" s="64"/>
@@ -41562,14 +41761,14 @@
       <c r="H172" s="238"/>
       <c r="I172" s="64"/>
       <c r="J172" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K172" s="100"/>
       <c r="L172" s="99"/>
       <c r="M172" s="99"/>
       <c r="N172" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O172" s="98"/>
@@ -41587,7 +41786,7 @@
       <c r="C173" s="263"/>
       <c r="D173" s="263"/>
       <c r="E173" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F173" s="64"/>
@@ -41595,14 +41794,14 @@
       <c r="H173" s="238"/>
       <c r="I173" s="64"/>
       <c r="J173" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K173" s="100"/>
       <c r="L173" s="99"/>
       <c r="M173" s="99"/>
       <c r="N173" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O173" s="265"/>
@@ -41620,7 +41819,7 @@
       <c r="C174" s="263"/>
       <c r="D174" s="263"/>
       <c r="E174" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F174" s="64"/>
@@ -41628,14 +41827,14 @@
       <c r="H174" s="238"/>
       <c r="I174" s="64"/>
       <c r="J174" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K174" s="100"/>
       <c r="L174" s="99"/>
       <c r="M174" s="99"/>
       <c r="N174" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O174" s="265"/>
@@ -41653,7 +41852,7 @@
       <c r="C175" s="267"/>
       <c r="D175" s="267"/>
       <c r="E175" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F175" s="268"/>
@@ -41661,11 +41860,11 @@
       <c r="H175" s="269"/>
       <c r="I175" s="268"/>
       <c r="J175" s="45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N175" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N175" s="48">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O175" s="270"/>
@@ -41683,7 +41882,7 @@
       <c r="C176" s="262"/>
       <c r="D176" s="262"/>
       <c r="E176" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F176" s="268"/>
@@ -41691,11 +41890,11 @@
       <c r="H176" s="269"/>
       <c r="I176" s="268"/>
       <c r="J176" s="45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N176" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N176" s="48">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O176" s="270"/>
@@ -41713,7 +41912,7 @@
       <c r="C177" s="262"/>
       <c r="D177" s="262"/>
       <c r="E177" s="40">
-        <f t="shared" ref="E177:E240" si="7">D177*F177</f>
+        <f t="shared" ref="E177:E240" si="8">D177*F177</f>
         <v>0</v>
       </c>
       <c r="F177" s="64"/>
@@ -41721,14 +41920,14 @@
       <c r="H177" s="238"/>
       <c r="I177" s="64"/>
       <c r="J177" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K177" s="100"/>
       <c r="L177" s="99"/>
       <c r="M177" s="99"/>
       <c r="N177" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O177" s="98"/>
@@ -41746,7 +41945,7 @@
       <c r="C178" s="262"/>
       <c r="D178" s="262"/>
       <c r="E178" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F178" s="64"/>
@@ -41754,14 +41953,14 @@
       <c r="H178" s="238"/>
       <c r="I178" s="64"/>
       <c r="J178" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K178" s="100"/>
       <c r="L178" s="99"/>
       <c r="M178" s="99"/>
       <c r="N178" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O178" s="98"/>
@@ -41779,7 +41978,7 @@
       <c r="C179" s="277"/>
       <c r="D179" s="277"/>
       <c r="E179" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F179" s="64"/>
@@ -41787,14 +41986,14 @@
       <c r="H179" s="238"/>
       <c r="I179" s="64"/>
       <c r="J179" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K179" s="100"/>
       <c r="L179" s="99"/>
       <c r="M179" s="99"/>
       <c r="N179" s="48">
-        <f t="shared" ref="N179:N242" si="8">K179*I179</f>
+        <f t="shared" ref="N179:N242" si="9">K179*I179</f>
         <v>0</v>
       </c>
       <c r="O179" s="98"/>
@@ -41812,7 +42011,7 @@
       <c r="C180" s="277"/>
       <c r="D180" s="277"/>
       <c r="E180" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F180" s="64"/>
@@ -41820,14 +42019,14 @@
       <c r="H180" s="238"/>
       <c r="I180" s="64"/>
       <c r="J180" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K180" s="100"/>
       <c r="L180" s="99"/>
       <c r="M180" s="99"/>
       <c r="N180" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O180" s="98"/>
@@ -41845,7 +42044,7 @@
       <c r="C181" s="277"/>
       <c r="D181" s="277"/>
       <c r="E181" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F181" s="64"/>
@@ -41853,14 +42052,14 @@
       <c r="H181" s="238"/>
       <c r="I181" s="64"/>
       <c r="J181" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K181" s="100"/>
       <c r="L181" s="99"/>
       <c r="M181" s="99"/>
       <c r="N181" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O181" s="98"/>
@@ -41878,7 +42077,7 @@
       <c r="C182" s="278"/>
       <c r="D182" s="278"/>
       <c r="E182" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F182" s="64"/>
@@ -41886,14 +42085,14 @@
       <c r="H182" s="238"/>
       <c r="I182" s="64"/>
       <c r="J182" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K182" s="100"/>
       <c r="L182" s="99"/>
       <c r="M182" s="99"/>
       <c r="N182" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O182" s="98"/>
@@ -41911,7 +42110,7 @@
       <c r="C183" s="277"/>
       <c r="D183" s="277"/>
       <c r="E183" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F183" s="64"/>
@@ -41919,14 +42118,14 @@
       <c r="H183" s="238"/>
       <c r="I183" s="64"/>
       <c r="J183" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K183" s="100"/>
       <c r="L183" s="99"/>
       <c r="M183" s="99"/>
       <c r="N183" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O183" s="98"/>
@@ -41944,7 +42143,7 @@
       <c r="C184" s="257"/>
       <c r="D184" s="257"/>
       <c r="E184" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F184" s="64"/>
@@ -41952,14 +42151,14 @@
       <c r="H184" s="238"/>
       <c r="I184" s="64"/>
       <c r="J184" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K184" s="100"/>
       <c r="L184" s="99"/>
       <c r="M184" s="99"/>
       <c r="N184" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O184" s="98"/>
@@ -41977,7 +42176,7 @@
       <c r="C185" s="257"/>
       <c r="D185" s="257"/>
       <c r="E185" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F185" s="64"/>
@@ -41985,14 +42184,14 @@
       <c r="H185" s="238"/>
       <c r="I185" s="64"/>
       <c r="J185" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K185" s="100"/>
       <c r="L185" s="99"/>
       <c r="M185" s="99"/>
       <c r="N185" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O185" s="98"/>
@@ -42010,7 +42209,7 @@
       <c r="C186" s="257"/>
       <c r="D186" s="257"/>
       <c r="E186" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F186" s="64"/>
@@ -42018,14 +42217,14 @@
       <c r="H186" s="238"/>
       <c r="I186" s="64"/>
       <c r="J186" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K186" s="100"/>
       <c r="L186" s="99"/>
       <c r="M186" s="99"/>
       <c r="N186" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O186" s="98"/>
@@ -42043,7 +42242,7 @@
       <c r="C187" s="257"/>
       <c r="D187" s="257"/>
       <c r="E187" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F187" s="64"/>
@@ -42051,14 +42250,14 @@
       <c r="H187" s="238"/>
       <c r="I187" s="64"/>
       <c r="J187" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K187" s="100"/>
       <c r="L187" s="99"/>
       <c r="M187" s="99"/>
       <c r="N187" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O187" s="98"/>
@@ -42076,7 +42275,7 @@
       <c r="C188" s="262"/>
       <c r="D188" s="262"/>
       <c r="E188" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F188" s="64"/>
@@ -42084,14 +42283,14 @@
       <c r="H188" s="238"/>
       <c r="I188" s="64"/>
       <c r="J188" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K188" s="100"/>
       <c r="L188" s="99"/>
       <c r="M188" s="99"/>
       <c r="N188" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O188" s="98"/>
@@ -42109,7 +42308,7 @@
       <c r="C189" s="263"/>
       <c r="D189" s="263"/>
       <c r="E189" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F189" s="64"/>
@@ -42117,14 +42316,14 @@
       <c r="H189" s="238"/>
       <c r="I189" s="64"/>
       <c r="J189" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K189" s="100"/>
       <c r="L189" s="99"/>
       <c r="M189" s="99"/>
       <c r="N189" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O189" s="265"/>
@@ -42142,7 +42341,7 @@
       <c r="C190" s="280"/>
       <c r="D190" s="280"/>
       <c r="E190" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F190" s="64"/>
@@ -42150,14 +42349,14 @@
       <c r="H190" s="238"/>
       <c r="I190" s="64"/>
       <c r="J190" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K190" s="100"/>
       <c r="L190" s="99"/>
       <c r="M190" s="99"/>
       <c r="N190" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O190" s="98"/>
@@ -42175,7 +42374,7 @@
       <c r="C191" s="280"/>
       <c r="D191" s="280"/>
       <c r="E191" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F191" s="64"/>
@@ -42183,14 +42382,14 @@
       <c r="H191" s="238"/>
       <c r="I191" s="64"/>
       <c r="J191" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K191" s="100"/>
       <c r="L191" s="99"/>
       <c r="M191" s="99"/>
       <c r="N191" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O191" s="98"/>
@@ -42208,7 +42407,7 @@
       <c r="C192" s="280"/>
       <c r="D192" s="280"/>
       <c r="E192" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F192" s="64"/>
@@ -42216,14 +42415,14 @@
       <c r="H192" s="238"/>
       <c r="I192" s="64"/>
       <c r="J192" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K192" s="100"/>
       <c r="L192" s="99"/>
       <c r="M192" s="99"/>
       <c r="N192" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O192" s="98"/>
@@ -42241,7 +42440,7 @@
       <c r="C193" s="280"/>
       <c r="D193" s="280"/>
       <c r="E193" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F193" s="281"/>
@@ -42249,14 +42448,14 @@
       <c r="H193" s="238"/>
       <c r="I193" s="64"/>
       <c r="J193" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K193" s="100"/>
       <c r="L193" s="99"/>
       <c r="M193" s="99"/>
       <c r="N193" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O193" s="98"/>
@@ -42274,7 +42473,7 @@
       <c r="C194" s="280"/>
       <c r="D194" s="280"/>
       <c r="E194" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F194" s="281"/>
@@ -42282,14 +42481,14 @@
       <c r="H194" s="238"/>
       <c r="I194" s="64"/>
       <c r="J194" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K194" s="100"/>
       <c r="L194" s="99"/>
       <c r="M194" s="99"/>
       <c r="N194" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O194" s="98"/>
@@ -42307,7 +42506,7 @@
       <c r="C195" s="280"/>
       <c r="D195" s="280"/>
       <c r="E195" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F195" s="281"/>
@@ -42315,14 +42514,14 @@
       <c r="H195" s="238"/>
       <c r="I195" s="64"/>
       <c r="J195" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K195" s="100"/>
       <c r="L195" s="99"/>
       <c r="M195" s="99"/>
       <c r="N195" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O195" s="98"/>
@@ -42340,7 +42539,7 @@
       <c r="C196" s="280"/>
       <c r="D196" s="280"/>
       <c r="E196" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F196" s="281"/>
@@ -42348,14 +42547,14 @@
       <c r="H196" s="238"/>
       <c r="I196" s="64"/>
       <c r="J196" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K196" s="100"/>
       <c r="L196" s="99"/>
       <c r="M196" s="99"/>
       <c r="N196" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O196" s="98"/>
@@ -42373,7 +42572,7 @@
       <c r="C197" s="280"/>
       <c r="D197" s="280"/>
       <c r="E197" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F197" s="281"/>
@@ -42381,14 +42580,14 @@
       <c r="H197" s="238"/>
       <c r="I197" s="64"/>
       <c r="J197" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K197" s="100"/>
       <c r="L197" s="99"/>
       <c r="M197" s="99"/>
       <c r="N197" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O197" s="98"/>
@@ -42406,7 +42605,7 @@
       <c r="C198" s="280"/>
       <c r="D198" s="280"/>
       <c r="E198" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F198" s="281"/>
@@ -42414,14 +42613,14 @@
       <c r="H198" s="238"/>
       <c r="I198" s="64"/>
       <c r="J198" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K198" s="100"/>
       <c r="L198" s="99"/>
       <c r="M198" s="99"/>
       <c r="N198" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O198" s="98"/>
@@ -42439,7 +42638,7 @@
       <c r="C199" s="280"/>
       <c r="D199" s="280"/>
       <c r="E199" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F199" s="281"/>
@@ -42447,14 +42646,14 @@
       <c r="H199" s="238"/>
       <c r="I199" s="64"/>
       <c r="J199" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K199" s="100"/>
       <c r="L199" s="99"/>
       <c r="M199" s="99"/>
       <c r="N199" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O199" s="98"/>
@@ -42472,7 +42671,7 @@
       <c r="C200" s="280"/>
       <c r="D200" s="280"/>
       <c r="E200" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F200" s="64"/>
@@ -42480,14 +42679,14 @@
       <c r="H200" s="238"/>
       <c r="I200" s="64"/>
       <c r="J200" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K200" s="100"/>
       <c r="L200" s="99"/>
       <c r="M200" s="99"/>
       <c r="N200" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O200" s="98"/>
@@ -42505,7 +42704,7 @@
       <c r="C201" s="257"/>
       <c r="D201" s="257"/>
       <c r="E201" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F201" s="64"/>
@@ -42513,14 +42712,14 @@
       <c r="H201" s="238"/>
       <c r="I201" s="64"/>
       <c r="J201" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K201" s="100"/>
       <c r="L201" s="99"/>
       <c r="M201" s="99"/>
       <c r="N201" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O201" s="98"/>
@@ -42538,7 +42737,7 @@
       <c r="C202" s="257"/>
       <c r="D202" s="257"/>
       <c r="E202" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F202" s="64"/>
@@ -42546,14 +42745,14 @@
       <c r="H202" s="238"/>
       <c r="I202" s="64"/>
       <c r="J202" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K202" s="100"/>
       <c r="L202" s="99"/>
       <c r="M202" s="99"/>
       <c r="N202" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O202" s="98"/>
@@ -42571,7 +42770,7 @@
       <c r="C203" s="257"/>
       <c r="D203" s="257"/>
       <c r="E203" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F203" s="64"/>
@@ -42579,14 +42778,14 @@
       <c r="H203" s="238"/>
       <c r="I203" s="64"/>
       <c r="J203" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K203" s="100"/>
       <c r="L203" s="99"/>
       <c r="M203" s="99"/>
       <c r="N203" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O203" s="98"/>
@@ -42604,7 +42803,7 @@
       <c r="C204" s="257"/>
       <c r="D204" s="257"/>
       <c r="E204" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F204" s="64"/>
@@ -42612,14 +42811,14 @@
       <c r="H204" s="238"/>
       <c r="I204" s="64"/>
       <c r="J204" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K204" s="100"/>
       <c r="L204" s="99"/>
       <c r="M204" s="99"/>
       <c r="N204" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O204" s="98"/>
@@ -42637,7 +42836,7 @@
       <c r="C205" s="257"/>
       <c r="D205" s="257"/>
       <c r="E205" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F205" s="64"/>
@@ -42645,14 +42844,14 @@
       <c r="H205" s="238"/>
       <c r="I205" s="64"/>
       <c r="J205" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K205" s="100"/>
       <c r="L205" s="99"/>
       <c r="M205" s="99"/>
       <c r="N205" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O205" s="98"/>
@@ -42670,7 +42869,7 @@
       <c r="C206" s="257"/>
       <c r="D206" s="257"/>
       <c r="E206" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F206" s="64"/>
@@ -42678,14 +42877,14 @@
       <c r="H206" s="238"/>
       <c r="I206" s="64"/>
       <c r="J206" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K206" s="100"/>
       <c r="L206" s="99"/>
       <c r="M206" s="99"/>
       <c r="N206" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O206" s="98"/>
@@ -42703,7 +42902,7 @@
       <c r="C207" s="257"/>
       <c r="D207" s="257"/>
       <c r="E207" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F207" s="64"/>
@@ -42711,14 +42910,14 @@
       <c r="H207" s="238"/>
       <c r="I207" s="64"/>
       <c r="J207" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K207" s="100"/>
       <c r="L207" s="99"/>
       <c r="M207" s="99"/>
       <c r="N207" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O207" s="98"/>
@@ -42736,7 +42935,7 @@
       <c r="C208" s="257"/>
       <c r="D208" s="257"/>
       <c r="E208" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F208" s="64"/>
@@ -42744,14 +42943,14 @@
       <c r="H208" s="238"/>
       <c r="I208" s="64"/>
       <c r="J208" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K208" s="100"/>
       <c r="L208" s="99"/>
       <c r="M208" s="99"/>
       <c r="N208" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O208" s="98"/>
@@ -42769,7 +42968,7 @@
       <c r="C209" s="257"/>
       <c r="D209" s="257"/>
       <c r="E209" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F209" s="64"/>
@@ -42777,14 +42976,14 @@
       <c r="H209" s="63"/>
       <c r="I209" s="64"/>
       <c r="J209" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K209" s="100"/>
       <c r="L209" s="99"/>
       <c r="M209" s="99"/>
       <c r="N209" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O209" s="98"/>
@@ -42802,7 +43001,7 @@
       <c r="C210" s="257"/>
       <c r="D210" s="257"/>
       <c r="E210" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F210" s="64"/>
@@ -42810,14 +43009,14 @@
       <c r="H210" s="238"/>
       <c r="I210" s="64"/>
       <c r="J210" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K210" s="100"/>
       <c r="L210" s="99"/>
       <c r="M210" s="99"/>
       <c r="N210" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O210" s="98"/>
@@ -42835,7 +43034,7 @@
       <c r="C211" s="257"/>
       <c r="D211" s="257"/>
       <c r="E211" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F211" s="64"/>
@@ -42843,14 +43042,14 @@
       <c r="H211" s="238"/>
       <c r="I211" s="64"/>
       <c r="J211" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K211" s="100"/>
       <c r="L211" s="99"/>
       <c r="M211" s="99"/>
       <c r="N211" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O211" s="98"/>
@@ -42868,7 +43067,7 @@
       <c r="C212" s="257"/>
       <c r="D212" s="257"/>
       <c r="E212" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F212" s="64"/>
@@ -42876,14 +43075,14 @@
       <c r="H212" s="238"/>
       <c r="I212" s="64"/>
       <c r="J212" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K212" s="100"/>
       <c r="L212" s="99"/>
       <c r="M212" s="99"/>
       <c r="N212" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O212" s="98"/>
@@ -42901,7 +43100,7 @@
       <c r="C213" s="257"/>
       <c r="D213" s="257"/>
       <c r="E213" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F213" s="64"/>
@@ -42909,14 +43108,14 @@
       <c r="H213" s="238"/>
       <c r="I213" s="64"/>
       <c r="J213" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K213" s="100"/>
       <c r="L213" s="99"/>
       <c r="M213" s="99"/>
       <c r="N213" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O213" s="98"/>
@@ -42934,7 +43133,7 @@
       <c r="C214" s="257"/>
       <c r="D214" s="257"/>
       <c r="E214" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F214" s="64"/>
@@ -42942,14 +43141,14 @@
       <c r="H214" s="238"/>
       <c r="I214" s="64"/>
       <c r="J214" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K214" s="100"/>
       <c r="L214" s="99"/>
       <c r="M214" s="99"/>
       <c r="N214" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O214" s="98"/>
@@ -42967,7 +43166,7 @@
       <c r="C215" s="257"/>
       <c r="D215" s="257"/>
       <c r="E215" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F215" s="64"/>
@@ -42975,14 +43174,14 @@
       <c r="H215" s="238"/>
       <c r="I215" s="64"/>
       <c r="J215" s="45">
-        <f t="shared" ref="J215:J258" si="9">I215-F215</f>
+        <f t="shared" ref="J215:J258" si="10">I215-F215</f>
         <v>0</v>
       </c>
       <c r="K215" s="100"/>
       <c r="L215" s="99"/>
       <c r="M215" s="99"/>
       <c r="N215" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O215" s="98"/>
@@ -43000,7 +43199,7 @@
       <c r="C216" s="257"/>
       <c r="D216" s="257"/>
       <c r="E216" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F216" s="64"/>
@@ -43008,14 +43207,14 @@
       <c r="H216" s="238"/>
       <c r="I216" s="64"/>
       <c r="J216" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K216" s="100"/>
       <c r="L216" s="99"/>
       <c r="M216" s="99"/>
       <c r="N216" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O216" s="98"/>
@@ -43033,7 +43232,7 @@
       <c r="C217" s="257"/>
       <c r="D217" s="257"/>
       <c r="E217" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F217" s="64"/>
@@ -43041,14 +43240,14 @@
       <c r="H217" s="238"/>
       <c r="I217" s="64"/>
       <c r="J217" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K217" s="100"/>
       <c r="L217" s="99"/>
       <c r="M217" s="99"/>
       <c r="N217" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O217" s="98"/>
@@ -43066,7 +43265,7 @@
       <c r="C218" s="257"/>
       <c r="D218" s="257"/>
       <c r="E218" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F218" s="64"/>
@@ -43074,14 +43273,14 @@
       <c r="H218" s="238"/>
       <c r="I218" s="64"/>
       <c r="J218" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K218" s="100"/>
       <c r="L218" s="99"/>
       <c r="M218" s="99"/>
       <c r="N218" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O218" s="98"/>
@@ -43099,7 +43298,7 @@
       <c r="C219" s="257"/>
       <c r="D219" s="257"/>
       <c r="E219" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F219" s="64"/>
@@ -43107,14 +43306,14 @@
       <c r="H219" s="238"/>
       <c r="I219" s="64"/>
       <c r="J219" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K219" s="100"/>
       <c r="L219" s="99"/>
       <c r="M219" s="99"/>
       <c r="N219" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O219" s="98"/>
@@ -43132,7 +43331,7 @@
       <c r="C220" s="257"/>
       <c r="D220" s="257"/>
       <c r="E220" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F220" s="64"/>
@@ -43140,14 +43339,14 @@
       <c r="H220" s="238"/>
       <c r="I220" s="64"/>
       <c r="J220" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K220" s="100"/>
       <c r="L220" s="99"/>
       <c r="M220" s="99"/>
       <c r="N220" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O220" s="98"/>
@@ -43165,7 +43364,7 @@
       <c r="C221" s="257"/>
       <c r="D221" s="257"/>
       <c r="E221" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F221" s="64"/>
@@ -43173,14 +43372,14 @@
       <c r="H221" s="238"/>
       <c r="I221" s="64"/>
       <c r="J221" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K221" s="100"/>
       <c r="L221" s="99"/>
       <c r="M221" s="99"/>
       <c r="N221" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O221" s="98"/>
@@ -43198,7 +43397,7 @@
       <c r="C222" s="257"/>
       <c r="D222" s="257"/>
       <c r="E222" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F222" s="64"/>
@@ -43206,14 +43405,14 @@
       <c r="H222" s="238"/>
       <c r="I222" s="64"/>
       <c r="J222" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K222" s="100"/>
       <c r="L222" s="99"/>
       <c r="M222" s="99"/>
       <c r="N222" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O222" s="98"/>
@@ -43231,7 +43430,7 @@
       <c r="C223" s="257"/>
       <c r="D223" s="257"/>
       <c r="E223" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F223" s="64"/>
@@ -43239,14 +43438,14 @@
       <c r="H223" s="238"/>
       <c r="I223" s="64"/>
       <c r="J223" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K223" s="100"/>
       <c r="L223" s="99"/>
       <c r="M223" s="99"/>
       <c r="N223" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O223" s="98"/>
@@ -43264,7 +43463,7 @@
       <c r="C224" s="283"/>
       <c r="D224" s="283"/>
       <c r="E224" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F224" s="64"/>
@@ -43272,14 +43471,14 @@
       <c r="H224" s="238"/>
       <c r="I224" s="64"/>
       <c r="J224" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K224" s="100"/>
       <c r="L224" s="99"/>
       <c r="M224" s="99"/>
       <c r="N224" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O224" s="98"/>
@@ -43297,7 +43496,7 @@
       <c r="C225" s="257"/>
       <c r="D225" s="257"/>
       <c r="E225" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F225" s="64"/>
@@ -43305,14 +43504,14 @@
       <c r="H225" s="238"/>
       <c r="I225" s="64"/>
       <c r="J225" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K225" s="100"/>
       <c r="L225" s="99"/>
       <c r="M225" s="99"/>
       <c r="N225" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O225" s="98"/>
@@ -43330,7 +43529,7 @@
       <c r="C226" s="277"/>
       <c r="D226" s="277"/>
       <c r="E226" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F226" s="64"/>
@@ -43338,14 +43537,14 @@
       <c r="H226" s="238"/>
       <c r="I226" s="64"/>
       <c r="J226" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K226" s="100"/>
       <c r="L226" s="99"/>
       <c r="M226" s="99"/>
       <c r="N226" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O226" s="98"/>
@@ -43363,7 +43562,7 @@
       <c r="C227" s="278"/>
       <c r="D227" s="278"/>
       <c r="E227" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F227" s="64"/>
@@ -43371,14 +43570,14 @@
       <c r="H227" s="238"/>
       <c r="I227" s="64"/>
       <c r="J227" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K227" s="100"/>
       <c r="L227" s="99"/>
       <c r="M227" s="99"/>
       <c r="N227" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O227" s="98"/>
@@ -43396,7 +43595,7 @@
       <c r="C228" s="278"/>
       <c r="D228" s="278"/>
       <c r="E228" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F228" s="64"/>
@@ -43404,14 +43603,14 @@
       <c r="H228" s="238"/>
       <c r="I228" s="64"/>
       <c r="J228" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K228" s="100"/>
       <c r="L228" s="99"/>
       <c r="M228" s="99"/>
       <c r="N228" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O228" s="98"/>
@@ -43429,7 +43628,7 @@
       <c r="C229" s="277"/>
       <c r="D229" s="277"/>
       <c r="E229" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F229" s="64"/>
@@ -43437,14 +43636,14 @@
       <c r="H229" s="238"/>
       <c r="I229" s="64"/>
       <c r="J229" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K229" s="100"/>
       <c r="L229" s="99"/>
       <c r="M229" s="99"/>
       <c r="N229" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O229" s="98"/>
@@ -43462,7 +43661,7 @@
       <c r="C230" s="262"/>
       <c r="D230" s="262"/>
       <c r="E230" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F230" s="64"/>
@@ -43470,14 +43669,14 @@
       <c r="H230" s="238"/>
       <c r="I230" s="64"/>
       <c r="J230" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K230" s="100"/>
       <c r="L230" s="99"/>
       <c r="M230" s="99"/>
       <c r="N230" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O230" s="98"/>
@@ -43495,7 +43694,7 @@
       <c r="C231" s="207"/>
       <c r="D231" s="207"/>
       <c r="E231" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F231" s="64"/>
@@ -43503,14 +43702,14 @@
       <c r="H231" s="238"/>
       <c r="I231" s="64"/>
       <c r="J231" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K231" s="100"/>
       <c r="L231" s="99"/>
       <c r="M231" s="99"/>
       <c r="N231" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O231" s="98"/>
@@ -43528,7 +43727,7 @@
       <c r="C232" s="237"/>
       <c r="D232" s="237"/>
       <c r="E232" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F232" s="64"/>
@@ -43536,14 +43735,14 @@
       <c r="H232" s="238"/>
       <c r="I232" s="64"/>
       <c r="J232" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K232" s="100"/>
       <c r="L232" s="99"/>
       <c r="M232" s="99"/>
       <c r="N232" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O232" s="98"/>
@@ -43561,7 +43760,7 @@
       <c r="C233" s="237"/>
       <c r="D233" s="237"/>
       <c r="E233" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F233" s="64"/>
@@ -43569,14 +43768,14 @@
       <c r="H233" s="238"/>
       <c r="I233" s="64"/>
       <c r="J233" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K233" s="100"/>
       <c r="L233" s="99"/>
       <c r="M233" s="99"/>
       <c r="N233" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O233" s="98"/>
@@ -43594,7 +43793,7 @@
       <c r="C234" s="237"/>
       <c r="D234" s="237"/>
       <c r="E234" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F234" s="64"/>
@@ -43602,14 +43801,14 @@
       <c r="H234" s="238"/>
       <c r="I234" s="64"/>
       <c r="J234" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K234" s="100"/>
       <c r="L234" s="99"/>
       <c r="M234" s="99"/>
       <c r="N234" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O234" s="98"/>
@@ -43627,7 +43826,7 @@
       <c r="C235" s="237"/>
       <c r="D235" s="237"/>
       <c r="E235" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F235" s="64"/>
@@ -43635,14 +43834,14 @@
       <c r="H235" s="238"/>
       <c r="I235" s="64"/>
       <c r="J235" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K235" s="100"/>
       <c r="L235" s="99"/>
       <c r="M235" s="99"/>
       <c r="N235" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O235" s="98"/>
@@ -43660,7 +43859,7 @@
       <c r="C236" s="237"/>
       <c r="D236" s="237"/>
       <c r="E236" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F236" s="64"/>
@@ -43668,14 +43867,14 @@
       <c r="H236" s="63"/>
       <c r="I236" s="64"/>
       <c r="J236" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K236" s="100"/>
       <c r="L236" s="99"/>
       <c r="M236" s="99"/>
       <c r="N236" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O236" s="98"/>
@@ -43693,7 +43892,7 @@
       <c r="C237" s="237"/>
       <c r="D237" s="237"/>
       <c r="E237" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F237" s="64"/>
@@ -43701,14 +43900,14 @@
       <c r="H237" s="238"/>
       <c r="I237" s="64"/>
       <c r="J237" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K237" s="100"/>
       <c r="L237" s="99"/>
       <c r="M237" s="99"/>
       <c r="N237" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O237" s="98"/>
@@ -43726,7 +43925,7 @@
       <c r="C238" s="219"/>
       <c r="D238" s="219"/>
       <c r="E238" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F238" s="64"/>
@@ -43734,14 +43933,14 @@
       <c r="H238" s="238"/>
       <c r="I238" s="64"/>
       <c r="J238" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K238" s="100"/>
       <c r="L238" s="99"/>
       <c r="M238" s="99"/>
       <c r="N238" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O238" s="98"/>
@@ -43759,7 +43958,7 @@
       <c r="C239" s="219"/>
       <c r="D239" s="219"/>
       <c r="E239" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F239" s="64"/>
@@ -43767,14 +43966,14 @@
       <c r="H239" s="238"/>
       <c r="I239" s="64"/>
       <c r="J239" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K239" s="100"/>
       <c r="L239" s="99"/>
       <c r="M239" s="99"/>
       <c r="N239" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O239" s="98"/>
@@ -43792,7 +43991,7 @@
       <c r="C240" s="255"/>
       <c r="D240" s="255"/>
       <c r="E240" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F240" s="64"/>
@@ -43800,14 +43999,14 @@
       <c r="H240" s="252"/>
       <c r="I240" s="64"/>
       <c r="J240" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K240" s="100"/>
       <c r="L240" s="99"/>
       <c r="M240" s="99"/>
       <c r="N240" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O240" s="234"/>
@@ -43825,7 +44024,7 @@
       <c r="C241" s="189"/>
       <c r="D241" s="189"/>
       <c r="E241" s="40">
-        <f t="shared" ref="E241:E262" si="10">D241*F241</f>
+        <f t="shared" ref="E241:E262" si="11">D241*F241</f>
         <v>0</v>
       </c>
       <c r="F241" s="64"/>
@@ -43833,14 +44032,14 @@
       <c r="H241" s="252"/>
       <c r="I241" s="64"/>
       <c r="J241" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K241" s="100"/>
       <c r="L241" s="286"/>
       <c r="M241" s="287"/>
       <c r="N241" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O241" s="234"/>
@@ -43858,7 +44057,7 @@
       <c r="C242" s="200"/>
       <c r="D242" s="200"/>
       <c r="E242" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F242" s="200"/>
@@ -43866,14 +44065,14 @@
       <c r="H242" s="290"/>
       <c r="I242" s="116"/>
       <c r="J242" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K242" s="100"/>
       <c r="L242" s="286"/>
       <c r="M242" s="287"/>
       <c r="N242" s="48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O242" s="234"/>
@@ -43891,7 +44090,7 @@
       <c r="C243" s="200"/>
       <c r="D243" s="200"/>
       <c r="E243" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F243" s="200"/>
@@ -43899,14 +44098,14 @@
       <c r="H243" s="290"/>
       <c r="I243" s="116"/>
       <c r="J243" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K243" s="100"/>
       <c r="L243" s="286"/>
       <c r="M243" s="287"/>
       <c r="N243" s="48">
-        <f t="shared" ref="N243:N262" si="11">K243*I243</f>
+        <f t="shared" ref="N243:N262" si="12">K243*I243</f>
         <v>0</v>
       </c>
       <c r="O243" s="234"/>
@@ -43924,7 +44123,7 @@
       <c r="C244" s="200"/>
       <c r="D244" s="200"/>
       <c r="E244" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F244" s="200"/>
@@ -43932,14 +44131,14 @@
       <c r="H244" s="290"/>
       <c r="I244" s="116"/>
       <c r="J244" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K244" s="100"/>
       <c r="L244" s="286"/>
       <c r="M244" s="287"/>
       <c r="N244" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O244" s="98"/>
@@ -43957,7 +44156,7 @@
       <c r="C245" s="200"/>
       <c r="D245" s="200"/>
       <c r="E245" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F245" s="200"/>
@@ -43965,14 +44164,14 @@
       <c r="H245" s="290"/>
       <c r="I245" s="116"/>
       <c r="J245" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K245" s="100"/>
       <c r="L245" s="286"/>
       <c r="M245" s="287"/>
       <c r="N245" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O245" s="98"/>
@@ -43990,7 +44189,7 @@
       <c r="C246" s="200"/>
       <c r="D246" s="200"/>
       <c r="E246" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F246" s="200"/>
@@ -43998,14 +44197,14 @@
       <c r="H246" s="290"/>
       <c r="I246" s="116"/>
       <c r="J246" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K246" s="100"/>
       <c r="L246" s="286"/>
       <c r="M246" s="287"/>
       <c r="N246" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O246" s="98"/>
@@ -44023,7 +44222,7 @@
       <c r="C247" s="292"/>
       <c r="D247" s="293"/>
       <c r="E247" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F247" s="44"/>
@@ -44031,14 +44230,14 @@
       <c r="H247" s="295"/>
       <c r="I247" s="64"/>
       <c r="J247" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K247" s="100"/>
       <c r="L247" s="286"/>
       <c r="M247" s="296"/>
       <c r="N247" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O247" s="234"/>
@@ -44056,7 +44255,7 @@
       <c r="C248" s="292"/>
       <c r="D248" s="292"/>
       <c r="E248" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F248" s="64"/>
@@ -44064,14 +44263,14 @@
       <c r="H248" s="252"/>
       <c r="I248" s="64"/>
       <c r="J248" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K248" s="100"/>
       <c r="L248" s="286"/>
       <c r="M248" s="296"/>
       <c r="N248" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O248" s="234"/>
@@ -44089,7 +44288,7 @@
       <c r="C249" s="292"/>
       <c r="D249" s="292"/>
       <c r="E249" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F249" s="64"/>
@@ -44097,14 +44296,14 @@
       <c r="H249" s="252"/>
       <c r="I249" s="64"/>
       <c r="J249" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K249" s="100"/>
       <c r="L249" s="286"/>
       <c r="M249" s="296"/>
       <c r="N249" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O249" s="234"/>
@@ -44122,7 +44321,7 @@
       <c r="C250" s="297"/>
       <c r="D250" s="297"/>
       <c r="E250" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F250" s="64"/>
@@ -44130,14 +44329,14 @@
       <c r="H250" s="252"/>
       <c r="I250" s="64"/>
       <c r="J250" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K250" s="100"/>
       <c r="L250" s="286"/>
       <c r="M250" s="296"/>
       <c r="N250" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O250" s="234"/>
@@ -44155,7 +44354,7 @@
       <c r="C251" s="210"/>
       <c r="D251" s="210"/>
       <c r="E251" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F251" s="268"/>
@@ -44165,14 +44364,14 @@
         <v>0</v>
       </c>
       <c r="J251" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K251" s="299"/>
       <c r="L251" s="299"/>
       <c r="M251" s="299"/>
       <c r="N251" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O251" s="301"/>
@@ -44190,7 +44389,7 @@
       <c r="C252" s="210"/>
       <c r="D252" s="210"/>
       <c r="E252" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F252" s="268"/>
@@ -44200,14 +44399,14 @@
         <v>0</v>
       </c>
       <c r="J252" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K252" s="299"/>
       <c r="L252" s="299"/>
       <c r="M252" s="299"/>
       <c r="N252" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O252" s="301"/>
@@ -44225,7 +44424,7 @@
       <c r="C253" s="210"/>
       <c r="D253" s="210"/>
       <c r="E253" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F253" s="268"/>
@@ -44235,14 +44434,14 @@
         <v>0</v>
       </c>
       <c r="J253" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K253" s="299"/>
       <c r="L253" s="299"/>
       <c r="M253" s="299"/>
       <c r="N253" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O253" s="301"/>
@@ -44260,7 +44459,7 @@
       <c r="C254" s="210"/>
       <c r="D254" s="210"/>
       <c r="E254" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F254" s="268"/>
@@ -44270,14 +44469,14 @@
         <v>0</v>
       </c>
       <c r="J254" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K254" s="299"/>
       <c r="L254" s="299"/>
       <c r="M254" s="299"/>
       <c r="N254" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O254" s="301"/>
@@ -44295,7 +44494,7 @@
       <c r="C255" s="210"/>
       <c r="D255" s="210"/>
       <c r="E255" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F255" s="268"/>
@@ -44305,14 +44504,14 @@
         <v>0</v>
       </c>
       <c r="J255" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K255" s="299"/>
       <c r="L255" s="299"/>
       <c r="M255" s="299"/>
       <c r="N255" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O255" s="301"/>
@@ -44328,7 +44527,7 @@
       <c r="A256" s="308"/>
       <c r="B256" s="309"/>
       <c r="E256" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H256" s="313"/>
@@ -44336,14 +44535,14 @@
         <v>0</v>
       </c>
       <c r="J256" s="45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K256" s="314"/>
       <c r="L256" s="314"/>
       <c r="M256" s="314"/>
       <c r="N256" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O256" s="301"/>
@@ -44359,21 +44558,21 @@
       <c r="A257" s="308"/>
       <c r="B257" s="309"/>
       <c r="E257" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I257" s="311">
+        <v>0</v>
+      </c>
+      <c r="J257" s="45">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I257" s="311">
-        <v>0</v>
-      </c>
-      <c r="J257" s="45">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K257" s="314"/>
       <c r="L257" s="314"/>
       <c r="M257" s="314"/>
       <c r="N257" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O257" s="301"/>
@@ -44389,21 +44588,21 @@
       <c r="A258" s="308"/>
       <c r="B258" s="309"/>
       <c r="E258" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I258" s="316">
+        <v>0</v>
+      </c>
+      <c r="J258" s="45">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I258" s="316">
-        <v>0</v>
-      </c>
-      <c r="J258" s="45">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K258" s="314"/>
       <c r="L258" s="314"/>
       <c r="M258" s="314"/>
       <c r="N258" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O258" s="301"/>
@@ -44419,14 +44618,14 @@
       <c r="A259" s="308"/>
       <c r="B259" s="309"/>
       <c r="E259" s="40" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="502" t="s">
+      <c r="F259" s="503" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="502"/>
-      <c r="H259" s="503"/>
+      <c r="G259" s="503"/>
+      <c r="H259" s="504"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>345591.51</v>
@@ -44436,7 +44635,7 @@
       <c r="L259" s="319"/>
       <c r="M259" s="314"/>
       <c r="N259" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O259" s="301"/>
@@ -44452,7 +44651,7 @@
       <c r="A260" s="321"/>
       <c r="B260" s="309"/>
       <c r="E260" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I260" s="322"/>
@@ -44461,7 +44660,7 @@
       <c r="L260" s="319"/>
       <c r="M260" s="314"/>
       <c r="N260" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O260" s="323"/>
@@ -44475,7 +44674,7 @@
       <c r="A261" s="308"/>
       <c r="B261" s="309"/>
       <c r="E261" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J261" s="311"/>
@@ -44483,7 +44682,7 @@
       <c r="L261" s="314"/>
       <c r="M261" s="314"/>
       <c r="N261" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O261" s="323"/>
@@ -44497,13 +44696,13 @@
       <c r="A262" s="308"/>
       <c r="B262" s="309"/>
       <c r="E262" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J262" s="311"/>
       <c r="K262" s="328"/>
       <c r="N262" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O262" s="329"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/ENTRADAS OBRADOR  ABRIL    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/ENTRADAS OBRADOR  ABRIL    2022.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="391">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -1144,6 +1144,63 @@
   </si>
   <si>
     <t>0594 Z</t>
+  </si>
+  <si>
+    <t>0606 Z</t>
+  </si>
+  <si>
+    <t>0615 Z</t>
+  </si>
+  <si>
+    <t>0630 Z</t>
+  </si>
+  <si>
+    <t>0640 Z</t>
+  </si>
+  <si>
+    <t>0658 Z</t>
+  </si>
+  <si>
+    <t>0670 Z</t>
+  </si>
+  <si>
+    <t>0681 Z</t>
+  </si>
+  <si>
+    <t>20333--</t>
+  </si>
+  <si>
+    <t>20351--</t>
+  </si>
+  <si>
+    <t>20365--</t>
+  </si>
+  <si>
+    <t>20372--</t>
+  </si>
+  <si>
+    <t>20322--</t>
+  </si>
+  <si>
+    <t>20324--</t>
+  </si>
+  <si>
+    <t>20307--10837</t>
+  </si>
+  <si>
+    <t>20307--10835</t>
+  </si>
+  <si>
+    <t>20312--8770</t>
+  </si>
+  <si>
+    <t>20312--4738--NC-188</t>
+  </si>
+  <si>
+    <t>CHULETA MARIPOSA</t>
+  </si>
+  <si>
+    <t>FOLIO 10788</t>
   </si>
 </sst>
 </file>
@@ -3766,6 +3823,78 @@
     <xf numFmtId="164" fontId="22" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3799,84 +3928,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3907,6 +3964,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3938,12 +4001,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4274,18 +4331,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="480" t="s">
+      <c r="A1" s="504" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="480"/>
-      <c r="C1" s="480"/>
-      <c r="D1" s="480"/>
-      <c r="E1" s="480"/>
-      <c r="F1" s="480"/>
-      <c r="G1" s="480"/>
-      <c r="H1" s="480"/>
-      <c r="I1" s="480"/>
-      <c r="J1" s="480"/>
+      <c r="B1" s="504"/>
+      <c r="C1" s="504"/>
+      <c r="D1" s="504"/>
+      <c r="E1" s="504"/>
+      <c r="F1" s="504"/>
+      <c r="G1" s="504"/>
+      <c r="H1" s="504"/>
+      <c r="I1" s="504"/>
+      <c r="J1" s="504"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -4299,22 +4356,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="481" t="s">
+      <c r="W1" s="505" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="482"/>
+      <c r="X1" s="506"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="480"/>
-      <c r="B2" s="480"/>
-      <c r="C2" s="480"/>
-      <c r="D2" s="480"/>
-      <c r="E2" s="480"/>
-      <c r="F2" s="480"/>
-      <c r="G2" s="480"/>
-      <c r="H2" s="480"/>
-      <c r="I2" s="480"/>
-      <c r="J2" s="480"/>
+      <c r="A2" s="504"/>
+      <c r="B2" s="504"/>
+      <c r="C2" s="504"/>
+      <c r="D2" s="504"/>
+      <c r="E2" s="504"/>
+      <c r="F2" s="504"/>
+      <c r="G2" s="504"/>
+      <c r="H2" s="504"/>
+      <c r="I2" s="504"/>
+      <c r="J2" s="504"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -4368,10 +4425,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="483" t="s">
+      <c r="O3" s="507" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="484"/>
+      <c r="P3" s="508"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -4915,7 +4972,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="485" t="s">
+      <c r="C12" s="509" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -4979,7 +5036,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="486"/>
+      <c r="C13" s="510"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -6981,13 +7038,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="497" t="s">
+      <c r="A56" s="488" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="499" t="s">
+      <c r="C56" s="490" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -6998,7 +7055,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="491">
+      <c r="H56" s="492">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -7027,11 +7084,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="498"/>
+      <c r="A57" s="489"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="500"/>
+      <c r="C57" s="491"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -7040,7 +7097,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="492"/>
+      <c r="H57" s="493"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -7067,13 +7124,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="497" t="s">
+      <c r="A58" s="488" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="499" t="s">
+      <c r="C58" s="490" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -7084,7 +7141,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="491">
+      <c r="H58" s="492">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -7103,10 +7160,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="493" t="s">
+      <c r="O58" s="494" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="495">
+      <c r="P58" s="515">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -7117,11 +7174,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="498"/>
+      <c r="A59" s="489"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="500"/>
+      <c r="C59" s="491"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -7130,7 +7187,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="492"/>
+      <c r="H59" s="493"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -7147,8 +7204,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="494"/>
-      <c r="P59" s="496"/>
+      <c r="O59" s="495"/>
+      <c r="P59" s="516"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -7157,13 +7214,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="489" t="s">
+      <c r="A60" s="513" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="487" t="s">
+      <c r="C60" s="511" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -7177,7 +7234,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="491">
+      <c r="H60" s="492">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -7196,10 +7253,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="493" t="s">
+      <c r="O60" s="494" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="495">
+      <c r="P60" s="515">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -7212,11 +7269,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="490"/>
+      <c r="A61" s="514"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="488"/>
+      <c r="C61" s="512"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -7228,7 +7285,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="492"/>
+      <c r="H61" s="493"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -7245,8 +7302,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="494"/>
-      <c r="P61" s="496"/>
+      <c r="O61" s="495"/>
+      <c r="P61" s="516"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -7312,7 +7369,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="513"/>
+      <c r="C63" s="482"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -7320,7 +7377,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="515"/>
+      <c r="H63" s="484"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -7349,7 +7406,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="514"/>
+      <c r="C64" s="483"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -7357,7 +7414,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="516"/>
+      <c r="H64" s="485"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -7535,8 +7592,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="505"/>
-      <c r="P68" s="511"/>
+      <c r="O68" s="486"/>
+      <c r="P68" s="480"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -7570,8 +7627,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="506"/>
-      <c r="P69" s="512"/>
+      <c r="O69" s="487"/>
+      <c r="P69" s="481"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -8061,8 +8118,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="505"/>
-      <c r="P82" s="507"/>
+      <c r="O82" s="486"/>
+      <c r="P82" s="500"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -8094,8 +8151,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="506"/>
-      <c r="P83" s="508"/>
+      <c r="O83" s="487"/>
+      <c r="P83" s="501"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -8127,8 +8184,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="505"/>
-      <c r="P84" s="507"/>
+      <c r="O84" s="486"/>
+      <c r="P84" s="500"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -8160,8 +8217,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="506"/>
-      <c r="P85" s="508"/>
+      <c r="O85" s="487"/>
+      <c r="P85" s="501"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -8319,8 +8376,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="509"/>
-      <c r="M90" s="510"/>
+      <c r="L90" s="502"/>
+      <c r="M90" s="503"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8352,8 +8409,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="509"/>
-      <c r="M91" s="510"/>
+      <c r="L91" s="502"/>
+      <c r="M91" s="503"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8556,8 +8613,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="505"/>
-      <c r="P97" s="501"/>
+      <c r="O97" s="486"/>
+      <c r="P97" s="496"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -8589,8 +8646,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="506"/>
-      <c r="P98" s="502"/>
+      <c r="O98" s="487"/>
+      <c r="P98" s="497"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -13982,11 +14039,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="503" t="s">
+      <c r="F262" s="498" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="503"/>
-      <c r="H262" s="504"/>
+      <c r="G262" s="498"/>
+      <c r="H262" s="499"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -14560,22 +14617,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="O97:O98"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -14589,6 +14630,22 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="P58:P59"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="L90:M91"/>
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="O58:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14632,18 +14689,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="480" t="s">
+      <c r="A1" s="504" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="480"/>
-      <c r="C1" s="480"/>
-      <c r="D1" s="480"/>
-      <c r="E1" s="480"/>
-      <c r="F1" s="480"/>
-      <c r="G1" s="480"/>
-      <c r="H1" s="480"/>
-      <c r="I1" s="480"/>
-      <c r="J1" s="480"/>
+      <c r="B1" s="504"/>
+      <c r="C1" s="504"/>
+      <c r="D1" s="504"/>
+      <c r="E1" s="504"/>
+      <c r="F1" s="504"/>
+      <c r="G1" s="504"/>
+      <c r="H1" s="504"/>
+      <c r="I1" s="504"/>
+      <c r="J1" s="504"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -14659,22 +14716,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="481" t="s">
+      <c r="W1" s="505" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="482"/>
+      <c r="X1" s="506"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="480"/>
-      <c r="B2" s="480"/>
-      <c r="C2" s="480"/>
-      <c r="D2" s="480"/>
-      <c r="E2" s="480"/>
-      <c r="F2" s="480"/>
-      <c r="G2" s="480"/>
-      <c r="H2" s="480"/>
-      <c r="I2" s="480"/>
-      <c r="J2" s="480"/>
+      <c r="A2" s="504"/>
+      <c r="B2" s="504"/>
+      <c r="C2" s="504"/>
+      <c r="D2" s="504"/>
+      <c r="E2" s="504"/>
+      <c r="F2" s="504"/>
+      <c r="G2" s="504"/>
+      <c r="H2" s="504"/>
+      <c r="I2" s="504"/>
+      <c r="J2" s="504"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -14728,10 +14785,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="483" t="s">
+      <c r="O3" s="507" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="484"/>
+      <c r="P3" s="508"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -17373,7 +17430,7 @@
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="499" t="s">
+      <c r="C55" s="490" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -17384,7 +17441,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="515" t="s">
+      <c r="H55" s="484" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -17417,7 +17474,7 @@
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="500"/>
+      <c r="C56" s="491"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -17426,7 +17483,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="516"/>
+      <c r="H56" s="485"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -17472,7 +17529,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="515" t="s">
+      <c r="H57" s="484" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -17491,10 +17548,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="505" t="s">
+      <c r="O57" s="486" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="511">
+      <c r="P57" s="480">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -17518,7 +17575,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="516"/>
+      <c r="H58" s="485"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -17562,7 +17619,7 @@
       <c r="G59" s="152">
         <v>44613</v>
       </c>
-      <c r="H59" s="515" t="s">
+      <c r="H59" s="484" t="s">
         <v>225</v>
       </c>
       <c r="I59" s="151">
@@ -17606,7 +17663,7 @@
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="516"/>
+      <c r="H60" s="485"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -18269,8 +18326,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="505"/>
-      <c r="P79" s="507"/>
+      <c r="O79" s="486"/>
+      <c r="P79" s="500"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -18299,8 +18356,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="506"/>
-      <c r="P80" s="508"/>
+      <c r="O80" s="487"/>
+      <c r="P80" s="501"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -18329,8 +18386,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="505"/>
-      <c r="P81" s="507"/>
+      <c r="O81" s="486"/>
+      <c r="P81" s="500"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -18362,8 +18419,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="506"/>
-      <c r="P82" s="508"/>
+      <c r="O82" s="487"/>
+      <c r="P82" s="501"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -18521,8 +18578,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="509"/>
-      <c r="M87" s="510"/>
+      <c r="L87" s="502"/>
+      <c r="M87" s="503"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18554,8 +18611,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="509"/>
-      <c r="M88" s="510"/>
+      <c r="L88" s="502"/>
+      <c r="M88" s="503"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18758,8 +18815,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="505"/>
-      <c r="P94" s="501"/>
+      <c r="O94" s="486"/>
+      <c r="P94" s="496"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -18791,8 +18848,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="506"/>
-      <c r="P95" s="502"/>
+      <c r="O95" s="487"/>
+      <c r="P95" s="497"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -24184,11 +24241,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="503" t="s">
+      <c r="F259" s="498" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="503"/>
-      <c r="H259" s="504"/>
+      <c r="G259" s="498"/>
+      <c r="H259" s="499"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>387207.97210000001</v>
@@ -24762,6 +24819,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
     <mergeCell ref="O79:O80"/>
     <mergeCell ref="P79:P80"/>
     <mergeCell ref="A1:J2"/>
@@ -24777,12 +24840,6 @@
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="H55:H56"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24829,18 +24886,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="480" t="s">
+      <c r="A1" s="504" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="480"/>
-      <c r="C1" s="480"/>
-      <c r="D1" s="480"/>
-      <c r="E1" s="480"/>
-      <c r="F1" s="480"/>
-      <c r="G1" s="480"/>
-      <c r="H1" s="480"/>
-      <c r="I1" s="480"/>
-      <c r="J1" s="480"/>
+      <c r="B1" s="504"/>
+      <c r="C1" s="504"/>
+      <c r="D1" s="504"/>
+      <c r="E1" s="504"/>
+      <c r="F1" s="504"/>
+      <c r="G1" s="504"/>
+      <c r="H1" s="504"/>
+      <c r="I1" s="504"/>
+      <c r="J1" s="504"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -24856,22 +24913,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="481" t="s">
+      <c r="W1" s="505" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="482"/>
+      <c r="X1" s="506"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="480"/>
-      <c r="B2" s="480"/>
-      <c r="C2" s="480"/>
-      <c r="D2" s="480"/>
-      <c r="E2" s="480"/>
-      <c r="F2" s="480"/>
-      <c r="G2" s="480"/>
-      <c r="H2" s="480"/>
-      <c r="I2" s="480"/>
-      <c r="J2" s="480"/>
+      <c r="A2" s="504"/>
+      <c r="B2" s="504"/>
+      <c r="C2" s="504"/>
+      <c r="D2" s="504"/>
+      <c r="E2" s="504"/>
+      <c r="F2" s="504"/>
+      <c r="G2" s="504"/>
+      <c r="H2" s="504"/>
+      <c r="I2" s="504"/>
+      <c r="J2" s="504"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -24925,10 +24982,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="483" t="s">
+      <c r="O3" s="507" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="484"/>
+      <c r="P3" s="508"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -28070,7 +28127,7 @@
       <c r="B55" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="499" t="s">
+      <c r="C55" s="490" t="s">
         <v>229</v>
       </c>
       <c r="D55" s="439"/>
@@ -28081,7 +28138,7 @@
       <c r="G55" s="152">
         <v>44627</v>
       </c>
-      <c r="H55" s="528" t="s">
+      <c r="H55" s="530" t="s">
         <v>230</v>
       </c>
       <c r="I55" s="151">
@@ -28100,10 +28157,10 @@
         <f t="shared" si="1"/>
         <v>18886.399999999998</v>
       </c>
-      <c r="O55" s="505" t="s">
+      <c r="O55" s="486" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="511">
+      <c r="P55" s="480">
         <v>44645</v>
       </c>
       <c r="Q55" s="128"/>
@@ -28114,11 +28171,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="527"/>
+      <c r="A56" s="529"/>
       <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="500"/>
+      <c r="C56" s="491"/>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151">
@@ -28127,7 +28184,7 @@
       <c r="G56" s="152">
         <v>44627</v>
       </c>
-      <c r="H56" s="529"/>
+      <c r="H56" s="531"/>
       <c r="I56" s="151">
         <v>967</v>
       </c>
@@ -28144,8 +28201,8 @@
         <f t="shared" si="1"/>
         <v>92832</v>
       </c>
-      <c r="O56" s="506"/>
-      <c r="P56" s="512"/>
+      <c r="O56" s="487"/>
+      <c r="P56" s="481"/>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -28206,13 +28263,13 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="489" t="s">
+      <c r="A58" s="513" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="538" t="s">
+      <c r="C58" s="527" t="s">
         <v>319</v>
       </c>
       <c r="D58" s="165"/>
@@ -28223,7 +28280,7 @@
       <c r="G58" s="152">
         <v>44648</v>
       </c>
-      <c r="H58" s="536" t="s">
+      <c r="H58" s="538" t="s">
         <v>315</v>
       </c>
       <c r="I58" s="151">
@@ -28242,10 +28299,10 @@
         <f t="shared" si="1"/>
         <v>35255.600000000006</v>
       </c>
-      <c r="O58" s="493" t="s">
+      <c r="O58" s="494" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="495">
+      <c r="P58" s="515">
         <v>44662</v>
       </c>
       <c r="Q58" s="164"/>
@@ -28256,11 +28313,11 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="490"/>
+      <c r="A59" s="514"/>
       <c r="B59" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="539"/>
+      <c r="C59" s="528"/>
       <c r="D59" s="163"/>
       <c r="E59" s="60"/>
       <c r="F59" s="151">
@@ -28269,7 +28326,7 @@
       <c r="G59" s="152">
         <v>44648</v>
       </c>
-      <c r="H59" s="537"/>
+      <c r="H59" s="539"/>
       <c r="I59" s="151">
         <v>719</v>
       </c>
@@ -28286,8 +28343,8 @@
         <f t="shared" si="1"/>
         <v>69024</v>
       </c>
-      <c r="O59" s="494"/>
-      <c r="P59" s="496"/>
+      <c r="O59" s="495"/>
+      <c r="P59" s="516"/>
       <c r="Q59" s="164"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -28360,13 +28417,13 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="530" t="s">
+      <c r="A62" s="532" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="178" t="s">
         <v>237</v>
       </c>
-      <c r="C62" s="532" t="s">
+      <c r="C62" s="534" t="s">
         <v>238</v>
       </c>
       <c r="D62" s="168"/>
@@ -28377,7 +28434,7 @@
       <c r="G62" s="152">
         <v>44622</v>
       </c>
-      <c r="H62" s="534">
+      <c r="H62" s="536">
         <v>37162</v>
       </c>
       <c r="I62" s="151">
@@ -28396,10 +28453,10 @@
         <f t="shared" si="1"/>
         <v>7782.5999999999995</v>
       </c>
-      <c r="O62" s="505" t="s">
+      <c r="O62" s="486" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="511">
+      <c r="P62" s="480">
         <v>44643</v>
       </c>
       <c r="Q62" s="164"/>
@@ -28410,11 +28467,11 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="531"/>
+      <c r="A63" s="533"/>
       <c r="B63" s="178" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="533"/>
+      <c r="C63" s="535"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
       <c r="F63" s="151">
@@ -28423,7 +28480,7 @@
       <c r="G63" s="152">
         <v>44622</v>
       </c>
-      <c r="H63" s="535"/>
+      <c r="H63" s="537"/>
       <c r="I63" s="151">
         <v>204.8</v>
       </c>
@@ -28440,8 +28497,8 @@
         <f t="shared" si="1"/>
         <v>16998.400000000001</v>
       </c>
-      <c r="O63" s="506"/>
-      <c r="P63" s="512"/>
+      <c r="O63" s="487"/>
+      <c r="P63" s="481"/>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -28920,8 +28977,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="505"/>
-      <c r="P79" s="507"/>
+      <c r="O79" s="486"/>
+      <c r="P79" s="500"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -28950,8 +29007,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="506"/>
-      <c r="P80" s="508"/>
+      <c r="O80" s="487"/>
+      <c r="P80" s="501"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -28980,8 +29037,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="505"/>
-      <c r="P81" s="507"/>
+      <c r="O81" s="486"/>
+      <c r="P81" s="500"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -29013,8 +29070,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="506"/>
-      <c r="P82" s="508"/>
+      <c r="O82" s="487"/>
+      <c r="P82" s="501"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -29172,8 +29229,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="509"/>
-      <c r="M87" s="510"/>
+      <c r="L87" s="502"/>
+      <c r="M87" s="503"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29205,8 +29262,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="509"/>
-      <c r="M88" s="510"/>
+      <c r="L88" s="502"/>
+      <c r="M88" s="503"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29409,8 +29466,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="505"/>
-      <c r="P94" s="501"/>
+      <c r="O94" s="486"/>
+      <c r="P94" s="496"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -29442,8 +29499,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="506"/>
-      <c r="P95" s="502"/>
+      <c r="O95" s="487"/>
+      <c r="P95" s="497"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -34835,11 +34892,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="503" t="s">
+      <c r="F259" s="498" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="503"/>
-      <c r="H259" s="504"/>
+      <c r="G259" s="498"/>
+      <c r="H259" s="499"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>517031.52999999991</v>
@@ -35413,17 +35470,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
@@ -35440,6 +35486,17 @@
     <mergeCell ref="O62:O63"/>
     <mergeCell ref="P62:P63"/>
     <mergeCell ref="H58:H59"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35454,10 +35511,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="Q53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="Q63" sqref="Q63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -35465,8 +35522,8 @@
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="310" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="310" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="310" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="331" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="310" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="331" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="311" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="312" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="315" customWidth="1"/>
@@ -35486,18 +35543,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="480" t="s">
+      <c r="A1" s="504" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="480"/>
-      <c r="C1" s="480"/>
-      <c r="D1" s="480"/>
-      <c r="E1" s="480"/>
-      <c r="F1" s="480"/>
-      <c r="G1" s="480"/>
-      <c r="H1" s="480"/>
-      <c r="I1" s="480"/>
-      <c r="J1" s="480"/>
+      <c r="B1" s="504"/>
+      <c r="C1" s="504"/>
+      <c r="D1" s="504"/>
+      <c r="E1" s="504"/>
+      <c r="F1" s="504"/>
+      <c r="G1" s="504"/>
+      <c r="H1" s="504"/>
+      <c r="I1" s="504"/>
+      <c r="J1" s="504"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -35513,22 +35570,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="481" t="s">
+      <c r="W1" s="505" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="482"/>
+      <c r="X1" s="506"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="480"/>
-      <c r="B2" s="480"/>
-      <c r="C2" s="480"/>
-      <c r="D2" s="480"/>
-      <c r="E2" s="480"/>
-      <c r="F2" s="480"/>
-      <c r="G2" s="480"/>
-      <c r="H2" s="480"/>
-      <c r="I2" s="480"/>
-      <c r="J2" s="480"/>
+      <c r="A2" s="504"/>
+      <c r="B2" s="504"/>
+      <c r="C2" s="504"/>
+      <c r="D2" s="504"/>
+      <c r="E2" s="504"/>
+      <c r="F2" s="504"/>
+      <c r="G2" s="504"/>
+      <c r="H2" s="504"/>
+      <c r="I2" s="504"/>
+      <c r="J2" s="504"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -35582,10 +35639,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="483" t="s">
+      <c r="O3" s="507" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="484"/>
+      <c r="P3" s="508"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -36249,18 +36306,22 @@
       <c r="W13" s="53"/>
       <c r="X13" s="70"/>
     </row>
-    <row r="14" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="71" t="s">
         <v>295</v>
       </c>
       <c r="B14" s="58" t="s">
         <v>290</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
+      <c r="C14" s="59" t="s">
+        <v>372</v>
+      </c>
+      <c r="D14" s="60">
+        <v>50</v>
+      </c>
       <c r="E14" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1133000</v>
       </c>
       <c r="F14" s="61">
         <v>22660</v>
@@ -36268,7 +36329,9 @@
       <c r="G14" s="62">
         <v>44661</v>
       </c>
-      <c r="H14" s="410"/>
+      <c r="H14" s="410" t="s">
+        <v>386</v>
+      </c>
       <c r="I14" s="411">
         <v>22455</v>
       </c>
@@ -36285,8 +36348,12 @@
         <f t="shared" si="1"/>
         <v>797152.5</v>
       </c>
-      <c r="O14" s="397"/>
-      <c r="P14" s="398"/>
+      <c r="O14" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="398">
+        <v>44676</v>
+      </c>
       <c r="Q14" s="66">
         <v>26793</v>
       </c>
@@ -36300,15 +36367,19 @@
       <c r="W14" s="53"/>
       <c r="X14" s="70"/>
     </row>
-    <row r="15" spans="1:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="73" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="C15" s="59" t="s">
+        <v>372</v>
+      </c>
+      <c r="D15" s="60">
+        <v>0</v>
+      </c>
       <c r="E15" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -36319,7 +36390,9 @@
       <c r="G15" s="62">
         <v>44661</v>
       </c>
-      <c r="H15" s="410"/>
+      <c r="H15" s="410" t="s">
+        <v>385</v>
+      </c>
       <c r="I15" s="411">
         <v>6355</v>
       </c>
@@ -36336,8 +36409,12 @@
         <f t="shared" si="1"/>
         <v>225602.5</v>
       </c>
-      <c r="O15" s="397"/>
-      <c r="P15" s="398"/>
+      <c r="O15" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="398">
+        <v>44676</v>
+      </c>
       <c r="Q15" s="66">
         <v>0</v>
       </c>
@@ -36358,11 +36435,15 @@
       <c r="B16" s="58" t="s">
         <v>298</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="60"/>
+      <c r="C16" s="74" t="s">
+        <v>373</v>
+      </c>
+      <c r="D16" s="60">
+        <v>50</v>
+      </c>
       <c r="E16" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1071000</v>
       </c>
       <c r="F16" s="61">
         <v>21420</v>
@@ -36370,7 +36451,9 @@
       <c r="G16" s="62">
         <v>44662</v>
       </c>
-      <c r="H16" s="410"/>
+      <c r="H16" s="410" t="s">
+        <v>387</v>
+      </c>
       <c r="I16" s="411">
         <v>21410</v>
       </c>
@@ -36387,8 +36470,12 @@
         <f t="shared" si="1"/>
         <v>760055</v>
       </c>
-      <c r="O16" s="397"/>
-      <c r="P16" s="398"/>
+      <c r="O16" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="398">
+        <v>44676</v>
+      </c>
       <c r="Q16" s="66">
         <v>26686</v>
       </c>
@@ -36402,15 +36489,19 @@
       <c r="W16" s="53"/>
       <c r="X16" s="70"/>
     </row>
-    <row r="17" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="75" t="s">
         <v>223</v>
       </c>
       <c r="B17" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
+      <c r="C17" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="D17" s="60">
+        <v>0</v>
+      </c>
       <c r="E17" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -36421,13 +36512,16 @@
       <c r="G17" s="62">
         <v>44662</v>
       </c>
-      <c r="H17" s="410"/>
+      <c r="H17" s="410" t="s">
+        <v>388</v>
+      </c>
       <c r="I17" s="411">
-        <v>5815</v>
+        <f>5815-116.3</f>
+        <v>5698.7</v>
       </c>
       <c r="J17" s="45">
         <f t="shared" si="0"/>
-        <v>5815</v>
+        <v>5698.7</v>
       </c>
       <c r="K17" s="76">
         <v>35.5</v>
@@ -36436,10 +36530,14 @@
       <c r="M17" s="65"/>
       <c r="N17" s="48">
         <f t="shared" si="1"/>
-        <v>206432.5</v>
-      </c>
-      <c r="O17" s="397"/>
-      <c r="P17" s="398"/>
+        <v>202303.85</v>
+      </c>
+      <c r="O17" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="398">
+        <v>44676</v>
+      </c>
       <c r="Q17" s="66">
         <v>0</v>
       </c>
@@ -36460,11 +36558,15 @@
       <c r="B18" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
+      <c r="C18" s="59" t="s">
+        <v>374</v>
+      </c>
+      <c r="D18" s="60">
+        <v>50</v>
+      </c>
       <c r="E18" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>462500</v>
       </c>
       <c r="F18" s="61">
         <v>9250</v>
@@ -36511,11 +36613,15 @@
       <c r="B19" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="D19" s="60">
+        <v>50</v>
+      </c>
       <c r="E19" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1192000</v>
       </c>
       <c r="F19" s="61">
         <v>23840</v>
@@ -36523,7 +36629,9 @@
       <c r="G19" s="62">
         <v>44664</v>
       </c>
-      <c r="H19" s="410"/>
+      <c r="H19" s="410" t="s">
+        <v>383</v>
+      </c>
       <c r="I19" s="411">
         <v>22455</v>
       </c>
@@ -36566,8 +36674,12 @@
       <c r="B20" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
+      <c r="C20" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="D20" s="60">
+        <v>0</v>
+      </c>
       <c r="E20" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -36578,7 +36690,9 @@
       <c r="G20" s="62">
         <v>44664</v>
       </c>
-      <c r="H20" s="410"/>
+      <c r="H20" s="410" t="s">
+        <v>383</v>
+      </c>
       <c r="I20" s="411">
         <v>6355</v>
       </c>
@@ -36621,11 +36735,15 @@
       <c r="B21" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
+      <c r="C21" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="D21" s="60">
+        <v>50</v>
+      </c>
       <c r="E21" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1145500</v>
       </c>
       <c r="F21" s="61">
         <v>22910</v>
@@ -36633,7 +36751,9 @@
       <c r="G21" s="62">
         <v>44665</v>
       </c>
-      <c r="H21" s="410"/>
+      <c r="H21" s="410" t="s">
+        <v>384</v>
+      </c>
       <c r="I21" s="411">
         <v>22950</v>
       </c>
@@ -36676,8 +36796,12 @@
       <c r="B22" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
+      <c r="C22" s="59" t="s">
+        <v>376</v>
+      </c>
+      <c r="D22" s="60">
+        <v>0</v>
+      </c>
       <c r="E22" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -36688,7 +36812,9 @@
       <c r="G22" s="62">
         <v>44665</v>
       </c>
-      <c r="H22" s="410"/>
+      <c r="H22" s="410" t="s">
+        <v>384</v>
+      </c>
       <c r="I22" s="411">
         <v>5715</v>
       </c>
@@ -36731,25 +36857,31 @@
       <c r="B23" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="60"/>
+      <c r="C23" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D23" s="60">
+        <v>50</v>
+      </c>
       <c r="E23" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1196500</v>
       </c>
       <c r="F23" s="61">
-        <v>42890</v>
+        <v>23930</v>
       </c>
       <c r="G23" s="62">
         <v>44668</v>
       </c>
-      <c r="H23" s="410"/>
+      <c r="H23" s="410" t="s">
+        <v>379</v>
+      </c>
       <c r="I23" s="411">
         <v>23990</v>
       </c>
       <c r="J23" s="45">
         <f t="shared" si="0"/>
-        <v>-18900</v>
+        <v>60</v>
       </c>
       <c r="K23" s="76">
         <v>35.5</v>
@@ -36762,8 +36894,12 @@
       </c>
       <c r="O23" s="89"/>
       <c r="P23" s="90"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="67"/>
+      <c r="Q23" s="79">
+        <v>27007</v>
+      </c>
+      <c r="R23" s="67">
+        <v>44673</v>
+      </c>
       <c r="S23" s="51">
         <v>11200</v>
       </c>
@@ -36782,8 +36918,12 @@
       <c r="B24" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="60"/>
+      <c r="C24" s="59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D24" s="60">
+        <v>0</v>
+      </c>
       <c r="E24" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -36794,7 +36934,9 @@
       <c r="G24" s="62">
         <v>44668</v>
       </c>
-      <c r="H24" s="410"/>
+      <c r="H24" s="410" t="s">
+        <v>379</v>
+      </c>
       <c r="I24" s="411">
         <v>6665</v>
       </c>
@@ -36813,8 +36955,12 @@
       </c>
       <c r="O24" s="397"/>
       <c r="P24" s="90"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="67"/>
+      <c r="Q24" s="79">
+        <v>0</v>
+      </c>
+      <c r="R24" s="67">
+        <v>44673</v>
+      </c>
       <c r="S24" s="91">
         <v>0</v>
       </c>
@@ -36831,13 +36977,17 @@
         <v>341</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
+        <v>40</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>378</v>
+      </c>
+      <c r="D25" s="60">
+        <v>50</v>
+      </c>
       <c r="E25" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1253500</v>
       </c>
       <c r="F25" s="61">
         <v>25070</v>
@@ -36845,7 +36995,9 @@
       <c r="G25" s="62">
         <v>44670</v>
       </c>
-      <c r="H25" s="410"/>
+      <c r="H25" s="410" t="s">
+        <v>380</v>
+      </c>
       <c r="I25" s="411">
         <v>24940</v>
       </c>
@@ -36864,8 +37016,12 @@
       </c>
       <c r="O25" s="89"/>
       <c r="P25" s="90"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="67"/>
+      <c r="Q25" s="79">
+        <v>27328</v>
+      </c>
+      <c r="R25" s="67">
+        <v>44673</v>
+      </c>
       <c r="S25" s="51">
         <v>11200</v>
       </c>
@@ -36884,8 +37040,12 @@
       <c r="B26" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="60"/>
+      <c r="C26" s="59" t="s">
+        <v>378</v>
+      </c>
+      <c r="D26" s="60">
+        <v>0</v>
+      </c>
       <c r="E26" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -36896,7 +37056,9 @@
       <c r="G26" s="62">
         <v>44670</v>
       </c>
-      <c r="H26" s="410"/>
+      <c r="H26" s="410" t="s">
+        <v>380</v>
+      </c>
       <c r="I26" s="411">
         <v>6390</v>
       </c>
@@ -36915,8 +37077,12 @@
       </c>
       <c r="O26" s="89"/>
       <c r="P26" s="90"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="67"/>
+      <c r="Q26" s="79">
+        <v>0</v>
+      </c>
+      <c r="R26" s="67">
+        <v>44673</v>
+      </c>
       <c r="S26" s="51">
         <v>0</v>
       </c>
@@ -36929,33 +37095,51 @@
       <c r="X26" s="70"/>
     </row>
     <row r="27" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="82"/>
-      <c r="B27" s="58"/>
+      <c r="A27" s="82" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="C27" s="59"/>
       <c r="D27" s="60"/>
       <c r="E27" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F27" s="61"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="410"/>
-      <c r="I27" s="411"/>
+      <c r="F27" s="61">
+        <v>22550</v>
+      </c>
+      <c r="G27" s="62">
+        <v>44672</v>
+      </c>
+      <c r="H27" s="410" t="s">
+        <v>381</v>
+      </c>
+      <c r="I27" s="411">
+        <v>22650</v>
+      </c>
       <c r="J27" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="76"/>
+        <v>100</v>
+      </c>
+      <c r="K27" s="76">
+        <v>35.5</v>
+      </c>
       <c r="L27" s="65"/>
       <c r="M27" s="65"/>
       <c r="N27" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>804075</v>
       </c>
       <c r="O27" s="89"/>
       <c r="P27" s="90"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="67"/>
+      <c r="Q27" s="79">
+        <v>26793</v>
+      </c>
+      <c r="R27" s="67">
+        <v>44673</v>
+      </c>
       <c r="S27" s="91"/>
       <c r="T27" s="92"/>
       <c r="U27" s="53"/>
@@ -36964,33 +37148,51 @@
       <c r="X27" s="70"/>
     </row>
     <row r="28" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="82"/>
-      <c r="B28" s="58"/>
+      <c r="A28" s="82" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>296</v>
+      </c>
       <c r="C28" s="59"/>
       <c r="D28" s="60"/>
       <c r="E28" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="410"/>
-      <c r="I28" s="411"/>
+      <c r="F28" s="61">
+        <v>0</v>
+      </c>
+      <c r="G28" s="62">
+        <v>44672</v>
+      </c>
+      <c r="H28" s="410" t="s">
+        <v>381</v>
+      </c>
+      <c r="I28" s="411">
+        <v>5655</v>
+      </c>
       <c r="J28" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="76"/>
+        <v>5655</v>
+      </c>
+      <c r="K28" s="76">
+        <v>35.5</v>
+      </c>
       <c r="L28" s="65"/>
       <c r="M28" s="65"/>
       <c r="N28" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>200752.5</v>
       </c>
       <c r="O28" s="89"/>
       <c r="P28" s="90"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="67"/>
+      <c r="Q28" s="66">
+        <v>0</v>
+      </c>
+      <c r="R28" s="67">
+        <v>44673</v>
+      </c>
       <c r="S28" s="91"/>
       <c r="T28" s="92"/>
       <c r="U28" s="53"/>
@@ -36999,33 +37201,51 @@
       <c r="X28" s="70"/>
     </row>
     <row r="29" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="57"/>
-      <c r="B29" s="93"/>
+      <c r="A29" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="93" t="s">
+        <v>72</v>
+      </c>
       <c r="C29" s="59"/>
       <c r="D29" s="60"/>
       <c r="E29" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F29" s="61"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="410"/>
-      <c r="I29" s="411"/>
+      <c r="F29" s="61">
+        <v>23530</v>
+      </c>
+      <c r="G29" s="62">
+        <v>44673</v>
+      </c>
+      <c r="H29" s="410" t="s">
+        <v>382</v>
+      </c>
+      <c r="I29" s="411">
+        <v>23490</v>
+      </c>
       <c r="J29" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="76"/>
+        <v>-40</v>
+      </c>
+      <c r="K29" s="76">
+        <v>35.5</v>
+      </c>
       <c r="L29" s="65"/>
       <c r="M29" s="65"/>
       <c r="N29" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>833895</v>
       </c>
       <c r="O29" s="89"/>
       <c r="P29" s="90"/>
-      <c r="Q29" s="456"/>
-      <c r="R29" s="95"/>
+      <c r="Q29" s="456">
+        <v>26900</v>
+      </c>
+      <c r="R29" s="95">
+        <v>44673</v>
+      </c>
       <c r="S29" s="91"/>
       <c r="T29" s="92"/>
       <c r="U29" s="53"/>
@@ -37034,33 +37254,51 @@
       <c r="X29" s="70"/>
     </row>
     <row r="30" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="57"/>
-      <c r="B30" s="93"/>
+      <c r="A30" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="93" t="s">
+        <v>32</v>
+      </c>
       <c r="C30" s="59"/>
       <c r="D30" s="60"/>
       <c r="E30" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F30" s="61"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="410"/>
-      <c r="I30" s="411"/>
+      <c r="F30" s="61">
+        <v>0</v>
+      </c>
+      <c r="G30" s="62">
+        <v>44673</v>
+      </c>
+      <c r="H30" s="410" t="s">
+        <v>382</v>
+      </c>
+      <c r="I30" s="411">
+        <v>5845</v>
+      </c>
       <c r="J30" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="76"/>
+        <v>5845</v>
+      </c>
+      <c r="K30" s="76">
+        <v>35.5</v>
+      </c>
       <c r="L30" s="65"/>
       <c r="M30" s="65"/>
       <c r="N30" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>207497.5</v>
       </c>
       <c r="O30" s="89"/>
       <c r="P30" s="90"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="95"/>
+      <c r="Q30" s="94">
+        <v>0</v>
+      </c>
+      <c r="R30" s="95">
+        <v>44673</v>
+      </c>
       <c r="S30" s="91"/>
       <c r="T30" s="92"/>
       <c r="U30" s="53"/>
@@ -38206,28 +38444,48 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="475"/>
-      <c r="B63" s="178"/>
-      <c r="C63" s="476"/>
+      <c r="A63" s="475" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" s="178" t="s">
+        <v>389</v>
+      </c>
+      <c r="C63" s="476" t="s">
+        <v>390</v>
+      </c>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
-      <c r="F63" s="151"/>
-      <c r="G63" s="152"/>
-      <c r="H63" s="477"/>
-      <c r="I63" s="151"/>
+      <c r="F63" s="151">
+        <v>377.6</v>
+      </c>
+      <c r="G63" s="152">
+        <v>44670</v>
+      </c>
+      <c r="H63" s="477">
+        <v>37713</v>
+      </c>
+      <c r="I63" s="151">
+        <v>377.6</v>
+      </c>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K63" s="166"/>
+      <c r="K63" s="166">
+        <v>57</v>
+      </c>
       <c r="L63" s="99"/>
       <c r="M63" s="99"/>
       <c r="N63" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O63" s="164"/>
-      <c r="P63" s="62"/>
+        <v>21523.200000000001</v>
+      </c>
+      <c r="O63" s="164" t="s">
+        <v>61</v>
+      </c>
+      <c r="P63" s="62">
+        <v>44677</v>
+      </c>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -38706,8 +38964,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="505"/>
-      <c r="P79" s="507"/>
+      <c r="O79" s="486"/>
+      <c r="P79" s="500"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -38736,8 +38994,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="506"/>
-      <c r="P80" s="508"/>
+      <c r="O80" s="487"/>
+      <c r="P80" s="501"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -38766,8 +39024,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="505"/>
-      <c r="P81" s="507"/>
+      <c r="O81" s="486"/>
+      <c r="P81" s="500"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -38799,8 +39057,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="506"/>
-      <c r="P82" s="508"/>
+      <c r="O82" s="487"/>
+      <c r="P82" s="501"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -38958,8 +39216,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="509"/>
-      <c r="M87" s="510"/>
+      <c r="L87" s="502"/>
+      <c r="M87" s="503"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -38991,8 +39249,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="509"/>
-      <c r="M88" s="510"/>
+      <c r="L88" s="502"/>
+      <c r="M88" s="503"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -39195,8 +39453,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="505"/>
-      <c r="P94" s="501"/>
+      <c r="O94" s="486"/>
+      <c r="P94" s="496"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -39228,8 +39486,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="506"/>
-      <c r="P95" s="502"/>
+      <c r="O95" s="487"/>
+      <c r="P95" s="497"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -44621,14 +44879,14 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="503" t="s">
+      <c r="F259" s="498" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="503"/>
-      <c r="H259" s="504"/>
+      <c r="G259" s="498"/>
+      <c r="H259" s="499"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
-        <v>345591.51</v>
+        <v>403492.81</v>
       </c>
       <c r="J259" s="318"/>
       <c r="K259" s="314"/>
@@ -44727,12 +44985,12 @@
       <c r="M263" s="336"/>
       <c r="N263" s="337">
         <f>SUM(N4:N262)</f>
-        <v>12514096.213</v>
+        <v>14577710.762999998</v>
       </c>
       <c r="O263" s="338"/>
       <c r="Q263" s="339">
         <f>SUM(Q4:Q262)</f>
-        <v>241030</v>
+        <v>349058</v>
       </c>
       <c r="R263" s="8"/>
       <c r="S263" s="340">
@@ -44787,7 +45045,7 @@
       <c r="M266" s="352"/>
       <c r="N266" s="353">
         <f>V263+S263+Q263+N263+L263</f>
-        <v>12799926.213</v>
+        <v>14971568.762999998</v>
       </c>
       <c r="O266" s="354"/>
       <c r="R266" s="324"/>
@@ -45199,18 +45457,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="O79:O80"/>
     <mergeCell ref="P79:P80"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/ENTRADAS OBRADOR  ABRIL    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/ENTRADAS OBRADOR  ABRIL    2022.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="393">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -1201,6 +1201,12 @@
   </si>
   <si>
     <t>FOLIO 10788</t>
+  </si>
+  <si>
+    <t>T-36</t>
+  </si>
+  <si>
+    <t>T-37</t>
   </si>
 </sst>
 </file>
@@ -35511,10 +35517,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="Q53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q63" sqref="Q63"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -36574,7 +36580,9 @@
       <c r="G18" s="62">
         <v>44663</v>
       </c>
-      <c r="H18" s="410"/>
+      <c r="H18" s="410">
+        <v>37729</v>
+      </c>
       <c r="I18" s="411">
         <v>9250</v>
       </c>
@@ -36591,8 +36599,12 @@
         <f t="shared" si="1"/>
         <v>448625</v>
       </c>
-      <c r="O18" s="397"/>
-      <c r="P18" s="398"/>
+      <c r="O18" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="398">
+        <v>44677</v>
+      </c>
       <c r="Q18" s="66">
         <v>0</v>
       </c>
@@ -37140,8 +37152,12 @@
       <c r="R27" s="67">
         <v>44673</v>
       </c>
-      <c r="S27" s="91"/>
-      <c r="T27" s="92"/>
+      <c r="S27" s="91">
+        <v>11200</v>
+      </c>
+      <c r="T27" s="92" t="s">
+        <v>391</v>
+      </c>
       <c r="U27" s="53"/>
       <c r="V27" s="54"/>
       <c r="W27" s="53"/>
@@ -37193,8 +37209,12 @@
       <c r="R28" s="67">
         <v>44673</v>
       </c>
-      <c r="S28" s="91"/>
-      <c r="T28" s="92"/>
+      <c r="S28" s="91">
+        <v>0</v>
+      </c>
+      <c r="T28" s="92" t="s">
+        <v>391</v>
+      </c>
       <c r="U28" s="53"/>
       <c r="V28" s="54"/>
       <c r="W28" s="53"/>
@@ -37246,8 +37266,12 @@
       <c r="R29" s="95">
         <v>44673</v>
       </c>
-      <c r="S29" s="91"/>
-      <c r="T29" s="92"/>
+      <c r="S29" s="91">
+        <v>11200</v>
+      </c>
+      <c r="T29" s="92" t="s">
+        <v>392</v>
+      </c>
       <c r="U29" s="53"/>
       <c r="V29" s="54"/>
       <c r="W29" s="53"/>
@@ -37299,8 +37323,12 @@
       <c r="R30" s="95">
         <v>44673</v>
       </c>
-      <c r="S30" s="91"/>
-      <c r="T30" s="92"/>
+      <c r="S30" s="91">
+        <v>0</v>
+      </c>
+      <c r="T30" s="92" t="s">
+        <v>392</v>
+      </c>
       <c r="U30" s="53"/>
       <c r="V30" s="54"/>
       <c r="W30" s="53"/>
@@ -44995,7 +45023,7 @@
       <c r="R263" s="8"/>
       <c r="S263" s="340">
         <f>SUM(S17:S262)</f>
-        <v>44800</v>
+        <v>67200</v>
       </c>
       <c r="T263" s="341"/>
       <c r="U263" s="342"/>
@@ -45045,7 +45073,7 @@
       <c r="M266" s="352"/>
       <c r="N266" s="353">
         <f>V263+S263+Q263+N263+L263</f>
-        <v>14971568.762999998</v>
+        <v>14993968.762999998</v>
       </c>
       <c r="O266" s="354"/>
       <c r="R266" s="324"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/ENTRADAS OBRADOR  ABRIL    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/ENTRADAS OBRADOR  ABRIL    2022.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="404">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -1167,9 +1167,6 @@
     <t>0681 Z</t>
   </si>
   <si>
-    <t>20333--</t>
-  </si>
-  <si>
     <t>20351--</t>
   </si>
   <si>
@@ -1180,9 +1177,6 @@
   </si>
   <si>
     <t>20322--</t>
-  </si>
-  <si>
-    <t>20324--</t>
   </si>
   <si>
     <t>20307--10837</t>
@@ -1207,6 +1201,45 @@
   </si>
   <si>
     <t>T-37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGROPECURIA EL TOPETE     </t>
+  </si>
+  <si>
+    <t>T-42</t>
+  </si>
+  <si>
+    <t>20324--7834</t>
+  </si>
+  <si>
+    <t>20384--</t>
+  </si>
+  <si>
+    <t>20399-</t>
+  </si>
+  <si>
+    <t>20399--</t>
+  </si>
+  <si>
+    <t>20412--</t>
+  </si>
+  <si>
+    <t>T-44</t>
+  </si>
+  <si>
+    <t>20333--8774--NC-456</t>
+  </si>
+  <si>
+    <t>20322--6768--NC-249</t>
+  </si>
+  <si>
+    <t>20324--7835</t>
+  </si>
+  <si>
+    <t>20333--6772--NC-250</t>
+  </si>
+  <si>
+    <t>D-4023</t>
   </si>
 </sst>
 </file>
@@ -1625,7 +1658,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1719,6 +1752,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2534,7 +2573,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="540">
+  <cellXfs count="542">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3829,6 +3868,10 @@
     <xf numFmtId="164" fontId="22" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4018,6 +4061,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFFF5050"/>
       <color rgb="FFFF99FF"/>
@@ -4337,18 +4381,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="504" t="s">
+      <c r="A1" s="506" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="504"/>
-      <c r="C1" s="504"/>
-      <c r="D1" s="504"/>
-      <c r="E1" s="504"/>
-      <c r="F1" s="504"/>
-      <c r="G1" s="504"/>
-      <c r="H1" s="504"/>
-      <c r="I1" s="504"/>
-      <c r="J1" s="504"/>
+      <c r="B1" s="506"/>
+      <c r="C1" s="506"/>
+      <c r="D1" s="506"/>
+      <c r="E1" s="506"/>
+      <c r="F1" s="506"/>
+      <c r="G1" s="506"/>
+      <c r="H1" s="506"/>
+      <c r="I1" s="506"/>
+      <c r="J1" s="506"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -4362,22 +4406,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="505" t="s">
+      <c r="W1" s="507" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="506"/>
+      <c r="X1" s="508"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="504"/>
-      <c r="B2" s="504"/>
-      <c r="C2" s="504"/>
-      <c r="D2" s="504"/>
-      <c r="E2" s="504"/>
-      <c r="F2" s="504"/>
-      <c r="G2" s="504"/>
-      <c r="H2" s="504"/>
-      <c r="I2" s="504"/>
-      <c r="J2" s="504"/>
+      <c r="A2" s="506"/>
+      <c r="B2" s="506"/>
+      <c r="C2" s="506"/>
+      <c r="D2" s="506"/>
+      <c r="E2" s="506"/>
+      <c r="F2" s="506"/>
+      <c r="G2" s="506"/>
+      <c r="H2" s="506"/>
+      <c r="I2" s="506"/>
+      <c r="J2" s="506"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -4431,10 +4475,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="507" t="s">
+      <c r="O3" s="509" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="508"/>
+      <c r="P3" s="510"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -4978,7 +5022,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="509" t="s">
+      <c r="C12" s="511" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -5042,7 +5086,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="510"/>
+      <c r="C13" s="512"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -7044,13 +7088,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="488" t="s">
+      <c r="A56" s="490" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="490" t="s">
+      <c r="C56" s="492" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -7061,7 +7105,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="492">
+      <c r="H56" s="494">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -7090,11 +7134,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="489"/>
+      <c r="A57" s="491"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="491"/>
+      <c r="C57" s="493"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -7103,7 +7147,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="493"/>
+      <c r="H57" s="495"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -7130,13 +7174,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="488" t="s">
+      <c r="A58" s="490" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="490" t="s">
+      <c r="C58" s="492" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -7147,7 +7191,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="492">
+      <c r="H58" s="494">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -7166,10 +7210,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="494" t="s">
+      <c r="O58" s="496" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="515">
+      <c r="P58" s="517">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -7180,11 +7224,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="489"/>
+      <c r="A59" s="491"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="491"/>
+      <c r="C59" s="493"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -7193,7 +7237,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="493"/>
+      <c r="H59" s="495"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -7210,8 +7254,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="495"/>
-      <c r="P59" s="516"/>
+      <c r="O59" s="497"/>
+      <c r="P59" s="518"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -7220,13 +7264,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="513" t="s">
+      <c r="A60" s="515" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="511" t="s">
+      <c r="C60" s="513" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -7240,7 +7284,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="492">
+      <c r="H60" s="494">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -7259,10 +7303,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="494" t="s">
+      <c r="O60" s="496" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="515">
+      <c r="P60" s="517">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -7275,11 +7319,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="514"/>
+      <c r="A61" s="516"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="512"/>
+      <c r="C61" s="514"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -7291,7 +7335,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="493"/>
+      <c r="H61" s="495"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -7308,8 +7352,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="495"/>
-      <c r="P61" s="516"/>
+      <c r="O61" s="497"/>
+      <c r="P61" s="518"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -7375,7 +7419,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="482"/>
+      <c r="C63" s="484"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -7383,7 +7427,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="484"/>
+      <c r="H63" s="486"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -7412,7 +7456,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="483"/>
+      <c r="C64" s="485"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -7420,7 +7464,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="485"/>
+      <c r="H64" s="487"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -7598,8 +7642,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="486"/>
-      <c r="P68" s="480"/>
+      <c r="O68" s="488"/>
+      <c r="P68" s="482"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -7633,8 +7677,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="487"/>
-      <c r="P69" s="481"/>
+      <c r="O69" s="489"/>
+      <c r="P69" s="483"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -8124,8 +8168,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="486"/>
-      <c r="P82" s="500"/>
+      <c r="O82" s="488"/>
+      <c r="P82" s="502"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -8157,8 +8201,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="487"/>
-      <c r="P83" s="501"/>
+      <c r="O83" s="489"/>
+      <c r="P83" s="503"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -8190,8 +8234,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="486"/>
-      <c r="P84" s="500"/>
+      <c r="O84" s="488"/>
+      <c r="P84" s="502"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -8223,8 +8267,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="487"/>
-      <c r="P85" s="501"/>
+      <c r="O85" s="489"/>
+      <c r="P85" s="503"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -8382,8 +8426,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="502"/>
-      <c r="M90" s="503"/>
+      <c r="L90" s="504"/>
+      <c r="M90" s="505"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8415,8 +8459,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="502"/>
-      <c r="M91" s="503"/>
+      <c r="L91" s="504"/>
+      <c r="M91" s="505"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8619,8 +8663,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="486"/>
-      <c r="P97" s="496"/>
+      <c r="O97" s="488"/>
+      <c r="P97" s="498"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -8652,8 +8696,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="487"/>
-      <c r="P98" s="497"/>
+      <c r="O98" s="489"/>
+      <c r="P98" s="499"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -14045,11 +14089,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="498" t="s">
+      <c r="F262" s="500" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="498"/>
-      <c r="H262" s="499"/>
+      <c r="G262" s="500"/>
+      <c r="H262" s="501"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -14695,49 +14739,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="504" t="s">
+      <c r="A1" s="506" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="504"/>
-      <c r="C1" s="504"/>
-      <c r="D1" s="504"/>
-      <c r="E1" s="504"/>
-      <c r="F1" s="504"/>
-      <c r="G1" s="504"/>
-      <c r="H1" s="504"/>
-      <c r="I1" s="504"/>
-      <c r="J1" s="504"/>
+      <c r="B1" s="506"/>
+      <c r="C1" s="506"/>
+      <c r="D1" s="506"/>
+      <c r="E1" s="506"/>
+      <c r="F1" s="506"/>
+      <c r="G1" s="506"/>
+      <c r="H1" s="506"/>
+      <c r="I1" s="506"/>
+      <c r="J1" s="506"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="523" t="s">
+      <c r="S1" s="525" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="523"/>
+      <c r="T1" s="525"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="505" t="s">
+      <c r="W1" s="507" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="506"/>
+      <c r="X1" s="508"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="504"/>
-      <c r="B2" s="504"/>
-      <c r="C2" s="504"/>
-      <c r="D2" s="504"/>
-      <c r="E2" s="504"/>
-      <c r="F2" s="504"/>
-      <c r="G2" s="504"/>
-      <c r="H2" s="504"/>
-      <c r="I2" s="504"/>
-      <c r="J2" s="504"/>
+      <c r="A2" s="506"/>
+      <c r="B2" s="506"/>
+      <c r="C2" s="506"/>
+      <c r="D2" s="506"/>
+      <c r="E2" s="506"/>
+      <c r="F2" s="506"/>
+      <c r="G2" s="506"/>
+      <c r="H2" s="506"/>
+      <c r="I2" s="506"/>
+      <c r="J2" s="506"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -14745,8 +14789,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="524"/>
-      <c r="T2" s="524"/>
+      <c r="S2" s="526"/>
+      <c r="T2" s="526"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -14791,10 +14835,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="507" t="s">
+      <c r="O3" s="509" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="508"/>
+      <c r="P3" s="510"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -17430,13 +17474,13 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="525" t="s">
+      <c r="A55" s="527" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="490" t="s">
+      <c r="C55" s="492" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -17447,7 +17491,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="484" t="s">
+      <c r="H55" s="486" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -17476,11 +17520,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="526"/>
+      <c r="A56" s="528"/>
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="491"/>
+      <c r="C56" s="493"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -17489,7 +17533,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="485"/>
+      <c r="H56" s="487"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -17518,13 +17562,13 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="517" t="s">
+      <c r="A57" s="519" t="s">
         <v>41</v>
       </c>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="519" t="s">
+      <c r="C57" s="521" t="s">
         <v>162</v>
       </c>
       <c r="D57" s="165"/>
@@ -17535,7 +17579,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="484" t="s">
+      <c r="H57" s="486" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -17554,10 +17598,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="486" t="s">
+      <c r="O57" s="488" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="480">
+      <c r="P57" s="482">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -17568,11 +17612,11 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="518"/>
+      <c r="A58" s="520"/>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="520"/>
+      <c r="C58" s="522"/>
       <c r="D58" s="165"/>
       <c r="E58" s="40"/>
       <c r="F58" s="151">
@@ -17581,7 +17625,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="485"/>
+      <c r="H58" s="487"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -17598,8 +17642,8 @@
         <f t="shared" si="1"/>
         <v>58366.995299999995</v>
       </c>
-      <c r="O58" s="521"/>
-      <c r="P58" s="522"/>
+      <c r="O58" s="523"/>
+      <c r="P58" s="524"/>
       <c r="Q58" s="164"/>
       <c r="R58" s="129"/>
       <c r="S58" s="92"/>
@@ -17625,7 +17669,7 @@
       <c r="G59" s="152">
         <v>44613</v>
       </c>
-      <c r="H59" s="484" t="s">
+      <c r="H59" s="486" t="s">
         <v>225</v>
       </c>
       <c r="I59" s="151">
@@ -17669,7 +17713,7 @@
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="485"/>
+      <c r="H60" s="487"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -18332,8 +18376,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="486"/>
-      <c r="P79" s="500"/>
+      <c r="O79" s="488"/>
+      <c r="P79" s="502"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -18362,8 +18406,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="487"/>
-      <c r="P80" s="501"/>
+      <c r="O80" s="489"/>
+      <c r="P80" s="503"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -18392,8 +18436,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="486"/>
-      <c r="P81" s="500"/>
+      <c r="O81" s="488"/>
+      <c r="P81" s="502"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -18425,8 +18469,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="487"/>
-      <c r="P82" s="501"/>
+      <c r="O82" s="489"/>
+      <c r="P82" s="503"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -18584,8 +18628,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="502"/>
-      <c r="M87" s="503"/>
+      <c r="L87" s="504"/>
+      <c r="M87" s="505"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18617,8 +18661,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="502"/>
-      <c r="M88" s="503"/>
+      <c r="L88" s="504"/>
+      <c r="M88" s="505"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18821,8 +18865,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="486"/>
-      <c r="P94" s="496"/>
+      <c r="O94" s="488"/>
+      <c r="P94" s="498"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -18854,8 +18898,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="487"/>
-      <c r="P95" s="497"/>
+      <c r="O95" s="489"/>
+      <c r="P95" s="499"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -24247,11 +24291,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="498" t="s">
+      <c r="F259" s="500" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="498"/>
-      <c r="H259" s="499"/>
+      <c r="G259" s="500"/>
+      <c r="H259" s="501"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>387207.97210000001</v>
@@ -24860,19 +24904,19 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D1:E1048576"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="310" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="310" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="310" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="331" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="310" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="310" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="331" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="311" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="312" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="315" customWidth="1"/>
@@ -24892,49 +24936,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="504" t="s">
+      <c r="A1" s="506" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="504"/>
-      <c r="C1" s="504"/>
-      <c r="D1" s="504"/>
-      <c r="E1" s="504"/>
-      <c r="F1" s="504"/>
-      <c r="G1" s="504"/>
-      <c r="H1" s="504"/>
-      <c r="I1" s="504"/>
-      <c r="J1" s="504"/>
+      <c r="B1" s="506"/>
+      <c r="C1" s="506"/>
+      <c r="D1" s="506"/>
+      <c r="E1" s="506"/>
+      <c r="F1" s="506"/>
+      <c r="G1" s="506"/>
+      <c r="H1" s="506"/>
+      <c r="I1" s="506"/>
+      <c r="J1" s="506"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="523" t="s">
+      <c r="S1" s="525" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="523"/>
+      <c r="T1" s="525"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="505" t="s">
+      <c r="W1" s="507" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="506"/>
+      <c r="X1" s="508"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="504"/>
-      <c r="B2" s="504"/>
-      <c r="C2" s="504"/>
-      <c r="D2" s="504"/>
-      <c r="E2" s="504"/>
-      <c r="F2" s="504"/>
-      <c r="G2" s="504"/>
-      <c r="H2" s="504"/>
-      <c r="I2" s="504"/>
-      <c r="J2" s="504"/>
+      <c r="A2" s="506"/>
+      <c r="B2" s="506"/>
+      <c r="C2" s="506"/>
+      <c r="D2" s="506"/>
+      <c r="E2" s="506"/>
+      <c r="F2" s="506"/>
+      <c r="G2" s="506"/>
+      <c r="H2" s="506"/>
+      <c r="I2" s="506"/>
+      <c r="J2" s="506"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -24942,8 +24986,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="524"/>
-      <c r="T2" s="524"/>
+      <c r="S2" s="526"/>
+      <c r="T2" s="526"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -24988,10 +25032,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="507" t="s">
+      <c r="O3" s="509" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="508"/>
+      <c r="P3" s="510"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -26459,8 +26503,12 @@
       <c r="T23" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="U23" s="53"/>
-      <c r="V23" s="54"/>
+      <c r="U23" s="480" t="s">
+        <v>403</v>
+      </c>
+      <c r="V23" s="481">
+        <v>4640</v>
+      </c>
       <c r="W23" s="53" t="s">
         <v>250</v>
       </c>
@@ -26528,8 +26576,12 @@
       <c r="T24" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="U24" s="53"/>
-      <c r="V24" s="54"/>
+      <c r="U24" s="480" t="s">
+        <v>403</v>
+      </c>
+      <c r="V24" s="481">
+        <v>0</v>
+      </c>
       <c r="W24" s="53" t="s">
         <v>250</v>
       </c>
@@ -26597,8 +26649,12 @@
       <c r="T25" s="92" t="s">
         <v>228</v>
       </c>
-      <c r="U25" s="53"/>
-      <c r="V25" s="54"/>
+      <c r="U25" s="480" t="s">
+        <v>403</v>
+      </c>
+      <c r="V25" s="481">
+        <v>4640</v>
+      </c>
       <c r="W25" s="53" t="s">
         <v>250</v>
       </c>
@@ -26666,8 +26722,12 @@
       <c r="T26" s="92" t="s">
         <v>228</v>
       </c>
-      <c r="U26" s="53"/>
-      <c r="V26" s="54"/>
+      <c r="U26" s="480" t="s">
+        <v>403</v>
+      </c>
+      <c r="V26" s="481">
+        <v>0</v>
+      </c>
       <c r="W26" s="53" t="s">
         <v>250</v>
       </c>
@@ -26735,8 +26795,12 @@
       <c r="T27" s="92" t="s">
         <v>262</v>
       </c>
-      <c r="U27" s="53"/>
-      <c r="V27" s="54"/>
+      <c r="U27" s="480" t="s">
+        <v>403</v>
+      </c>
+      <c r="V27" s="481">
+        <v>4640</v>
+      </c>
       <c r="W27" s="53" t="s">
         <v>250</v>
       </c>
@@ -26804,8 +26868,12 @@
       <c r="T28" s="92" t="s">
         <v>262</v>
       </c>
-      <c r="U28" s="53"/>
-      <c r="V28" s="54"/>
+      <c r="U28" s="480" t="s">
+        <v>403</v>
+      </c>
+      <c r="V28" s="481">
+        <v>0</v>
+      </c>
       <c r="W28" s="53" t="s">
         <v>250</v>
       </c>
@@ -26874,8 +26942,12 @@
       <c r="T29" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="U29" s="53"/>
-      <c r="V29" s="54"/>
+      <c r="U29" s="480" t="s">
+        <v>403</v>
+      </c>
+      <c r="V29" s="481">
+        <v>4640</v>
+      </c>
       <c r="W29" s="53" t="s">
         <v>250</v>
       </c>
@@ -26943,8 +27015,12 @@
       <c r="T30" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="U30" s="53"/>
-      <c r="V30" s="54"/>
+      <c r="U30" s="480" t="s">
+        <v>403</v>
+      </c>
+      <c r="V30" s="481">
+        <v>0</v>
+      </c>
       <c r="W30" s="53" t="s">
         <v>250</v>
       </c>
@@ -27012,8 +27088,12 @@
       <c r="T31" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="U31" s="53"/>
-      <c r="V31" s="54"/>
+      <c r="U31" s="480" t="s">
+        <v>403</v>
+      </c>
+      <c r="V31" s="481">
+        <v>4640</v>
+      </c>
       <c r="W31" s="53" t="s">
         <v>250</v>
       </c>
@@ -27081,8 +27161,12 @@
       <c r="T32" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="U32" s="53"/>
-      <c r="V32" s="54"/>
+      <c r="U32" s="480" t="s">
+        <v>403</v>
+      </c>
+      <c r="V32" s="481">
+        <v>0</v>
+      </c>
       <c r="W32" s="53" t="s">
         <v>250</v>
       </c>
@@ -27151,8 +27235,12 @@
       <c r="T33" s="92" t="s">
         <v>259</v>
       </c>
-      <c r="U33" s="53"/>
-      <c r="V33" s="54"/>
+      <c r="U33" s="480" t="s">
+        <v>403</v>
+      </c>
+      <c r="V33" s="481">
+        <v>4640</v>
+      </c>
       <c r="W33" s="53" t="s">
         <v>250</v>
       </c>
@@ -27220,8 +27308,12 @@
       <c r="T34" s="92" t="s">
         <v>259</v>
       </c>
-      <c r="U34" s="53"/>
-      <c r="V34" s="54"/>
+      <c r="U34" s="480" t="s">
+        <v>403</v>
+      </c>
+      <c r="V34" s="481">
+        <v>0</v>
+      </c>
       <c r="W34" s="53" t="s">
         <v>250</v>
       </c>
@@ -27289,8 +27381,12 @@
       <c r="T35" s="92" t="s">
         <v>249</v>
       </c>
-      <c r="U35" s="53"/>
-      <c r="V35" s="54"/>
+      <c r="U35" s="480" t="s">
+        <v>403</v>
+      </c>
+      <c r="V35" s="481">
+        <v>4640</v>
+      </c>
       <c r="W35" s="53" t="s">
         <v>250</v>
       </c>
@@ -27358,8 +27454,12 @@
       <c r="T36" s="92" t="s">
         <v>249</v>
       </c>
-      <c r="U36" s="53"/>
-      <c r="V36" s="54"/>
+      <c r="U36" s="480" t="s">
+        <v>403</v>
+      </c>
+      <c r="V36" s="481">
+        <v>0</v>
+      </c>
       <c r="W36" s="53" t="s">
         <v>250</v>
       </c>
@@ -27427,8 +27527,12 @@
       <c r="T37" s="92" t="s">
         <v>271</v>
       </c>
-      <c r="U37" s="53"/>
-      <c r="V37" s="54"/>
+      <c r="U37" s="480" t="s">
+        <v>403</v>
+      </c>
+      <c r="V37" s="481">
+        <v>4640</v>
+      </c>
       <c r="W37" s="53" t="s">
         <v>250</v>
       </c>
@@ -27496,8 +27600,12 @@
       <c r="T38" s="92" t="s">
         <v>271</v>
       </c>
-      <c r="U38" s="53"/>
-      <c r="V38" s="54"/>
+      <c r="U38" s="480" t="s">
+        <v>403</v>
+      </c>
+      <c r="V38" s="481">
+        <v>0</v>
+      </c>
       <c r="W38" s="53" t="s">
         <v>250</v>
       </c>
@@ -27565,8 +27673,12 @@
       <c r="T39" s="92" t="s">
         <v>304</v>
       </c>
-      <c r="U39" s="53"/>
-      <c r="V39" s="54"/>
+      <c r="U39" s="480" t="s">
+        <v>403</v>
+      </c>
+      <c r="V39" s="481">
+        <v>4640</v>
+      </c>
       <c r="W39" s="53" t="s">
         <v>250</v>
       </c>
@@ -27634,8 +27746,12 @@
       <c r="T40" s="92" t="s">
         <v>304</v>
       </c>
-      <c r="U40" s="53"/>
-      <c r="V40" s="54"/>
+      <c r="U40" s="480" t="s">
+        <v>403</v>
+      </c>
+      <c r="V40" s="481">
+        <v>0</v>
+      </c>
       <c r="W40" s="53" t="s">
         <v>250</v>
       </c>
@@ -28127,13 +28243,13 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="525" t="s">
+      <c r="A55" s="527" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="490" t="s">
+      <c r="C55" s="492" t="s">
         <v>229</v>
       </c>
       <c r="D55" s="439"/>
@@ -28144,7 +28260,7 @@
       <c r="G55" s="152">
         <v>44627</v>
       </c>
-      <c r="H55" s="530" t="s">
+      <c r="H55" s="532" t="s">
         <v>230</v>
       </c>
       <c r="I55" s="151">
@@ -28163,10 +28279,10 @@
         <f t="shared" si="1"/>
         <v>18886.399999999998</v>
       </c>
-      <c r="O55" s="486" t="s">
+      <c r="O55" s="488" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="480">
+      <c r="P55" s="482">
         <v>44645</v>
       </c>
       <c r="Q55" s="128"/>
@@ -28177,11 +28293,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="529"/>
+      <c r="A56" s="531"/>
       <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="491"/>
+      <c r="C56" s="493"/>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151">
@@ -28190,7 +28306,7 @@
       <c r="G56" s="152">
         <v>44627</v>
       </c>
-      <c r="H56" s="531"/>
+      <c r="H56" s="533"/>
       <c r="I56" s="151">
         <v>967</v>
       </c>
@@ -28207,8 +28323,8 @@
         <f t="shared" si="1"/>
         <v>92832</v>
       </c>
-      <c r="O56" s="487"/>
-      <c r="P56" s="481"/>
+      <c r="O56" s="489"/>
+      <c r="P56" s="483"/>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -28269,13 +28385,13 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="513" t="s">
+      <c r="A58" s="515" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="527" t="s">
+      <c r="C58" s="529" t="s">
         <v>319</v>
       </c>
       <c r="D58" s="165"/>
@@ -28286,7 +28402,7 @@
       <c r="G58" s="152">
         <v>44648</v>
       </c>
-      <c r="H58" s="538" t="s">
+      <c r="H58" s="540" t="s">
         <v>315</v>
       </c>
       <c r="I58" s="151">
@@ -28305,10 +28421,10 @@
         <f t="shared" si="1"/>
         <v>35255.600000000006</v>
       </c>
-      <c r="O58" s="494" t="s">
+      <c r="O58" s="496" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="515">
+      <c r="P58" s="517">
         <v>44662</v>
       </c>
       <c r="Q58" s="164"/>
@@ -28319,11 +28435,11 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="514"/>
+      <c r="A59" s="516"/>
       <c r="B59" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="528"/>
+      <c r="C59" s="530"/>
       <c r="D59" s="163"/>
       <c r="E59" s="60"/>
       <c r="F59" s="151">
@@ -28332,7 +28448,7 @@
       <c r="G59" s="152">
         <v>44648</v>
       </c>
-      <c r="H59" s="539"/>
+      <c r="H59" s="541"/>
       <c r="I59" s="151">
         <v>719</v>
       </c>
@@ -28349,8 +28465,8 @@
         <f t="shared" si="1"/>
         <v>69024</v>
       </c>
-      <c r="O59" s="495"/>
-      <c r="P59" s="516"/>
+      <c r="O59" s="497"/>
+      <c r="P59" s="518"/>
       <c r="Q59" s="164"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -28423,13 +28539,13 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="532" t="s">
+      <c r="A62" s="534" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="178" t="s">
         <v>237</v>
       </c>
-      <c r="C62" s="534" t="s">
+      <c r="C62" s="536" t="s">
         <v>238</v>
       </c>
       <c r="D62" s="168"/>
@@ -28440,7 +28556,7 @@
       <c r="G62" s="152">
         <v>44622</v>
       </c>
-      <c r="H62" s="536">
+      <c r="H62" s="538">
         <v>37162</v>
       </c>
       <c r="I62" s="151">
@@ -28459,10 +28575,10 @@
         <f t="shared" si="1"/>
         <v>7782.5999999999995</v>
       </c>
-      <c r="O62" s="486" t="s">
+      <c r="O62" s="488" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="480">
+      <c r="P62" s="482">
         <v>44643</v>
       </c>
       <c r="Q62" s="164"/>
@@ -28473,11 +28589,11 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="533"/>
+      <c r="A63" s="535"/>
       <c r="B63" s="178" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="535"/>
+      <c r="C63" s="537"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
       <c r="F63" s="151">
@@ -28486,7 +28602,7 @@
       <c r="G63" s="152">
         <v>44622</v>
       </c>
-      <c r="H63" s="537"/>
+      <c r="H63" s="539"/>
       <c r="I63" s="151">
         <v>204.8</v>
       </c>
@@ -28503,8 +28619,8 @@
         <f t="shared" si="1"/>
         <v>16998.400000000001</v>
       </c>
-      <c r="O63" s="487"/>
-      <c r="P63" s="481"/>
+      <c r="O63" s="489"/>
+      <c r="P63" s="483"/>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -28983,8 +29099,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="486"/>
-      <c r="P79" s="500"/>
+      <c r="O79" s="488"/>
+      <c r="P79" s="502"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -29013,8 +29129,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="487"/>
-      <c r="P80" s="501"/>
+      <c r="O80" s="489"/>
+      <c r="P80" s="503"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -29043,8 +29159,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="486"/>
-      <c r="P81" s="500"/>
+      <c r="O81" s="488"/>
+      <c r="P81" s="502"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -29076,8 +29192,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="487"/>
-      <c r="P82" s="501"/>
+      <c r="O82" s="489"/>
+      <c r="P82" s="503"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -29235,8 +29351,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="502"/>
-      <c r="M87" s="503"/>
+      <c r="L87" s="504"/>
+      <c r="M87" s="505"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29268,8 +29384,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="502"/>
-      <c r="M88" s="503"/>
+      <c r="L88" s="504"/>
+      <c r="M88" s="505"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29472,8 +29588,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="486"/>
-      <c r="P94" s="496"/>
+      <c r="O94" s="488"/>
+      <c r="P94" s="498"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -29505,8 +29621,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="487"/>
-      <c r="P95" s="497"/>
+      <c r="O95" s="489"/>
+      <c r="P95" s="499"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -34898,11 +35014,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="498" t="s">
+      <c r="F259" s="500" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="498"/>
-      <c r="H259" s="499"/>
+      <c r="G259" s="500"/>
+      <c r="H259" s="501"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>517031.52999999991</v>
@@ -35517,10 +35633,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="O15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -35549,49 +35665,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="504" t="s">
+      <c r="A1" s="506" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="504"/>
-      <c r="C1" s="504"/>
-      <c r="D1" s="504"/>
-      <c r="E1" s="504"/>
-      <c r="F1" s="504"/>
-      <c r="G1" s="504"/>
-      <c r="H1" s="504"/>
-      <c r="I1" s="504"/>
-      <c r="J1" s="504"/>
+      <c r="B1" s="506"/>
+      <c r="C1" s="506"/>
+      <c r="D1" s="506"/>
+      <c r="E1" s="506"/>
+      <c r="F1" s="506"/>
+      <c r="G1" s="506"/>
+      <c r="H1" s="506"/>
+      <c r="I1" s="506"/>
+      <c r="J1" s="506"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="523" t="s">
+      <c r="S1" s="525" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="523"/>
+      <c r="T1" s="525"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="505" t="s">
+      <c r="W1" s="507" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="506"/>
+      <c r="X1" s="508"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="504"/>
-      <c r="B2" s="504"/>
-      <c r="C2" s="504"/>
-      <c r="D2" s="504"/>
-      <c r="E2" s="504"/>
-      <c r="F2" s="504"/>
-      <c r="G2" s="504"/>
-      <c r="H2" s="504"/>
-      <c r="I2" s="504"/>
-      <c r="J2" s="504"/>
+      <c r="A2" s="506"/>
+      <c r="B2" s="506"/>
+      <c r="C2" s="506"/>
+      <c r="D2" s="506"/>
+      <c r="E2" s="506"/>
+      <c r="F2" s="506"/>
+      <c r="G2" s="506"/>
+      <c r="H2" s="506"/>
+      <c r="I2" s="506"/>
+      <c r="J2" s="506"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -35599,8 +35715,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="524"/>
-      <c r="T2" s="524"/>
+      <c r="S2" s="526"/>
+      <c r="T2" s="526"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -35645,10 +35761,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="507" t="s">
+      <c r="O3" s="509" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="508"/>
+      <c r="P3" s="510"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -36336,7 +36452,7 @@
         <v>44661</v>
       </c>
       <c r="H14" s="410" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I14" s="411">
         <v>22455</v>
@@ -36397,7 +36513,7 @@
         <v>44661</v>
       </c>
       <c r="H15" s="410" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I15" s="411">
         <v>6355</v>
@@ -36458,7 +36574,7 @@
         <v>44662</v>
       </c>
       <c r="H16" s="410" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I16" s="411">
         <v>21410</v>
@@ -36519,7 +36635,7 @@
         <v>44662</v>
       </c>
       <c r="H17" s="410" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I17" s="411">
         <f>5815-116.3</f>
@@ -36618,7 +36734,7 @@
       <c r="W18" s="53"/>
       <c r="X18" s="70"/>
     </row>
-    <row r="19" spans="1:24" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="78" t="s">
         <v>299</v>
       </c>
@@ -36642,14 +36758,15 @@
         <v>44664</v>
       </c>
       <c r="H19" s="410" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="I19" s="411">
-        <v>22455</v>
+        <f>24990-1124.55</f>
+        <v>23865.45</v>
       </c>
       <c r="J19" s="45">
         <f t="shared" si="0"/>
-        <v>-1385</v>
+        <v>25.450000000000728</v>
       </c>
       <c r="K19" s="76">
         <v>35.5</v>
@@ -36658,10 +36775,14 @@
       <c r="M19" s="65"/>
       <c r="N19" s="48">
         <f t="shared" si="1"/>
-        <v>797152.5</v>
-      </c>
-      <c r="O19" s="397"/>
-      <c r="P19" s="398"/>
+        <v>847223.47499999998</v>
+      </c>
+      <c r="O19" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="398">
+        <v>44678</v>
+      </c>
       <c r="Q19" s="79">
         <v>27114</v>
       </c>
@@ -36703,14 +36824,14 @@
         <v>44664</v>
       </c>
       <c r="H20" s="410" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I20" s="411">
-        <v>6355</v>
+        <v>5695</v>
       </c>
       <c r="J20" s="45">
         <f t="shared" si="0"/>
-        <v>6355</v>
+        <v>5695</v>
       </c>
       <c r="K20" s="76">
         <v>35.5</v>
@@ -36719,10 +36840,14 @@
       <c r="M20" s="65"/>
       <c r="N20" s="48">
         <f t="shared" si="1"/>
-        <v>225602.5</v>
-      </c>
-      <c r="O20" s="89"/>
-      <c r="P20" s="90"/>
+        <v>202172.5</v>
+      </c>
+      <c r="O20" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="90">
+        <v>44678</v>
+      </c>
       <c r="Q20" s="79">
         <v>0</v>
       </c>
@@ -36764,7 +36889,7 @@
         <v>44665</v>
       </c>
       <c r="H21" s="410" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="I21" s="411">
         <v>22950</v>
@@ -36782,8 +36907,12 @@
         <f t="shared" si="1"/>
         <v>814725</v>
       </c>
-      <c r="O21" s="89"/>
-      <c r="P21" s="90"/>
+      <c r="O21" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="P21" s="90">
+        <v>44679</v>
+      </c>
       <c r="Q21" s="79">
         <v>25937</v>
       </c>
@@ -36825,7 +36954,7 @@
         <v>44665</v>
       </c>
       <c r="H22" s="410" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="I22" s="411">
         <v>5715</v>
@@ -36843,8 +36972,12 @@
         <f t="shared" si="1"/>
         <v>202882.5</v>
       </c>
-      <c r="O22" s="89"/>
-      <c r="P22" s="90"/>
+      <c r="O22" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" s="90">
+        <v>44679</v>
+      </c>
       <c r="Q22" s="79">
         <v>0</v>
       </c>
@@ -36862,7 +36995,7 @@
       <c r="W22" s="53"/>
       <c r="X22" s="70"/>
     </row>
-    <row r="23" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="82" t="s">
         <v>297</v>
       </c>
@@ -36886,14 +37019,15 @@
         <v>44668</v>
       </c>
       <c r="H23" s="410" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="I23" s="411">
-        <v>23990</v>
+        <f>23990-119.95</f>
+        <v>23870.05</v>
       </c>
       <c r="J23" s="45">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>-59.950000000000728</v>
       </c>
       <c r="K23" s="76">
         <v>35.5</v>
@@ -36902,10 +37036,14 @@
       <c r="M23" s="65"/>
       <c r="N23" s="48">
         <f t="shared" si="1"/>
-        <v>851645</v>
-      </c>
-      <c r="O23" s="89"/>
-      <c r="P23" s="90"/>
+        <v>847386.77500000002</v>
+      </c>
+      <c r="O23" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" s="90">
+        <v>44680</v>
+      </c>
       <c r="Q23" s="79">
         <v>27007</v>
       </c>
@@ -36923,7 +37061,7 @@
       <c r="W23" s="53"/>
       <c r="X23" s="70"/>
     </row>
-    <row r="24" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="83" t="s">
         <v>339</v>
       </c>
@@ -36947,14 +37085,15 @@
         <v>44668</v>
       </c>
       <c r="H24" s="410" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="I24" s="411">
-        <v>6665</v>
+        <f>6665-133.3</f>
+        <v>6531.7</v>
       </c>
       <c r="J24" s="45">
         <f t="shared" si="0"/>
-        <v>6665</v>
+        <v>6531.7</v>
       </c>
       <c r="K24" s="76">
         <v>35.5</v>
@@ -36963,10 +37102,14 @@
       <c r="M24" s="65"/>
       <c r="N24" s="48">
         <f t="shared" si="1"/>
-        <v>236607.5</v>
-      </c>
-      <c r="O24" s="397"/>
-      <c r="P24" s="90"/>
+        <v>231875.35</v>
+      </c>
+      <c r="O24" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" s="90">
+        <v>44680</v>
+      </c>
       <c r="Q24" s="79">
         <v>0</v>
       </c>
@@ -37008,7 +37151,7 @@
         <v>44670</v>
       </c>
       <c r="H25" s="410" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I25" s="411">
         <v>24940</v>
@@ -37069,7 +37212,7 @@
         <v>44670</v>
       </c>
       <c r="H26" s="410" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I26" s="411">
         <v>6390</v>
@@ -37126,7 +37269,7 @@
         <v>44672</v>
       </c>
       <c r="H27" s="410" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I27" s="411">
         <v>22650</v>
@@ -37156,7 +37299,7 @@
         <v>11200</v>
       </c>
       <c r="T27" s="92" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="U27" s="53"/>
       <c r="V27" s="54"/>
@@ -37183,7 +37326,7 @@
         <v>44672</v>
       </c>
       <c r="H28" s="410" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I28" s="411">
         <v>5655</v>
@@ -37213,7 +37356,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="92" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="U28" s="53"/>
       <c r="V28" s="54"/>
@@ -37240,7 +37383,7 @@
         <v>44673</v>
       </c>
       <c r="H29" s="410" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I29" s="411">
         <v>23490</v>
@@ -37270,7 +37413,7 @@
         <v>11200</v>
       </c>
       <c r="T29" s="92" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="U29" s="53"/>
       <c r="V29" s="54"/>
@@ -37297,7 +37440,7 @@
         <v>44673</v>
       </c>
       <c r="H30" s="410" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I30" s="411">
         <v>5845</v>
@@ -37327,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="92" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="U30" s="53"/>
       <c r="V30" s="54"/>
@@ -37335,33 +37478,51 @@
       <c r="X30" s="70"/>
     </row>
     <row r="31" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="71"/>
-      <c r="B31" s="93"/>
+      <c r="A31" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="93" t="s">
+        <v>72</v>
+      </c>
       <c r="C31" s="59"/>
       <c r="D31" s="60"/>
       <c r="E31" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F31" s="61"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="410"/>
-      <c r="I31" s="411"/>
+      <c r="F31" s="61">
+        <v>24250</v>
+      </c>
+      <c r="G31" s="62">
+        <v>44676</v>
+      </c>
+      <c r="H31" s="410" t="s">
+        <v>394</v>
+      </c>
+      <c r="I31" s="411">
+        <v>24350</v>
+      </c>
       <c r="J31" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="76"/>
+        <v>100</v>
+      </c>
+      <c r="K31" s="76">
+        <v>35.5</v>
+      </c>
       <c r="L31" s="65"/>
       <c r="M31" s="65"/>
       <c r="N31" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>864425</v>
       </c>
       <c r="O31" s="89"/>
       <c r="P31" s="90"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="95"/>
+      <c r="Q31" s="94">
+        <v>26900</v>
+      </c>
+      <c r="R31" s="95">
+        <v>44680</v>
+      </c>
       <c r="S31" s="91"/>
       <c r="T31" s="92"/>
       <c r="U31" s="53"/>
@@ -37370,33 +37531,51 @@
       <c r="X31" s="70"/>
     </row>
     <row r="32" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="71"/>
-      <c r="B32" s="93"/>
+      <c r="A32" s="71" t="s">
+        <v>391</v>
+      </c>
+      <c r="B32" s="93" t="s">
+        <v>32</v>
+      </c>
       <c r="C32" s="59"/>
       <c r="D32" s="60"/>
       <c r="E32" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F32" s="61"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="410"/>
-      <c r="I32" s="411"/>
+      <c r="F32" s="61">
+        <v>0</v>
+      </c>
+      <c r="G32" s="62">
+        <v>44676</v>
+      </c>
+      <c r="H32" s="410" t="s">
+        <v>394</v>
+      </c>
+      <c r="I32" s="411">
+        <v>5985</v>
+      </c>
       <c r="J32" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="76"/>
+        <v>5985</v>
+      </c>
+      <c r="K32" s="76">
+        <v>35.5</v>
+      </c>
       <c r="L32" s="65"/>
       <c r="M32" s="65"/>
       <c r="N32" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>212467.5</v>
       </c>
       <c r="O32" s="98"/>
       <c r="P32" s="90"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="95"/>
+      <c r="Q32" s="94">
+        <v>0</v>
+      </c>
+      <c r="R32" s="95">
+        <v>44680</v>
+      </c>
       <c r="S32" s="91"/>
       <c r="T32" s="92"/>
       <c r="U32" s="53"/>
@@ -37405,140 +37584,228 @@
       <c r="X32" s="70"/>
     </row>
     <row r="33" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="83"/>
-      <c r="B33" s="93"/>
+      <c r="A33" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="93" t="s">
+        <v>72</v>
+      </c>
       <c r="C33" s="59"/>
       <c r="D33" s="60"/>
       <c r="E33" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F33" s="61"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="410"/>
-      <c r="I33" s="411"/>
+      <c r="F33" s="61">
+        <v>22520</v>
+      </c>
+      <c r="G33" s="62">
+        <v>44678</v>
+      </c>
+      <c r="H33" s="410" t="s">
+        <v>395</v>
+      </c>
+      <c r="I33" s="411">
+        <v>22560</v>
+      </c>
       <c r="J33" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="76"/>
+        <v>40</v>
+      </c>
+      <c r="K33" s="76">
+        <v>35.5</v>
+      </c>
       <c r="L33" s="99"/>
       <c r="M33" s="99"/>
       <c r="N33" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>800880</v>
       </c>
       <c r="O33" s="98"/>
       <c r="P33" s="90"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="91"/>
-      <c r="T33" s="92"/>
+      <c r="Q33" s="94">
+        <v>26900</v>
+      </c>
+      <c r="R33" s="95">
+        <v>44680</v>
+      </c>
+      <c r="S33" s="91">
+        <v>11200</v>
+      </c>
+      <c r="T33" s="92" t="s">
+        <v>392</v>
+      </c>
       <c r="U33" s="53"/>
       <c r="V33" s="54"/>
       <c r="W33" s="53"/>
       <c r="X33" s="70"/>
     </row>
     <row r="34" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="82"/>
-      <c r="B34" s="93"/>
+      <c r="A34" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="93" t="s">
+        <v>32</v>
+      </c>
       <c r="C34" s="59"/>
       <c r="D34" s="60"/>
       <c r="E34" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F34" s="61"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="410"/>
-      <c r="I34" s="411"/>
+      <c r="F34" s="61">
+        <v>0</v>
+      </c>
+      <c r="G34" s="62">
+        <v>44678</v>
+      </c>
+      <c r="H34" s="410" t="s">
+        <v>396</v>
+      </c>
+      <c r="I34" s="411">
+        <v>5700</v>
+      </c>
       <c r="J34" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="76"/>
+        <v>5700</v>
+      </c>
+      <c r="K34" s="76">
+        <v>35.5</v>
+      </c>
       <c r="L34" s="99"/>
       <c r="M34" s="99"/>
       <c r="N34" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>202350</v>
       </c>
       <c r="O34" s="98"/>
       <c r="P34" s="90"/>
-      <c r="Q34" s="94"/>
-      <c r="R34" s="95"/>
-      <c r="S34" s="91"/>
-      <c r="T34" s="92"/>
+      <c r="Q34" s="94">
+        <v>0</v>
+      </c>
+      <c r="R34" s="95">
+        <v>44680</v>
+      </c>
+      <c r="S34" s="91">
+        <v>0</v>
+      </c>
+      <c r="T34" s="92" t="s">
+        <v>392</v>
+      </c>
       <c r="U34" s="53"/>
       <c r="V34" s="54"/>
       <c r="W34" s="53"/>
       <c r="X34" s="70"/>
     </row>
     <row r="35" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="82"/>
-      <c r="B35" s="93"/>
+      <c r="A35" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="93" t="s">
+        <v>72</v>
+      </c>
       <c r="C35" s="59"/>
       <c r="D35" s="60"/>
       <c r="E35" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F35" s="61"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="410"/>
-      <c r="I35" s="411"/>
+      <c r="F35" s="61">
+        <v>23105.200000000001</v>
+      </c>
+      <c r="G35" s="62">
+        <v>44680</v>
+      </c>
+      <c r="H35" s="410" t="s">
+        <v>397</v>
+      </c>
+      <c r="I35" s="411">
+        <v>22930</v>
+      </c>
       <c r="J35" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="100"/>
+        <v>-175.20000000000073</v>
+      </c>
+      <c r="K35" s="100">
+        <v>35.5</v>
+      </c>
       <c r="L35" s="99"/>
       <c r="M35" s="99"/>
       <c r="N35" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>814015</v>
       </c>
       <c r="O35" s="98"/>
       <c r="P35" s="90"/>
-      <c r="Q35" s="94"/>
-      <c r="R35" s="95"/>
-      <c r="S35" s="91"/>
-      <c r="T35" s="92"/>
+      <c r="Q35" s="94">
+        <v>26900</v>
+      </c>
+      <c r="R35" s="95">
+        <v>44680</v>
+      </c>
+      <c r="S35" s="91">
+        <v>11200</v>
+      </c>
+      <c r="T35" s="92" t="s">
+        <v>398</v>
+      </c>
       <c r="U35" s="53"/>
       <c r="V35" s="54"/>
       <c r="W35" s="53"/>
       <c r="X35" s="70"/>
     </row>
     <row r="36" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="57"/>
-      <c r="B36" s="93"/>
+      <c r="A36" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="B36" s="93" t="s">
+        <v>32</v>
+      </c>
       <c r="C36" s="59"/>
       <c r="D36" s="60"/>
       <c r="E36" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F36" s="61"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="410"/>
-      <c r="I36" s="411"/>
+      <c r="F36" s="61">
+        <v>0</v>
+      </c>
+      <c r="G36" s="62">
+        <v>44680</v>
+      </c>
+      <c r="H36" s="410" t="s">
+        <v>397</v>
+      </c>
+      <c r="I36" s="411">
+        <v>5885</v>
+      </c>
       <c r="J36" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="100"/>
+        <v>5885</v>
+      </c>
+      <c r="K36" s="100">
+        <v>35.5</v>
+      </c>
       <c r="L36" s="99"/>
       <c r="M36" s="99"/>
       <c r="N36" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>208917.5</v>
       </c>
       <c r="O36" s="98"/>
       <c r="P36" s="90"/>
-      <c r="Q36" s="94"/>
-      <c r="R36" s="95"/>
-      <c r="S36" s="91"/>
-      <c r="T36" s="92"/>
+      <c r="Q36" s="94">
+        <v>0</v>
+      </c>
+      <c r="R36" s="95">
+        <v>44680</v>
+      </c>
+      <c r="S36" s="91">
+        <v>0</v>
+      </c>
+      <c r="T36" s="92" t="s">
+        <v>398</v>
+      </c>
       <c r="U36" s="53"/>
       <c r="V36" s="54"/>
       <c r="W36" s="53"/>
@@ -38476,10 +38743,10 @@
         <v>111</v>
       </c>
       <c r="B63" s="178" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C63" s="476" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
@@ -38992,8 +39259,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="486"/>
-      <c r="P79" s="500"/>
+      <c r="O79" s="488"/>
+      <c r="P79" s="502"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -39022,8 +39289,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="487"/>
-      <c r="P80" s="501"/>
+      <c r="O80" s="489"/>
+      <c r="P80" s="503"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -39052,8 +39319,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="486"/>
-      <c r="P81" s="500"/>
+      <c r="O81" s="488"/>
+      <c r="P81" s="502"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -39085,8 +39352,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="487"/>
-      <c r="P82" s="501"/>
+      <c r="O82" s="489"/>
+      <c r="P82" s="503"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -39244,8 +39511,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="502"/>
-      <c r="M87" s="503"/>
+      <c r="L87" s="504"/>
+      <c r="M87" s="505"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -39277,8 +39544,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="502"/>
-      <c r="M88" s="503"/>
+      <c r="L88" s="504"/>
+      <c r="M88" s="505"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -39481,8 +39748,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="486"/>
-      <c r="P94" s="496"/>
+      <c r="O94" s="488"/>
+      <c r="P94" s="498"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -39514,8 +39781,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="487"/>
-      <c r="P95" s="497"/>
+      <c r="O95" s="489"/>
+      <c r="P95" s="499"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -44907,14 +45174,14 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="498" t="s">
+      <c r="F259" s="500" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="498"/>
-      <c r="H259" s="499"/>
+      <c r="G259" s="500"/>
+      <c r="H259" s="501"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
-        <v>403492.81</v>
+        <v>491400.01</v>
       </c>
       <c r="J259" s="318"/>
       <c r="K259" s="314"/>
@@ -45013,17 +45280,17 @@
       <c r="M263" s="336"/>
       <c r="N263" s="337">
         <f>SUM(N4:N262)</f>
-        <v>14577710.762999998</v>
+        <v>17698416.362999998</v>
       </c>
       <c r="O263" s="338"/>
       <c r="Q263" s="339">
         <f>SUM(Q4:Q262)</f>
-        <v>349058</v>
+        <v>429758</v>
       </c>
       <c r="R263" s="8"/>
       <c r="S263" s="340">
         <f>SUM(S17:S262)</f>
-        <v>67200</v>
+        <v>89600</v>
       </c>
       <c r="T263" s="341"/>
       <c r="U263" s="342"/>
@@ -45073,7 +45340,7 @@
       <c r="M266" s="352"/>
       <c r="N266" s="353">
         <f>V263+S263+Q263+N263+L263</f>
-        <v>14993968.762999998</v>
+        <v>18217774.362999998</v>
       </c>
       <c r="O266" s="354"/>
       <c r="R266" s="324"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/ENTRADAS OBRADOR  ABRIL    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #04  ABRIL   2022/ENTRADAS OBRADOR  ABRIL    2022.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="409">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -1240,6 +1240,21 @@
   </si>
   <si>
     <t>D-4023</t>
+  </si>
+  <si>
+    <t>0699 Z</t>
+  </si>
+  <si>
+    <t>0712 Z</t>
+  </si>
+  <si>
+    <t>0732 Z</t>
+  </si>
+  <si>
+    <t>0740 Z</t>
+  </si>
+  <si>
+    <t>0759 Z</t>
   </si>
 </sst>
 </file>
@@ -3872,6 +3887,99 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="17" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3890,99 +3998,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4013,43 +4028,43 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="49" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="49" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="49" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="49" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4381,18 +4396,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="506" t="s">
+      <c r="A1" s="482" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="506"/>
-      <c r="C1" s="506"/>
-      <c r="D1" s="506"/>
-      <c r="E1" s="506"/>
-      <c r="F1" s="506"/>
-      <c r="G1" s="506"/>
-      <c r="H1" s="506"/>
-      <c r="I1" s="506"/>
-      <c r="J1" s="506"/>
+      <c r="B1" s="482"/>
+      <c r="C1" s="482"/>
+      <c r="D1" s="482"/>
+      <c r="E1" s="482"/>
+      <c r="F1" s="482"/>
+      <c r="G1" s="482"/>
+      <c r="H1" s="482"/>
+      <c r="I1" s="482"/>
+      <c r="J1" s="482"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -4406,22 +4421,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="507" t="s">
+      <c r="W1" s="483" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="508"/>
+      <c r="X1" s="484"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="506"/>
-      <c r="B2" s="506"/>
-      <c r="C2" s="506"/>
-      <c r="D2" s="506"/>
-      <c r="E2" s="506"/>
-      <c r="F2" s="506"/>
-      <c r="G2" s="506"/>
-      <c r="H2" s="506"/>
-      <c r="I2" s="506"/>
-      <c r="J2" s="506"/>
+      <c r="A2" s="482"/>
+      <c r="B2" s="482"/>
+      <c r="C2" s="482"/>
+      <c r="D2" s="482"/>
+      <c r="E2" s="482"/>
+      <c r="F2" s="482"/>
+      <c r="G2" s="482"/>
+      <c r="H2" s="482"/>
+      <c r="I2" s="482"/>
+      <c r="J2" s="482"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -4475,10 +4490,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="509" t="s">
+      <c r="O3" s="485" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="510"/>
+      <c r="P3" s="486"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -5022,7 +5037,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="511" t="s">
+      <c r="C12" s="487" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -5086,7 +5101,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="512"/>
+      <c r="C13" s="488"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -7088,13 +7103,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="490" t="s">
+      <c r="A56" s="499" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="492" t="s">
+      <c r="C56" s="501" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -7105,7 +7120,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="494">
+      <c r="H56" s="493">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -7134,11 +7149,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="491"/>
+      <c r="A57" s="500"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="493"/>
+      <c r="C57" s="502"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -7147,7 +7162,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="495"/>
+      <c r="H57" s="494"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -7174,13 +7189,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="490" t="s">
+      <c r="A58" s="499" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="492" t="s">
+      <c r="C58" s="501" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -7191,7 +7206,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="494">
+      <c r="H58" s="493">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -7210,10 +7225,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="496" t="s">
+      <c r="O58" s="495" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="517">
+      <c r="P58" s="497">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -7224,11 +7239,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="491"/>
+      <c r="A59" s="500"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="493"/>
+      <c r="C59" s="502"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -7237,7 +7252,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="495"/>
+      <c r="H59" s="494"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -7254,8 +7269,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="497"/>
-      <c r="P59" s="518"/>
+      <c r="O59" s="496"/>
+      <c r="P59" s="498"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -7264,13 +7279,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="515" t="s">
+      <c r="A60" s="491" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="513" t="s">
+      <c r="C60" s="489" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -7284,7 +7299,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="494">
+      <c r="H60" s="493">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -7303,10 +7318,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="496" t="s">
+      <c r="O60" s="495" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="517">
+      <c r="P60" s="497">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -7319,11 +7334,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="516"/>
+      <c r="A61" s="492"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="514"/>
+      <c r="C61" s="490"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -7335,7 +7350,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="495"/>
+      <c r="H61" s="494"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -7352,8 +7367,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="497"/>
-      <c r="P61" s="518"/>
+      <c r="O61" s="496"/>
+      <c r="P61" s="498"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -7419,7 +7434,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="484"/>
+      <c r="C63" s="515"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -7427,7 +7442,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="486"/>
+      <c r="H63" s="517"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -7456,7 +7471,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="485"/>
+      <c r="C64" s="516"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -7464,7 +7479,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="487"/>
+      <c r="H64" s="518"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -7642,8 +7657,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="488"/>
-      <c r="P68" s="482"/>
+      <c r="O68" s="507"/>
+      <c r="P68" s="513"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -7677,8 +7692,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="489"/>
-      <c r="P69" s="483"/>
+      <c r="O69" s="508"/>
+      <c r="P69" s="514"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -8168,8 +8183,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="488"/>
-      <c r="P82" s="502"/>
+      <c r="O82" s="507"/>
+      <c r="P82" s="509"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -8201,8 +8216,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="489"/>
-      <c r="P83" s="503"/>
+      <c r="O83" s="508"/>
+      <c r="P83" s="510"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -8234,8 +8249,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="488"/>
-      <c r="P84" s="502"/>
+      <c r="O84" s="507"/>
+      <c r="P84" s="509"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -8267,8 +8282,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="489"/>
-      <c r="P85" s="503"/>
+      <c r="O85" s="508"/>
+      <c r="P85" s="510"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -8426,8 +8441,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="504"/>
-      <c r="M90" s="505"/>
+      <c r="L90" s="511"/>
+      <c r="M90" s="512"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8459,8 +8474,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="504"/>
-      <c r="M91" s="505"/>
+      <c r="L91" s="511"/>
+      <c r="M91" s="512"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8663,8 +8678,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="488"/>
-      <c r="P97" s="498"/>
+      <c r="O97" s="507"/>
+      <c r="P97" s="503"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -8696,8 +8711,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="489"/>
-      <c r="P98" s="499"/>
+      <c r="O98" s="508"/>
+      <c r="P98" s="504"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -14089,11 +14104,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="500" t="s">
+      <c r="F262" s="505" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="500"/>
-      <c r="H262" s="501"/>
+      <c r="G262" s="505"/>
+      <c r="H262" s="506"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -14667,6 +14682,22 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="L90:M91"/>
+    <mergeCell ref="O97:O98"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -14680,22 +14711,6 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="P58:P59"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="O58:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14739,18 +14754,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="506" t="s">
+      <c r="A1" s="482" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="506"/>
-      <c r="C1" s="506"/>
-      <c r="D1" s="506"/>
-      <c r="E1" s="506"/>
-      <c r="F1" s="506"/>
-      <c r="G1" s="506"/>
-      <c r="H1" s="506"/>
-      <c r="I1" s="506"/>
-      <c r="J1" s="506"/>
+      <c r="B1" s="482"/>
+      <c r="C1" s="482"/>
+      <c r="D1" s="482"/>
+      <c r="E1" s="482"/>
+      <c r="F1" s="482"/>
+      <c r="G1" s="482"/>
+      <c r="H1" s="482"/>
+      <c r="I1" s="482"/>
+      <c r="J1" s="482"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -14766,22 +14781,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="507" t="s">
+      <c r="W1" s="483" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="508"/>
+      <c r="X1" s="484"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="506"/>
-      <c r="B2" s="506"/>
-      <c r="C2" s="506"/>
-      <c r="D2" s="506"/>
-      <c r="E2" s="506"/>
-      <c r="F2" s="506"/>
-      <c r="G2" s="506"/>
-      <c r="H2" s="506"/>
-      <c r="I2" s="506"/>
-      <c r="J2" s="506"/>
+      <c r="A2" s="482"/>
+      <c r="B2" s="482"/>
+      <c r="C2" s="482"/>
+      <c r="D2" s="482"/>
+      <c r="E2" s="482"/>
+      <c r="F2" s="482"/>
+      <c r="G2" s="482"/>
+      <c r="H2" s="482"/>
+      <c r="I2" s="482"/>
+      <c r="J2" s="482"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -14835,10 +14850,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="509" t="s">
+      <c r="O3" s="485" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="510"/>
+      <c r="P3" s="486"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -17480,7 +17495,7 @@
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="492" t="s">
+      <c r="C55" s="501" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -17491,7 +17506,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="486" t="s">
+      <c r="H55" s="517" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -17524,7 +17539,7 @@
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="493"/>
+      <c r="C56" s="502"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -17533,7 +17548,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="487"/>
+      <c r="H56" s="518"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -17579,7 +17594,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="486" t="s">
+      <c r="H57" s="517" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -17598,10 +17613,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="488" t="s">
+      <c r="O57" s="507" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="482">
+      <c r="P57" s="513">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -17625,7 +17640,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="487"/>
+      <c r="H58" s="518"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -17669,7 +17684,7 @@
       <c r="G59" s="152">
         <v>44613</v>
       </c>
-      <c r="H59" s="486" t="s">
+      <c r="H59" s="517" t="s">
         <v>225</v>
       </c>
       <c r="I59" s="151">
@@ -17713,7 +17728,7 @@
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="487"/>
+      <c r="H60" s="518"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -18376,8 +18391,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="488"/>
-      <c r="P79" s="502"/>
+      <c r="O79" s="507"/>
+      <c r="P79" s="509"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -18406,8 +18421,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="489"/>
-      <c r="P80" s="503"/>
+      <c r="O80" s="508"/>
+      <c r="P80" s="510"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -18436,8 +18451,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="488"/>
-      <c r="P81" s="502"/>
+      <c r="O81" s="507"/>
+      <c r="P81" s="509"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -18469,8 +18484,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="489"/>
-      <c r="P82" s="503"/>
+      <c r="O82" s="508"/>
+      <c r="P82" s="510"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -18628,8 +18643,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="504"/>
-      <c r="M87" s="505"/>
+      <c r="L87" s="511"/>
+      <c r="M87" s="512"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18661,8 +18676,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="504"/>
-      <c r="M88" s="505"/>
+      <c r="L88" s="511"/>
+      <c r="M88" s="512"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18865,8 +18880,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="488"/>
-      <c r="P94" s="498"/>
+      <c r="O94" s="507"/>
+      <c r="P94" s="503"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -18898,8 +18913,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="489"/>
-      <c r="P95" s="499"/>
+      <c r="O95" s="508"/>
+      <c r="P95" s="504"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -24291,11 +24306,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="500" t="s">
+      <c r="F259" s="505" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="500"/>
-      <c r="H259" s="501"/>
+      <c r="G259" s="505"/>
+      <c r="H259" s="506"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>387207.97210000001</v>
@@ -24869,12 +24884,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
     <mergeCell ref="O79:O80"/>
     <mergeCell ref="P79:P80"/>
     <mergeCell ref="A1:J2"/>
@@ -24890,6 +24899,12 @@
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="H55:H56"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24936,18 +24951,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="506" t="s">
+      <c r="A1" s="482" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="506"/>
-      <c r="C1" s="506"/>
-      <c r="D1" s="506"/>
-      <c r="E1" s="506"/>
-      <c r="F1" s="506"/>
-      <c r="G1" s="506"/>
-      <c r="H1" s="506"/>
-      <c r="I1" s="506"/>
-      <c r="J1" s="506"/>
+      <c r="B1" s="482"/>
+      <c r="C1" s="482"/>
+      <c r="D1" s="482"/>
+      <c r="E1" s="482"/>
+      <c r="F1" s="482"/>
+      <c r="G1" s="482"/>
+      <c r="H1" s="482"/>
+      <c r="I1" s="482"/>
+      <c r="J1" s="482"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -24963,22 +24978,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="507" t="s">
+      <c r="W1" s="483" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="508"/>
+      <c r="X1" s="484"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="506"/>
-      <c r="B2" s="506"/>
-      <c r="C2" s="506"/>
-      <c r="D2" s="506"/>
-      <c r="E2" s="506"/>
-      <c r="F2" s="506"/>
-      <c r="G2" s="506"/>
-      <c r="H2" s="506"/>
-      <c r="I2" s="506"/>
-      <c r="J2" s="506"/>
+      <c r="A2" s="482"/>
+      <c r="B2" s="482"/>
+      <c r="C2" s="482"/>
+      <c r="D2" s="482"/>
+      <c r="E2" s="482"/>
+      <c r="F2" s="482"/>
+      <c r="G2" s="482"/>
+      <c r="H2" s="482"/>
+      <c r="I2" s="482"/>
+      <c r="J2" s="482"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -25032,10 +25047,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="509" t="s">
+      <c r="O3" s="485" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="510"/>
+      <c r="P3" s="486"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -28249,7 +28264,7 @@
       <c r="B55" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="492" t="s">
+      <c r="C55" s="501" t="s">
         <v>229</v>
       </c>
       <c r="D55" s="439"/>
@@ -28260,7 +28275,7 @@
       <c r="G55" s="152">
         <v>44627</v>
       </c>
-      <c r="H55" s="532" t="s">
+      <c r="H55" s="530" t="s">
         <v>230</v>
       </c>
       <c r="I55" s="151">
@@ -28279,10 +28294,10 @@
         <f t="shared" si="1"/>
         <v>18886.399999999998</v>
       </c>
-      <c r="O55" s="488" t="s">
+      <c r="O55" s="507" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="482">
+      <c r="P55" s="513">
         <v>44645</v>
       </c>
       <c r="Q55" s="128"/>
@@ -28293,11 +28308,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="531"/>
+      <c r="A56" s="529"/>
       <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="493"/>
+      <c r="C56" s="502"/>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151">
@@ -28306,7 +28321,7 @@
       <c r="G56" s="152">
         <v>44627</v>
       </c>
-      <c r="H56" s="533"/>
+      <c r="H56" s="531"/>
       <c r="I56" s="151">
         <v>967</v>
       </c>
@@ -28323,8 +28338,8 @@
         <f t="shared" si="1"/>
         <v>92832</v>
       </c>
-      <c r="O56" s="489"/>
-      <c r="P56" s="483"/>
+      <c r="O56" s="508"/>
+      <c r="P56" s="514"/>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -28385,13 +28400,13 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="515" t="s">
+      <c r="A58" s="491" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="529" t="s">
+      <c r="C58" s="540" t="s">
         <v>319</v>
       </c>
       <c r="D58" s="165"/>
@@ -28402,7 +28417,7 @@
       <c r="G58" s="152">
         <v>44648</v>
       </c>
-      <c r="H58" s="540" t="s">
+      <c r="H58" s="538" t="s">
         <v>315</v>
       </c>
       <c r="I58" s="151">
@@ -28421,10 +28436,10 @@
         <f t="shared" si="1"/>
         <v>35255.600000000006</v>
       </c>
-      <c r="O58" s="496" t="s">
+      <c r="O58" s="495" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="517">
+      <c r="P58" s="497">
         <v>44662</v>
       </c>
       <c r="Q58" s="164"/>
@@ -28435,11 +28450,11 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="516"/>
+      <c r="A59" s="492"/>
       <c r="B59" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="530"/>
+      <c r="C59" s="541"/>
       <c r="D59" s="163"/>
       <c r="E59" s="60"/>
       <c r="F59" s="151">
@@ -28448,7 +28463,7 @@
       <c r="G59" s="152">
         <v>44648</v>
       </c>
-      <c r="H59" s="541"/>
+      <c r="H59" s="539"/>
       <c r="I59" s="151">
         <v>719</v>
       </c>
@@ -28465,8 +28480,8 @@
         <f t="shared" si="1"/>
         <v>69024</v>
       </c>
-      <c r="O59" s="497"/>
-      <c r="P59" s="518"/>
+      <c r="O59" s="496"/>
+      <c r="P59" s="498"/>
       <c r="Q59" s="164"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -28539,13 +28554,13 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="534" t="s">
+      <c r="A62" s="532" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="178" t="s">
         <v>237</v>
       </c>
-      <c r="C62" s="536" t="s">
+      <c r="C62" s="534" t="s">
         <v>238</v>
       </c>
       <c r="D62" s="168"/>
@@ -28556,7 +28571,7 @@
       <c r="G62" s="152">
         <v>44622</v>
       </c>
-      <c r="H62" s="538">
+      <c r="H62" s="536">
         <v>37162</v>
       </c>
       <c r="I62" s="151">
@@ -28575,10 +28590,10 @@
         <f t="shared" si="1"/>
         <v>7782.5999999999995</v>
       </c>
-      <c r="O62" s="488" t="s">
+      <c r="O62" s="507" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="482">
+      <c r="P62" s="513">
         <v>44643</v>
       </c>
       <c r="Q62" s="164"/>
@@ -28589,11 +28604,11 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="535"/>
+      <c r="A63" s="533"/>
       <c r="B63" s="178" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="537"/>
+      <c r="C63" s="535"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
       <c r="F63" s="151">
@@ -28602,7 +28617,7 @@
       <c r="G63" s="152">
         <v>44622</v>
       </c>
-      <c r="H63" s="539"/>
+      <c r="H63" s="537"/>
       <c r="I63" s="151">
         <v>204.8</v>
       </c>
@@ -28619,8 +28634,8 @@
         <f t="shared" si="1"/>
         <v>16998.400000000001</v>
       </c>
-      <c r="O63" s="489"/>
-      <c r="P63" s="483"/>
+      <c r="O63" s="508"/>
+      <c r="P63" s="514"/>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -29099,8 +29114,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="488"/>
-      <c r="P79" s="502"/>
+      <c r="O79" s="507"/>
+      <c r="P79" s="509"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -29129,8 +29144,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="489"/>
-      <c r="P80" s="503"/>
+      <c r="O80" s="508"/>
+      <c r="P80" s="510"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -29159,8 +29174,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="488"/>
-      <c r="P81" s="502"/>
+      <c r="O81" s="507"/>
+      <c r="P81" s="509"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -29192,8 +29207,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="489"/>
-      <c r="P82" s="503"/>
+      <c r="O82" s="508"/>
+      <c r="P82" s="510"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -29351,8 +29366,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="504"/>
-      <c r="M87" s="505"/>
+      <c r="L87" s="511"/>
+      <c r="M87" s="512"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29384,8 +29399,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="504"/>
-      <c r="M88" s="505"/>
+      <c r="L88" s="511"/>
+      <c r="M88" s="512"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -29588,8 +29603,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="488"/>
-      <c r="P94" s="498"/>
+      <c r="O94" s="507"/>
+      <c r="P94" s="503"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -29621,8 +29636,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="489"/>
-      <c r="P95" s="499"/>
+      <c r="O95" s="508"/>
+      <c r="P95" s="504"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -35014,11 +35029,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="500" t="s">
+      <c r="F259" s="505" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="500"/>
-      <c r="H259" s="501"/>
+      <c r="G259" s="505"/>
+      <c r="H259" s="506"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>517031.52999999991</v>
@@ -35592,6 +35607,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
@@ -35608,17 +35634,6 @@
     <mergeCell ref="O62:O63"/>
     <mergeCell ref="P62:P63"/>
     <mergeCell ref="H58:H59"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -35633,10 +35648,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="O15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="O24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -35644,8 +35659,8 @@
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="310" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="310" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="310" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="331" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="310" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="331" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="311" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="312" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="315" customWidth="1"/>
@@ -35665,18 +35680,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="506" t="s">
+      <c r="A1" s="482" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="506"/>
-      <c r="C1" s="506"/>
-      <c r="D1" s="506"/>
-      <c r="E1" s="506"/>
-      <c r="F1" s="506"/>
-      <c r="G1" s="506"/>
-      <c r="H1" s="506"/>
-      <c r="I1" s="506"/>
-      <c r="J1" s="506"/>
+      <c r="B1" s="482"/>
+      <c r="C1" s="482"/>
+      <c r="D1" s="482"/>
+      <c r="E1" s="482"/>
+      <c r="F1" s="482"/>
+      <c r="G1" s="482"/>
+      <c r="H1" s="482"/>
+      <c r="I1" s="482"/>
+      <c r="J1" s="482"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -35692,22 +35707,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="507" t="s">
+      <c r="W1" s="483" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="508"/>
+      <c r="X1" s="484"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="506"/>
-      <c r="B2" s="506"/>
-      <c r="C2" s="506"/>
-      <c r="D2" s="506"/>
-      <c r="E2" s="506"/>
-      <c r="F2" s="506"/>
-      <c r="G2" s="506"/>
-      <c r="H2" s="506"/>
-      <c r="I2" s="506"/>
-      <c r="J2" s="506"/>
+      <c r="A2" s="482"/>
+      <c r="B2" s="482"/>
+      <c r="C2" s="482"/>
+      <c r="D2" s="482"/>
+      <c r="E2" s="482"/>
+      <c r="F2" s="482"/>
+      <c r="G2" s="482"/>
+      <c r="H2" s="482"/>
+      <c r="I2" s="482"/>
+      <c r="J2" s="482"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -35761,10 +35776,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="509" t="s">
+      <c r="O3" s="485" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="510"/>
+      <c r="P3" s="486"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -37256,11 +37271,15 @@
       <c r="B27" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="60"/>
+      <c r="C27" s="59" t="s">
+        <v>404</v>
+      </c>
+      <c r="D27" s="60">
+        <v>50</v>
+      </c>
       <c r="E27" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1127500</v>
       </c>
       <c r="F27" s="61">
         <v>22550</v>
@@ -37313,8 +37332,12 @@
       <c r="B28" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="60"/>
+      <c r="C28" s="59" t="s">
+        <v>404</v>
+      </c>
+      <c r="D28" s="60">
+        <v>50</v>
+      </c>
       <c r="E28" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -37370,11 +37393,15 @@
       <c r="B29" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="60"/>
+      <c r="C29" s="59" t="s">
+        <v>405</v>
+      </c>
+      <c r="D29" s="60">
+        <v>50</v>
+      </c>
       <c r="E29" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1176500</v>
       </c>
       <c r="F29" s="61">
         <v>23530</v>
@@ -37427,8 +37454,12 @@
       <c r="B30" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="60"/>
+      <c r="C30" s="59" t="s">
+        <v>405</v>
+      </c>
+      <c r="D30" s="60">
+        <v>50</v>
+      </c>
       <c r="E30" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -37484,11 +37515,15 @@
       <c r="B31" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="60"/>
+      <c r="C31" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="D31" s="60">
+        <v>50</v>
+      </c>
       <c r="E31" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1212500</v>
       </c>
       <c r="F31" s="61">
         <v>24250</v>
@@ -37537,8 +37572,12 @@
       <c r="B32" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="60"/>
+      <c r="C32" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="D32" s="60">
+        <v>50</v>
+      </c>
       <c r="E32" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -37590,11 +37629,15 @@
       <c r="B33" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="60"/>
+      <c r="C33" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="D33" s="60">
+        <v>50</v>
+      </c>
       <c r="E33" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1126000</v>
       </c>
       <c r="F33" s="61">
         <v>22520</v>
@@ -37647,8 +37690,12 @@
       <c r="B34" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="60"/>
+      <c r="C34" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="D34" s="60">
+        <v>50</v>
+      </c>
       <c r="E34" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -37704,11 +37751,15 @@
       <c r="B35" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="60"/>
+      <c r="C35" s="59" t="s">
+        <v>408</v>
+      </c>
+      <c r="D35" s="60">
+        <v>50</v>
+      </c>
       <c r="E35" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1155260</v>
       </c>
       <c r="F35" s="61">
         <v>23105.200000000001</v>
@@ -37761,7 +37812,9 @@
       <c r="B36" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="59"/>
+      <c r="C36" s="59" t="s">
+        <v>408</v>
+      </c>
       <c r="D36" s="60"/>
       <c r="E36" s="40">
         <f t="shared" si="2"/>
@@ -39259,8 +39312,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="488"/>
-      <c r="P79" s="502"/>
+      <c r="O79" s="507"/>
+      <c r="P79" s="509"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -39289,8 +39342,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="489"/>
-      <c r="P80" s="503"/>
+      <c r="O80" s="508"/>
+      <c r="P80" s="510"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -39319,8 +39372,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="488"/>
-      <c r="P81" s="502"/>
+      <c r="O81" s="507"/>
+      <c r="P81" s="509"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -39352,8 +39405,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="489"/>
-      <c r="P82" s="503"/>
+      <c r="O82" s="508"/>
+      <c r="P82" s="510"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -39511,8 +39564,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="504"/>
-      <c r="M87" s="505"/>
+      <c r="L87" s="511"/>
+      <c r="M87" s="512"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -39544,8 +39597,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="504"/>
-      <c r="M88" s="505"/>
+      <c r="L88" s="511"/>
+      <c r="M88" s="512"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -39748,8 +39801,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="488"/>
-      <c r="P94" s="498"/>
+      <c r="O94" s="507"/>
+      <c r="P94" s="503"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -39781,8 +39834,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="489"/>
-      <c r="P95" s="499"/>
+      <c r="O95" s="508"/>
+      <c r="P95" s="504"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -45174,11 +45227,11 @@
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="500" t="s">
+      <c r="F259" s="505" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="500"/>
-      <c r="H259" s="501"/>
+      <c r="G259" s="505"/>
+      <c r="H259" s="506"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>491400.01</v>
@@ -45752,18 +45805,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="S1:T2"/>
     <mergeCell ref="F259:H259"/>
     <mergeCell ref="O81:O82"/>
     <mergeCell ref="P81:P82"/>
     <mergeCell ref="L87:M88"/>
     <mergeCell ref="O94:O95"/>
     <mergeCell ref="P94:P95"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
